--- a/5/9/Índice de stress local 2013 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2013 - Diaria.xlsx
@@ -1152,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.4153</v>
+        <v>0.39</v>
       </c>
       <c r="C2">
-        <v>0.1002</v>
+        <v>0.1035</v>
       </c>
       <c r="D2">
-        <v>0.3151</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4071</v>
+        <v>0.3781</v>
       </c>
       <c r="C3">
-        <v>0.09080000000000001</v>
+        <v>0.0936</v>
       </c>
       <c r="D3">
-        <v>0.3162</v>
+        <v>0.2846</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.4078</v>
+        <v>0.3759</v>
       </c>
       <c r="C4">
-        <v>0.0898</v>
+        <v>0.0925</v>
       </c>
       <c r="D4">
-        <v>0.318</v>
+        <v>0.2834</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4092</v>
+        <v>0.3743</v>
       </c>
       <c r="C5">
-        <v>0.08939999999999999</v>
+        <v>0.0919</v>
       </c>
       <c r="D5">
-        <v>0.3198</v>
+        <v>0.2824</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4123</v>
+        <v>0.3746</v>
       </c>
       <c r="C6">
-        <v>0.09030000000000001</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="D6">
-        <v>0.322</v>
+        <v>0.2817</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.4145</v>
+        <v>0.3743</v>
       </c>
       <c r="C7">
-        <v>0.0912</v>
+        <v>0.0936</v>
       </c>
       <c r="D7">
-        <v>0.3234</v>
+        <v>0.2806</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.4162</v>
+        <v>0.3735</v>
       </c>
       <c r="C8">
-        <v>0.09130000000000001</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D8">
-        <v>0.3248</v>
+        <v>0.2798</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.4185</v>
+        <v>0.3738</v>
       </c>
       <c r="C9">
-        <v>0.0921</v>
+        <v>0.0944</v>
       </c>
       <c r="D9">
-        <v>0.3264</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.4205</v>
+        <v>0.374</v>
       </c>
       <c r="C10">
-        <v>0.0924</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="D10">
-        <v>0.3282</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.4225</v>
+        <v>0.3746</v>
       </c>
       <c r="C11">
-        <v>0.0924</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="D11">
-        <v>0.3301</v>
+        <v>0.2798</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4245</v>
+        <v>0.3755</v>
       </c>
       <c r="C12">
-        <v>0.0926</v>
+        <v>0.0949</v>
       </c>
       <c r="D12">
-        <v>0.3319</v>
+        <v>0.2806</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.4255</v>
+        <v>0.3757</v>
       </c>
       <c r="C13">
-        <v>0.0922</v>
+        <v>0.0945</v>
       </c>
       <c r="D13">
-        <v>0.3333</v>
+        <v>0.2812</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.4263</v>
+        <v>0.376</v>
       </c>
       <c r="C14">
-        <v>0.092</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="D14">
-        <v>0.3343</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4269</v>
+        <v>0.376</v>
       </c>
       <c r="C15">
-        <v>0.092</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="D15">
-        <v>0.3349</v>
+        <v>0.2817</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4273</v>
+        <v>0.376</v>
       </c>
       <c r="C16">
-        <v>0.0922</v>
+        <v>0.0945</v>
       </c>
       <c r="D16">
-        <v>0.3351</v>
+        <v>0.2815</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4268</v>
+        <v>0.3749</v>
       </c>
       <c r="C17">
-        <v>0.0919</v>
+        <v>0.0941</v>
       </c>
       <c r="D17">
-        <v>0.3349</v>
+        <v>0.2808</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4254</v>
+        <v>0.3728</v>
       </c>
       <c r="C18">
-        <v>0.091</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="D18">
-        <v>0.3344</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4245</v>
+        <v>0.3713</v>
       </c>
       <c r="C19">
-        <v>0.09080000000000001</v>
+        <v>0.0929</v>
       </c>
       <c r="D19">
-        <v>0.3337</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4224</v>
+        <v>0.3682</v>
       </c>
       <c r="C20">
-        <v>0.0893</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="D20">
-        <v>0.3331</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4217</v>
+        <v>0.3665</v>
       </c>
       <c r="C21">
-        <v>0.0891</v>
+        <v>0.0911</v>
       </c>
       <c r="D21">
-        <v>0.3326</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4203</v>
+        <v>0.3641</v>
       </c>
       <c r="C22">
-        <v>0.0887</v>
+        <v>0.0906</v>
       </c>
       <c r="D22">
-        <v>0.3316</v>
+        <v>0.2735</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4191</v>
+        <v>0.3619</v>
       </c>
       <c r="C23">
-        <v>0.0886</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="D23">
-        <v>0.3305</v>
+        <v>0.2714</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4174</v>
+        <v>0.359</v>
       </c>
       <c r="C24">
-        <v>0.0883</v>
+        <v>0.0901</v>
       </c>
       <c r="D24">
-        <v>0.3291</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4161</v>
+        <v>0.3565</v>
       </c>
       <c r="C25">
-        <v>0.08840000000000001</v>
+        <v>0.0901</v>
       </c>
       <c r="D25">
-        <v>0.3277</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4142</v>
+        <v>0.3531</v>
       </c>
       <c r="C26">
-        <v>0.0878</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D26">
-        <v>0.3264</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4124</v>
+        <v>0.3497</v>
       </c>
       <c r="C27">
-        <v>0.0873</v>
+        <v>0.0888</v>
       </c>
       <c r="D27">
-        <v>0.3252</v>
+        <v>0.2609</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4107</v>
+        <v>0.346</v>
       </c>
       <c r="C28">
-        <v>0.0866</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D28">
-        <v>0.3241</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.408</v>
+        <v>0.3411</v>
       </c>
       <c r="C29">
-        <v>0.0853</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="D29">
-        <v>0.3226</v>
+        <v>0.2546</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4055</v>
+        <v>0.3364</v>
       </c>
       <c r="C30">
-        <v>0.08459999999999999</v>
+        <v>0.0857</v>
       </c>
       <c r="D30">
-        <v>0.3209</v>
+        <v>0.2507</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.4031</v>
+        <v>0.3315</v>
       </c>
       <c r="C31">
-        <v>0.0843</v>
+        <v>0.0852</v>
       </c>
       <c r="D31">
-        <v>0.3188</v>
+        <v>0.2463</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.4006</v>
+        <v>0.3261</v>
       </c>
       <c r="C32">
-        <v>0.0837</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="D32">
-        <v>0.3168</v>
+        <v>0.2416</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3986</v>
+        <v>0.321</v>
       </c>
       <c r="C33">
-        <v>0.0834</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D33">
-        <v>0.3152</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3963</v>
+        <v>0.3153</v>
       </c>
       <c r="C34">
-        <v>0.08260000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="D34">
-        <v>0.3137</v>
+        <v>0.2323</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3948</v>
+        <v>0.31</v>
       </c>
       <c r="C35">
-        <v>0.08210000000000001</v>
+        <v>0.0823</v>
       </c>
       <c r="D35">
-        <v>0.3127</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3928</v>
+        <v>0.3042</v>
       </c>
       <c r="C36">
         <v>0.0809</v>
       </c>
       <c r="D36">
-        <v>0.3119</v>
+        <v>0.2233</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3904</v>
+        <v>0.298</v>
       </c>
       <c r="C37">
-        <v>0.0796</v>
+        <v>0.0794</v>
       </c>
       <c r="D37">
-        <v>0.3108</v>
+        <v>0.2186</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3891</v>
+        <v>0.293</v>
       </c>
       <c r="C38">
-        <v>0.0794</v>
+        <v>0.079</v>
       </c>
       <c r="D38">
-        <v>0.3097</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.387</v>
+        <v>0.2872</v>
       </c>
       <c r="C39">
-        <v>0.0785</v>
+        <v>0.0779</v>
       </c>
       <c r="D39">
-        <v>0.3084</v>
+        <v>0.2093</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3854</v>
+        <v>0.2818</v>
       </c>
       <c r="C40">
-        <v>0.07770000000000001</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="D40">
-        <v>0.3077</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3844</v>
+        <v>0.2769</v>
       </c>
       <c r="C41">
-        <v>0.0767</v>
+        <v>0.0757</v>
       </c>
       <c r="D41">
-        <v>0.3077</v>
+        <v>0.2013</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3843</v>
+        <v>0.2727</v>
       </c>
       <c r="C42">
-        <v>0.076</v>
+        <v>0.0747</v>
       </c>
       <c r="D42">
-        <v>0.3084</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3845</v>
+        <v>0.2688</v>
       </c>
       <c r="C43">
-        <v>0.0757</v>
+        <v>0.0743</v>
       </c>
       <c r="D43">
-        <v>0.3088</v>
+        <v>0.1946</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3844</v>
+        <v>0.2645</v>
       </c>
       <c r="C44">
-        <v>0.0747</v>
+        <v>0.0731</v>
       </c>
       <c r="D44">
-        <v>0.3098</v>
+        <v>0.1914</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3844</v>
+        <v>0.2601</v>
       </c>
       <c r="C45">
-        <v>0.0735</v>
+        <v>0.0717</v>
       </c>
       <c r="D45">
-        <v>0.3109</v>
+        <v>0.1884</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.383</v>
+        <v>0.2543</v>
       </c>
       <c r="C46">
-        <v>0.0712</v>
+        <v>0.0692</v>
       </c>
       <c r="D46">
-        <v>0.3119</v>
+        <v>0.1851</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3823</v>
+        <v>0.2492</v>
       </c>
       <c r="C47">
-        <v>0.0694</v>
+        <v>0.0672</v>
       </c>
       <c r="D47">
-        <v>0.3129</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3812</v>
+        <v>0.2438</v>
       </c>
       <c r="C48">
-        <v>0.06759999999999999</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D48">
-        <v>0.3136</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3807</v>
+        <v>0.2391</v>
       </c>
       <c r="C49">
-        <v>0.06619999999999999</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D49">
-        <v>0.3145</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3808</v>
+        <v>0.2351</v>
       </c>
       <c r="C50">
-        <v>0.065</v>
+        <v>0.0623</v>
       </c>
       <c r="D50">
-        <v>0.3158</v>
+        <v>0.1728</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3804</v>
+        <v>0.2309</v>
       </c>
       <c r="C51">
-        <v>0.0635</v>
+        <v>0.0607</v>
       </c>
       <c r="D51">
-        <v>0.3169</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3809</v>
+        <v>0.228</v>
       </c>
       <c r="C52">
-        <v>0.06279999999999999</v>
+        <v>0.0599</v>
       </c>
       <c r="D52">
-        <v>0.3181</v>
+        <v>0.1681</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3817</v>
+        <v>0.2255</v>
       </c>
       <c r="C53">
-        <v>0.0622</v>
+        <v>0.0591</v>
       </c>
       <c r="D53">
-        <v>0.3195</v>
+        <v>0.1664</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3829</v>
+        <v>0.2239</v>
       </c>
       <c r="C54">
-        <v>0.062</v>
+        <v>0.0588</v>
       </c>
       <c r="D54">
-        <v>0.3209</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3841</v>
+        <v>0.2223</v>
       </c>
       <c r="C55">
-        <v>0.0614</v>
+        <v>0.0581</v>
       </c>
       <c r="D55">
-        <v>0.3228</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3861</v>
+        <v>0.2216</v>
       </c>
       <c r="C56">
-        <v>0.061</v>
+        <v>0.0577</v>
       </c>
       <c r="D56">
-        <v>0.3251</v>
+        <v>0.1639</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3881</v>
+        <v>0.221</v>
       </c>
       <c r="C57">
-        <v>0.0603</v>
+        <v>0.0569</v>
       </c>
       <c r="D57">
-        <v>0.3279</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.39</v>
+        <v>0.2201</v>
       </c>
       <c r="C58">
-        <v>0.0592</v>
+        <v>0.0558</v>
       </c>
       <c r="D58">
-        <v>0.3309</v>
+        <v>0.1643</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3922</v>
+        <v>0.2196</v>
       </c>
       <c r="C59">
-        <v>0.0583</v>
+        <v>0.0549</v>
       </c>
       <c r="D59">
-        <v>0.3339</v>
+        <v>0.1647</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3937</v>
+        <v>0.2188</v>
       </c>
       <c r="C60">
-        <v>0.0574</v>
+        <v>0.054</v>
       </c>
       <c r="D60">
-        <v>0.3363</v>
+        <v>0.1648</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3944</v>
+        <v>0.2174</v>
       </c>
       <c r="C61">
-        <v>0.0563</v>
+        <v>0.0529</v>
       </c>
       <c r="D61">
-        <v>0.3381</v>
+        <v>0.1645</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3955</v>
+        <v>0.2167</v>
       </c>
       <c r="C62">
-        <v>0.0558</v>
+        <v>0.0524</v>
       </c>
       <c r="D62">
-        <v>0.3397</v>
+        <v>0.1643</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3962</v>
+        <v>0.2157</v>
       </c>
       <c r="C63">
-        <v>0.0547</v>
+        <v>0.0513</v>
       </c>
       <c r="D63">
-        <v>0.3415</v>
+        <v>0.1643</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3977</v>
+        <v>0.2156</v>
       </c>
       <c r="C64">
-        <v>0.0542</v>
+        <v>0.0508</v>
       </c>
       <c r="D64">
-        <v>0.3435</v>
+        <v>0.1647</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.399</v>
+        <v>0.2154</v>
       </c>
       <c r="C65">
-        <v>0.0535</v>
+        <v>0.0501</v>
       </c>
       <c r="D65">
-        <v>0.3455</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.4009</v>
+        <v>0.2161</v>
       </c>
       <c r="C66">
-        <v>0.0532</v>
+        <v>0.0498</v>
       </c>
       <c r="D66">
-        <v>0.3477</v>
+        <v>0.1662</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.4018</v>
+        <v>0.2158</v>
       </c>
       <c r="C67">
-        <v>0.0522</v>
+        <v>0.0489</v>
       </c>
       <c r="D67">
-        <v>0.3496</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.4043</v>
+        <v>0.2173</v>
       </c>
       <c r="C68">
-        <v>0.0524</v>
+        <v>0.0491</v>
       </c>
       <c r="D68">
-        <v>0.352</v>
+        <v>0.1682</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.4074</v>
+        <v>0.2191</v>
       </c>
       <c r="C69">
-        <v>0.0522</v>
+        <v>0.049</v>
       </c>
       <c r="D69">
-        <v>0.3552</v>
+        <v>0.1701</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.4118</v>
+        <v>0.222</v>
       </c>
       <c r="C70">
-        <v>0.0526</v>
+        <v>0.0494</v>
       </c>
       <c r="D70">
-        <v>0.3592</v>
+        <v>0.1726</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.4164</v>
+        <v>0.225</v>
       </c>
       <c r="C71">
-        <v>0.0533</v>
+        <v>0.0502</v>
       </c>
       <c r="D71">
-        <v>0.3631</v>
+        <v>0.1748</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.4205</v>
+        <v>0.2275</v>
       </c>
       <c r="C72">
-        <v>0.0537</v>
+        <v>0.0506</v>
       </c>
       <c r="D72">
-        <v>0.3668</v>
+        <v>0.1769</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.4241</v>
+        <v>0.2294</v>
       </c>
       <c r="C73">
-        <v>0.0537</v>
+        <v>0.0506</v>
       </c>
       <c r="D73">
-        <v>0.3704</v>
+        <v>0.1788</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.4288</v>
+        <v>0.232</v>
       </c>
       <c r="C74">
-        <v>0.0535</v>
+        <v>0.0506</v>
       </c>
       <c r="D74">
-        <v>0.3752</v>
+        <v>0.1815</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.4327</v>
+        <v>0.234</v>
       </c>
       <c r="C75">
-        <v>0.0528</v>
+        <v>0.0499</v>
       </c>
       <c r="D75">
-        <v>0.3799</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.436</v>
+        <v>0.2355</v>
       </c>
       <c r="C76">
-        <v>0.052</v>
+        <v>0.0491</v>
       </c>
       <c r="D76">
-        <v>0.3841</v>
+        <v>0.1863</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.438</v>
+        <v>0.2357</v>
       </c>
       <c r="C77">
-        <v>0.0504</v>
+        <v>0.0477</v>
       </c>
       <c r="D77">
-        <v>0.3875</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.4393</v>
+        <v>0.2356</v>
       </c>
       <c r="C78">
-        <v>0.049</v>
+        <v>0.0463</v>
       </c>
       <c r="D78">
-        <v>0.3903</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.4405</v>
+        <v>0.2356</v>
       </c>
       <c r="C79">
-        <v>0.0477</v>
+        <v>0.0451</v>
       </c>
       <c r="D79">
-        <v>0.3928</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.4409</v>
+        <v>0.2349</v>
       </c>
       <c r="C80">
-        <v>0.046</v>
+        <v>0.0435</v>
       </c>
       <c r="D80">
-        <v>0.3949</v>
+        <v>0.1914</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.4414</v>
+        <v>0.2343</v>
       </c>
       <c r="C81">
-        <v>0.0445</v>
+        <v>0.0422</v>
       </c>
       <c r="D81">
-        <v>0.3968</v>
+        <v>0.1921</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.4411</v>
+        <v>0.233</v>
       </c>
       <c r="C82">
-        <v>0.0426</v>
+        <v>0.0403</v>
       </c>
       <c r="D82">
-        <v>0.3985</v>
+        <v>0.1927</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.44</v>
+        <v>0.2311</v>
       </c>
       <c r="C83">
-        <v>0.0403</v>
+        <v>0.0382</v>
       </c>
       <c r="D83">
-        <v>0.3997</v>
+        <v>0.1929</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.4386</v>
+        <v>0.229</v>
       </c>
       <c r="C84">
-        <v>0.0382</v>
+        <v>0.0362</v>
       </c>
       <c r="D84">
-        <v>0.4004</v>
+        <v>0.1927</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.4369</v>
+        <v>0.2268</v>
       </c>
       <c r="C85">
-        <v>0.0365</v>
+        <v>0.0346</v>
       </c>
       <c r="D85">
-        <v>0.4004</v>
+        <v>0.1922</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.4351</v>
+        <v>0.2246</v>
       </c>
       <c r="C86">
-        <v>0.0349</v>
+        <v>0.0331</v>
       </c>
       <c r="D86">
-        <v>0.4003</v>
+        <v>0.1915</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.4329</v>
+        <v>0.222</v>
       </c>
       <c r="C87">
-        <v>0.0331</v>
+        <v>0.0314</v>
       </c>
       <c r="D87">
-        <v>0.3998</v>
+        <v>0.1906</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.4304</v>
+        <v>0.2193</v>
       </c>
       <c r="C88">
-        <v>0.0315</v>
+        <v>0.0299</v>
       </c>
       <c r="D88">
-        <v>0.3989</v>
+        <v>0.1894</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.4272</v>
+        <v>0.2163</v>
       </c>
       <c r="C89">
-        <v>0.0305</v>
+        <v>0.0288</v>
       </c>
       <c r="D89">
-        <v>0.3968</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.4219</v>
+        <v>0.2114</v>
       </c>
       <c r="C90">
-        <v>0.0282</v>
+        <v>0.0266</v>
       </c>
       <c r="D90">
-        <v>0.3937</v>
+        <v>0.1847</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.4181</v>
+        <v>0.2076</v>
       </c>
       <c r="C91">
-        <v>0.0259</v>
+        <v>0.0243</v>
       </c>
       <c r="D91">
-        <v>0.3922</v>
+        <v>0.1833</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.4133</v>
+        <v>0.2031</v>
       </c>
       <c r="C92">
-        <v>0.0229</v>
+        <v>0.0215</v>
       </c>
       <c r="D92">
-        <v>0.3904</v>
+        <v>0.1816</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4089</v>
+        <v>0.199</v>
       </c>
       <c r="C93">
-        <v>0.0202</v>
+        <v>0.0189</v>
       </c>
       <c r="D93">
-        <v>0.3887</v>
+        <v>0.1801</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4031</v>
+        <v>0.1939</v>
       </c>
       <c r="C94">
-        <v>0.0175</v>
+        <v>0.0163</v>
       </c>
       <c r="D94">
-        <v>0.3856</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.3971</v>
+        <v>0.1889</v>
       </c>
       <c r="C95">
-        <v>0.0154</v>
+        <v>0.0142</v>
       </c>
       <c r="D95">
-        <v>0.3817</v>
+        <v>0.1747</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.3908</v>
+        <v>0.1839</v>
       </c>
       <c r="C96">
-        <v>0.0133</v>
+        <v>0.0123</v>
       </c>
       <c r="D96">
-        <v>0.3775</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.3858</v>
+        <v>0.1802</v>
       </c>
       <c r="C97">
-        <v>0.0123</v>
+        <v>0.0113</v>
       </c>
       <c r="D97">
-        <v>0.3735</v>
+        <v>0.1689</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.3809</v>
+        <v>0.1765</v>
       </c>
       <c r="C98">
-        <v>0.0112</v>
+        <v>0.0103</v>
       </c>
       <c r="D98">
-        <v>0.3697</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.3762</v>
+        <v>0.1732</v>
       </c>
       <c r="C99">
-        <v>0.0104</v>
+        <v>0.0095</v>
       </c>
       <c r="D99">
-        <v>0.3658</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.3724</v>
+        <v>0.1707</v>
       </c>
       <c r="C100">
-        <v>0.0101</v>
+        <v>0.0092</v>
       </c>
       <c r="D100">
-        <v>0.3624</v>
+        <v>0.1615</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.3696</v>
+        <v>0.169</v>
       </c>
       <c r="C101">
-        <v>0.0101</v>
+        <v>0.0091</v>
       </c>
       <c r="D101">
-        <v>0.3595</v>
+        <v>0.1599</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.3676</v>
+        <v>0.1682</v>
       </c>
       <c r="C102">
-        <v>0.0109</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="D102">
-        <v>0.3566</v>
+        <v>0.1584</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3656</v>
+        <v>0.1676</v>
       </c>
       <c r="C103">
-        <v>0.0121</v>
+        <v>0.0109</v>
       </c>
       <c r="D103">
-        <v>0.3535</v>
+        <v>0.1568</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.3637</v>
+        <v>0.1671</v>
       </c>
       <c r="C104">
-        <v>0.0131</v>
+        <v>0.0117</v>
       </c>
       <c r="D104">
-        <v>0.3506</v>
+        <v>0.1553</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3616</v>
+        <v>0.1664</v>
       </c>
       <c r="C105">
-        <v>0.014</v>
+        <v>0.0125</v>
       </c>
       <c r="D105">
-        <v>0.3476</v>
+        <v>0.1538</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3594</v>
+        <v>0.1656</v>
       </c>
       <c r="C106">
-        <v>0.0148</v>
+        <v>0.0133</v>
       </c>
       <c r="D106">
-        <v>0.3445</v>
+        <v>0.1524</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3595</v>
+        <v>0.1674</v>
       </c>
       <c r="C107">
-        <v>0.0175</v>
+        <v>0.0158</v>
       </c>
       <c r="D107">
-        <v>0.342</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3603</v>
+        <v>0.1696</v>
       </c>
       <c r="C108">
-        <v>0.0198</v>
+        <v>0.0179</v>
       </c>
       <c r="D108">
-        <v>0.3405</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3602</v>
+        <v>0.1709</v>
       </c>
       <c r="C109">
-        <v>0.0213</v>
+        <v>0.0193</v>
       </c>
       <c r="D109">
-        <v>0.339</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3602</v>
+        <v>0.1725</v>
       </c>
       <c r="C110">
-        <v>0.0231</v>
+        <v>0.021</v>
       </c>
       <c r="D110">
-        <v>0.3372</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3585</v>
+        <v>0.1728</v>
       </c>
       <c r="C111">
-        <v>0.0248</v>
+        <v>0.0226</v>
       </c>
       <c r="D111">
-        <v>0.3336</v>
+        <v>0.1502</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3568</v>
+        <v>0.1732</v>
       </c>
       <c r="C112">
-        <v>0.0268</v>
+        <v>0.0244</v>
       </c>
       <c r="D112">
-        <v>0.33</v>
+        <v>0.1488</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3555</v>
+        <v>0.1739</v>
       </c>
       <c r="C113">
-        <v>0.0289</v>
+        <v>0.0263</v>
       </c>
       <c r="D113">
-        <v>0.3266</v>
+        <v>0.1476</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3543</v>
+        <v>0.1745</v>
       </c>
       <c r="C114">
-        <v>0.0308</v>
+        <v>0.028</v>
       </c>
       <c r="D114">
-        <v>0.3234</v>
+        <v>0.1464</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3568</v>
+        <v>0.1789</v>
       </c>
       <c r="C115">
-        <v>0.0358</v>
+        <v>0.0328</v>
       </c>
       <c r="D115">
-        <v>0.321</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3564</v>
+        <v>0.1801</v>
       </c>
       <c r="C116">
-        <v>0.038</v>
+        <v>0.0348</v>
       </c>
       <c r="D116">
-        <v>0.3183</v>
+        <v>0.1453</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3555</v>
+        <v>0.1809</v>
       </c>
       <c r="C117">
-        <v>0.04</v>
+        <v>0.0366</v>
       </c>
       <c r="D117">
-        <v>0.3155</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3549</v>
+        <v>0.1821</v>
       </c>
       <c r="C118">
-        <v>0.0424</v>
+        <v>0.0387</v>
       </c>
       <c r="D118">
-        <v>0.3125</v>
+        <v>0.1434</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3545</v>
+        <v>0.1836</v>
       </c>
       <c r="C119">
-        <v>0.0448</v>
+        <v>0.041</v>
       </c>
       <c r="D119">
-        <v>0.3097</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3537</v>
+        <v>0.1848</v>
       </c>
       <c r="C120">
-        <v>0.0473</v>
+        <v>0.0432</v>
       </c>
       <c r="D120">
-        <v>0.3064</v>
+        <v>0.1416</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3551</v>
+        <v>0.1885</v>
       </c>
       <c r="C121">
-        <v>0.0516</v>
+        <v>0.0475</v>
       </c>
       <c r="D121">
-        <v>0.3035</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3565</v>
+        <v>0.1922</v>
       </c>
       <c r="C122">
-        <v>0.0559</v>
+        <v>0.0517</v>
       </c>
       <c r="D122">
-        <v>0.3006</v>
+        <v>0.1405</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3576</v>
+        <v>0.1956</v>
       </c>
       <c r="C123">
-        <v>0.0597</v>
+        <v>0.0555</v>
       </c>
       <c r="D123">
-        <v>0.2978</v>
+        <v>0.1401</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3588</v>
+        <v>0.199</v>
       </c>
       <c r="C124">
-        <v>0.0638</v>
+        <v>0.0594</v>
       </c>
       <c r="D124">
-        <v>0.295</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3593</v>
+        <v>0.2018</v>
       </c>
       <c r="C125">
-        <v>0.0672</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="D125">
-        <v>0.2921</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3587</v>
+        <v>0.2033</v>
       </c>
       <c r="C126">
-        <v>0.0699</v>
+        <v>0.0654</v>
       </c>
       <c r="D126">
-        <v>0.2887</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3559</v>
+        <v>0.2025</v>
       </c>
       <c r="C127">
-        <v>0.0711</v>
+        <v>0.0664</v>
       </c>
       <c r="D127">
-        <v>0.2849</v>
+        <v>0.1361</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3515</v>
+        <v>0.2001</v>
       </c>
       <c r="C128">
-        <v>0.0716</v>
+        <v>0.0668</v>
       </c>
       <c r="D128">
-        <v>0.2799</v>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.347</v>
+        <v>0.1975</v>
       </c>
       <c r="C129">
-        <v>0.0721</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="D129">
-        <v>0.2749</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3428</v>
+        <v>0.1951</v>
       </c>
       <c r="C130">
-        <v>0.0727</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="D130">
-        <v>0.2701</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3379</v>
+        <v>0.1918</v>
       </c>
       <c r="C131">
-        <v>0.0725</v>
+        <v>0.0673</v>
       </c>
       <c r="D131">
-        <v>0.2654</v>
+        <v>0.1246</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3338</v>
+        <v>0.1892</v>
       </c>
       <c r="C132">
-        <v>0.0727</v>
+        <v>0.0673</v>
       </c>
       <c r="D132">
-        <v>0.2611</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3294</v>
+        <v>0.1864</v>
       </c>
       <c r="C133">
-        <v>0.073</v>
+        <v>0.0674</v>
       </c>
       <c r="D133">
-        <v>0.2565</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3245</v>
+        <v>0.1831</v>
       </c>
       <c r="C134">
-        <v>0.0726</v>
+        <v>0.0669</v>
       </c>
       <c r="D134">
-        <v>0.2519</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3166</v>
+        <v>0.1765</v>
       </c>
       <c r="C135">
-        <v>0.0692</v>
+        <v>0.0634</v>
       </c>
       <c r="D135">
-        <v>0.2474</v>
+        <v>0.1131</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3117</v>
+        <v>0.1731</v>
       </c>
       <c r="C136">
-        <v>0.0683</v>
+        <v>0.0625</v>
       </c>
       <c r="D136">
-        <v>0.2433</v>
+        <v>0.1106</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.307</v>
+        <v>0.17</v>
       </c>
       <c r="C137">
-        <v>0.0675</v>
+        <v>0.0616</v>
       </c>
       <c r="D137">
-        <v>0.2396</v>
+        <v>0.1084</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3028</v>
+        <v>0.1673</v>
       </c>
       <c r="C138">
-        <v>0.0667</v>
+        <v>0.0608</v>
       </c>
       <c r="D138">
-        <v>0.2361</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2983</v>
+        <v>0.1644</v>
       </c>
       <c r="C139">
-        <v>0.0655</v>
+        <v>0.0596</v>
       </c>
       <c r="D139">
-        <v>0.2329</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2955</v>
+        <v>0.1625</v>
       </c>
       <c r="C140">
-        <v>0.0638</v>
+        <v>0.0581</v>
       </c>
       <c r="D140">
-        <v>0.2316</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.289</v>
+        <v>0.157</v>
       </c>
       <c r="C141">
-        <v>0.0595</v>
+        <v>0.0538</v>
       </c>
       <c r="D141">
-        <v>0.2294</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2822</v>
+        <v>0.1512</v>
       </c>
       <c r="C142">
-        <v>0.0547</v>
+        <v>0.0491</v>
       </c>
       <c r="D142">
-        <v>0.2274</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2762</v>
+        <v>0.1464</v>
       </c>
       <c r="C143">
-        <v>0.0506</v>
+        <v>0.0451</v>
       </c>
       <c r="D143">
-        <v>0.2256</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2698</v>
+        <v>0.1412</v>
       </c>
       <c r="C144">
-        <v>0.0463</v>
+        <v>0.0408</v>
       </c>
       <c r="D144">
-        <v>0.2236</v>
+        <v>0.1004</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2652</v>
+        <v>0.1378</v>
       </c>
       <c r="C145">
-        <v>0.0425</v>
+        <v>0.0372</v>
       </c>
       <c r="D145">
-        <v>0.2226</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2612</v>
+        <v>0.1353</v>
       </c>
       <c r="C146">
-        <v>0.0392</v>
+        <v>0.0341</v>
       </c>
       <c r="D146">
-        <v>0.222</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2576</v>
+        <v>0.1333</v>
       </c>
       <c r="C147">
-        <v>0.0359</v>
+        <v>0.0309</v>
       </c>
       <c r="D147">
-        <v>0.2217</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2558</v>
+        <v>0.1336</v>
       </c>
       <c r="C148">
-        <v>0.0339</v>
+        <v>0.0292</v>
       </c>
       <c r="D148">
-        <v>0.2219</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2544</v>
+        <v>0.1347</v>
       </c>
       <c r="C149">
-        <v>0.0321</v>
+        <v>0.0277</v>
       </c>
       <c r="D149">
-        <v>0.2223</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3224,13 +3224,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.253</v>
+        <v>0.136</v>
       </c>
       <c r="C150">
-        <v>0.0301</v>
+        <v>0.026</v>
       </c>
       <c r="D150">
-        <v>0.2228</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3238,13 +3238,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2527</v>
+        <v>0.1389</v>
       </c>
       <c r="C151">
-        <v>0.029</v>
+        <v>0.0251</v>
       </c>
       <c r="D151">
-        <v>0.2238</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2522</v>
+        <v>0.1417</v>
       </c>
       <c r="C152">
-        <v>0.0273</v>
+        <v>0.0238</v>
       </c>
       <c r="D152">
-        <v>0.2248</v>
+        <v>0.1179</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2523</v>
+        <v>0.1455</v>
       </c>
       <c r="C153">
-        <v>0.0263</v>
+        <v>0.0231</v>
       </c>
       <c r="D153">
-        <v>0.226</v>
+        <v>0.1224</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3280,13 +3280,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2529</v>
+        <v>0.1499</v>
       </c>
       <c r="C154">
-        <v>0.0256</v>
+        <v>0.0227</v>
       </c>
       <c r="D154">
-        <v>0.2273</v>
+        <v>0.1272</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3294,13 +3294,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.2542</v>
+        <v>0.1552</v>
       </c>
       <c r="C155">
-        <v>0.0257</v>
+        <v>0.0231</v>
       </c>
       <c r="D155">
-        <v>0.2284</v>
+        <v>0.1321</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3308,13 +3308,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2555</v>
+        <v>0.1607</v>
       </c>
       <c r="C156">
-        <v>0.0259</v>
+        <v>0.0235</v>
       </c>
       <c r="D156">
-        <v>0.2296</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3322,13 +3322,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.257</v>
+        <v>0.1664</v>
       </c>
       <c r="C157">
-        <v>0.0263</v>
+        <v>0.0241</v>
       </c>
       <c r="D157">
-        <v>0.2307</v>
+        <v>0.1423</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3336,13 +3336,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2584</v>
+        <v>0.1722</v>
       </c>
       <c r="C158">
-        <v>0.0266</v>
+        <v>0.0246</v>
       </c>
       <c r="D158">
-        <v>0.2319</v>
+        <v>0.1476</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3350,13 +3350,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.26</v>
+        <v>0.1784</v>
       </c>
       <c r="C159">
-        <v>0.027</v>
+        <v>0.0252</v>
       </c>
       <c r="D159">
-        <v>0.2331</v>
+        <v>0.1532</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3364,13 +3364,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.2603</v>
+        <v>0.184</v>
       </c>
       <c r="C160">
-        <v>0.0277</v>
+        <v>0.0262</v>
       </c>
       <c r="D160">
-        <v>0.2327</v>
+        <v>0.1578</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3378,13 +3378,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.2617</v>
+        <v>0.1908</v>
       </c>
       <c r="C161">
-        <v>0.029</v>
+        <v>0.0277</v>
       </c>
       <c r="D161">
-        <v>0.2327</v>
+        <v>0.1632</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3392,13 +3392,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2639</v>
+        <v>0.1988</v>
       </c>
       <c r="C162">
-        <v>0.031</v>
+        <v>0.0299</v>
       </c>
       <c r="D162">
-        <v>0.2329</v>
+        <v>0.1689</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3406,13 +3406,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2662</v>
+        <v>0.2069</v>
       </c>
       <c r="C163">
-        <v>0.033</v>
+        <v>0.0321</v>
       </c>
       <c r="D163">
-        <v>0.2332</v>
+        <v>0.1748</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3420,13 +3420,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2685</v>
+        <v>0.2152</v>
       </c>
       <c r="C164">
-        <v>0.0347</v>
+        <v>0.0341</v>
       </c>
       <c r="D164">
-        <v>0.2338</v>
+        <v>0.1812</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2704</v>
+        <v>0.2234</v>
       </c>
       <c r="C165">
-        <v>0.0366</v>
+        <v>0.0362</v>
       </c>
       <c r="D165">
-        <v>0.2338</v>
+        <v>0.1872</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3448,13 +3448,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2725</v>
+        <v>0.2317</v>
       </c>
       <c r="C166">
-        <v>0.0386</v>
+        <v>0.0384</v>
       </c>
       <c r="D166">
-        <v>0.2339</v>
+        <v>0.1933</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3462,13 +3462,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2742</v>
+        <v>0.2396</v>
       </c>
       <c r="C167">
         <v>0.0402</v>
       </c>
       <c r="D167">
-        <v>0.234</v>
+        <v>0.1994</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3476,13 +3476,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2747</v>
+        <v>0.2461</v>
       </c>
       <c r="C168">
-        <v>0.0406</v>
+        <v>0.0408</v>
       </c>
       <c r="D168">
-        <v>0.2341</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3490,13 +3490,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2756</v>
+        <v>0.2527</v>
       </c>
       <c r="C169">
-        <v>0.041</v>
+        <v>0.0413</v>
       </c>
       <c r="D169">
-        <v>0.2346</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3504,13 +3504,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2768</v>
+        <v>0.2594</v>
       </c>
       <c r="C170">
-        <v>0.0416</v>
+        <v>0.0421</v>
       </c>
       <c r="D170">
-        <v>0.2352</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3518,13 +3518,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2776</v>
+        <v>0.2655</v>
       </c>
       <c r="C171">
-        <v>0.0418</v>
+        <v>0.0424</v>
       </c>
       <c r="D171">
-        <v>0.2358</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3532,13 +3532,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2783</v>
+        <v>0.2714</v>
       </c>
       <c r="C172">
-        <v>0.042</v>
+        <v>0.0427</v>
       </c>
       <c r="D172">
-        <v>0.2363</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3546,13 +3546,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2781</v>
+        <v>0.2762</v>
       </c>
       <c r="C173">
-        <v>0.0414</v>
+        <v>0.0422</v>
       </c>
       <c r="D173">
-        <v>0.2367</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3560,13 +3560,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.278</v>
+        <v>0.281</v>
       </c>
       <c r="C174">
-        <v>0.0409</v>
+        <v>0.0418</v>
       </c>
       <c r="D174">
-        <v>0.2371</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3574,13 +3574,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.278</v>
+        <v>0.2859</v>
       </c>
       <c r="C175">
-        <v>0.0402</v>
+        <v>0.0411</v>
       </c>
       <c r="D175">
-        <v>0.2378</v>
+        <v>0.2448</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3588,13 +3588,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2785</v>
+        <v>0.2912</v>
       </c>
       <c r="C176">
-        <v>0.0395</v>
+        <v>0.0406</v>
       </c>
       <c r="D176">
-        <v>0.2389</v>
+        <v>0.2506</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3602,13 +3602,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2785</v>
+        <v>0.2958</v>
       </c>
       <c r="C177">
-        <v>0.0385</v>
+        <v>0.0396</v>
       </c>
       <c r="D177">
-        <v>0.2401</v>
+        <v>0.2563</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3616,13 +3616,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2785</v>
+        <v>0.3002</v>
       </c>
       <c r="C178">
-        <v>0.0374</v>
+        <v>0.0385</v>
       </c>
       <c r="D178">
-        <v>0.2412</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3630,13 +3630,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.278</v>
+        <v>0.3039</v>
       </c>
       <c r="C179">
-        <v>0.0358</v>
+        <v>0.037</v>
       </c>
       <c r="D179">
-        <v>0.2422</v>
+        <v>0.2669</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3644,13 +3644,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2783</v>
+        <v>0.3078</v>
       </c>
       <c r="C180">
-        <v>0.0343</v>
+        <v>0.0355</v>
       </c>
       <c r="D180">
-        <v>0.244</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3658,13 +3658,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2783</v>
+        <v>0.3109</v>
       </c>
       <c r="C181">
-        <v>0.0322</v>
+        <v>0.0334</v>
       </c>
       <c r="D181">
-        <v>0.2461</v>
+        <v>0.2775</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3672,13 +3672,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.2783</v>
+        <v>0.3137</v>
       </c>
       <c r="C182">
-        <v>0.0298</v>
+        <v>0.0309</v>
       </c>
       <c r="D182">
-        <v>0.2485</v>
+        <v>0.2828</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3686,13 +3686,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2793</v>
+        <v>0.3172</v>
       </c>
       <c r="C183">
-        <v>0.0282</v>
+        <v>0.0293</v>
       </c>
       <c r="D183">
-        <v>0.2511</v>
+        <v>0.2879</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3700,13 +3700,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.2809</v>
+        <v>0.3211</v>
       </c>
       <c r="C184">
-        <v>0.0274</v>
+        <v>0.0285</v>
       </c>
       <c r="D184">
-        <v>0.2535</v>
+        <v>0.2925</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3714,13 +3714,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.2819</v>
+        <v>0.3242</v>
       </c>
       <c r="C185">
-        <v>0.0262</v>
+        <v>0.0274</v>
       </c>
       <c r="D185">
-        <v>0.2557</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3728,13 +3728,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2827</v>
+        <v>0.3267</v>
       </c>
       <c r="C186">
-        <v>0.0249</v>
+        <v>0.0261</v>
       </c>
       <c r="D186">
-        <v>0.2577</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3742,13 +3742,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.2835</v>
+        <v>0.3292</v>
       </c>
       <c r="C187">
-        <v>0.0239</v>
+        <v>0.025</v>
       </c>
       <c r="D187">
-        <v>0.2596</v>
+        <v>0.3041</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3756,13 +3756,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2856</v>
+        <v>0.3328</v>
       </c>
       <c r="C188">
-        <v>0.024</v>
+        <v>0.0252</v>
       </c>
       <c r="D188">
-        <v>0.2615</v>
+        <v>0.3076</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3770,13 +3770,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.2875</v>
+        <v>0.3363</v>
       </c>
       <c r="C189">
-        <v>0.0244</v>
+        <v>0.0256</v>
       </c>
       <c r="D189">
-        <v>0.2631</v>
+        <v>0.3107</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3784,13 +3784,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.2892</v>
+        <v>0.3396</v>
       </c>
       <c r="C190">
-        <v>0.0246</v>
+        <v>0.0259</v>
       </c>
       <c r="D190">
-        <v>0.2646</v>
+        <v>0.3137</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3798,13 +3798,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.291</v>
+        <v>0.3429</v>
       </c>
       <c r="C191">
-        <v>0.025</v>
+        <v>0.0262</v>
       </c>
       <c r="D191">
-        <v>0.2661</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3812,13 +3812,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2931</v>
+        <v>0.3466</v>
       </c>
       <c r="C192">
-        <v>0.0256</v>
+        <v>0.027</v>
       </c>
       <c r="D192">
-        <v>0.2675</v>
+        <v>0.3196</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3826,13 +3826,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.295</v>
+        <v>0.3498</v>
       </c>
       <c r="C193">
-        <v>0.026</v>
+        <v>0.0274</v>
       </c>
       <c r="D193">
-        <v>0.269</v>
+        <v>0.3224</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3840,13 +3840,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2968</v>
+        <v>0.3529</v>
       </c>
       <c r="C194">
-        <v>0.0264</v>
+        <v>0.0279</v>
       </c>
       <c r="D194">
-        <v>0.2704</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3854,13 +3854,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2977</v>
+        <v>0.3549</v>
       </c>
       <c r="C195">
-        <v>0.0263</v>
+        <v>0.0277</v>
       </c>
       <c r="D195">
-        <v>0.2714</v>
+        <v>0.3271</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3868,13 +3868,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2987</v>
+        <v>0.3569</v>
       </c>
       <c r="C196">
-        <v>0.0265</v>
+        <v>0.028</v>
       </c>
       <c r="D196">
-        <v>0.2721</v>
+        <v>0.3289</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3882,13 +3882,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3002</v>
+        <v>0.3595</v>
       </c>
       <c r="C197">
-        <v>0.0272</v>
+        <v>0.0287</v>
       </c>
       <c r="D197">
-        <v>0.273</v>
+        <v>0.3308</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3896,13 +3896,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3017</v>
+        <v>0.3619</v>
       </c>
       <c r="C198">
-        <v>0.0278</v>
+        <v>0.0293</v>
       </c>
       <c r="D198">
-        <v>0.2738</v>
+        <v>0.3325</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3910,13 +3910,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3036</v>
+        <v>0.3648</v>
       </c>
       <c r="C199">
-        <v>0.0288</v>
+        <v>0.0304</v>
       </c>
       <c r="D199">
-        <v>0.2747</v>
+        <v>0.3344</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3924,13 +3924,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3045</v>
+        <v>0.3668</v>
       </c>
       <c r="C200">
-        <v>0.0294</v>
+        <v>0.0311</v>
       </c>
       <c r="D200">
-        <v>0.2751</v>
+        <v>0.3357</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3938,13 +3938,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.304</v>
+        <v>0.3676</v>
       </c>
       <c r="C201">
-        <v>0.0295</v>
+        <v>0.0312</v>
       </c>
       <c r="D201">
-        <v>0.2745</v>
+        <v>0.3364</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3952,13 +3952,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3051</v>
+        <v>0.3698</v>
       </c>
       <c r="C202">
-        <v>0.0301</v>
+        <v>0.0318</v>
       </c>
       <c r="D202">
-        <v>0.275</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3966,13 +3966,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.305</v>
+        <v>0.3707</v>
       </c>
       <c r="C203">
-        <v>0.0297</v>
+        <v>0.0314</v>
       </c>
       <c r="D203">
-        <v>0.2753</v>
+        <v>0.3393</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3980,13 +3980,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.3053</v>
+        <v>0.3722</v>
       </c>
       <c r="C204">
-        <v>0.0296</v>
+        <v>0.0313</v>
       </c>
       <c r="D204">
-        <v>0.2757</v>
+        <v>0.3409</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3994,13 +3994,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3059</v>
+        <v>0.3739</v>
       </c>
       <c r="C205">
-        <v>0.0297</v>
+        <v>0.0314</v>
       </c>
       <c r="D205">
-        <v>0.2762</v>
+        <v>0.3425</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4008,13 +4008,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.3068</v>
+        <v>0.376</v>
       </c>
       <c r="C206">
-        <v>0.03</v>
+        <v>0.0318</v>
       </c>
       <c r="D206">
-        <v>0.2768</v>
+        <v>0.3442</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4022,13 +4022,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.3065</v>
+        <v>0.3769</v>
       </c>
       <c r="C207">
-        <v>0.0293</v>
+        <v>0.031</v>
       </c>
       <c r="D207">
-        <v>0.2772</v>
+        <v>0.3458</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.3067</v>
+        <v>0.378</v>
       </c>
       <c r="C208">
-        <v>0.029</v>
+        <v>0.0307</v>
       </c>
       <c r="D208">
-        <v>0.2777</v>
+        <v>0.3473</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4050,13 +4050,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.307</v>
+        <v>0.3791</v>
       </c>
       <c r="C209">
-        <v>0.0286</v>
+        <v>0.0303</v>
       </c>
       <c r="D209">
-        <v>0.2784</v>
+        <v>0.3488</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4064,13 +4064,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.3075</v>
+        <v>0.38</v>
       </c>
       <c r="C210">
-        <v>0.0284</v>
+        <v>0.0301</v>
       </c>
       <c r="D210">
-        <v>0.2791</v>
+        <v>0.3499</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4078,13 +4078,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.3083</v>
+        <v>0.3811</v>
       </c>
       <c r="C211">
-        <v>0.0287</v>
+        <v>0.0305</v>
       </c>
       <c r="D211">
-        <v>0.2796</v>
+        <v>0.3506</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4092,13 +4092,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.3085</v>
+        <v>0.3812</v>
       </c>
       <c r="C212">
-        <v>0.0285</v>
+        <v>0.0302</v>
       </c>
       <c r="D212">
-        <v>0.28</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4106,13 +4106,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.3083</v>
+        <v>0.3807</v>
       </c>
       <c r="C213">
-        <v>0.028</v>
+        <v>0.0297</v>
       </c>
       <c r="D213">
-        <v>0.2803</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4120,13 +4120,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.3087</v>
+        <v>0.3805</v>
       </c>
       <c r="C214">
-        <v>0.0277</v>
+        <v>0.0293</v>
       </c>
       <c r="D214">
-        <v>0.281</v>
+        <v>0.3512</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4134,13 +4134,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.3092</v>
+        <v>0.3805</v>
       </c>
       <c r="C215">
-        <v>0.0278</v>
+        <v>0.0294</v>
       </c>
       <c r="D215">
-        <v>0.2815</v>
+        <v>0.3511</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4148,13 +4148,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.3088</v>
+        <v>0.3793</v>
       </c>
       <c r="C216">
-        <v>0.0271</v>
+        <v>0.0287</v>
       </c>
       <c r="D216">
-        <v>0.2817</v>
+        <v>0.3507</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4162,13 +4162,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.3078</v>
+        <v>0.3774</v>
       </c>
       <c r="C217">
-        <v>0.026</v>
+        <v>0.0275</v>
       </c>
       <c r="D217">
-        <v>0.2818</v>
+        <v>0.3499</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4176,13 +4176,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.3063</v>
+        <v>0.3749</v>
       </c>
       <c r="C218">
-        <v>0.0247</v>
+        <v>0.0261</v>
       </c>
       <c r="D218">
-        <v>0.2816</v>
+        <v>0.3488</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4190,13 +4190,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.3047</v>
+        <v>0.372</v>
       </c>
       <c r="C219">
-        <v>0.0233</v>
+        <v>0.0247</v>
       </c>
       <c r="D219">
-        <v>0.2814</v>
+        <v>0.3473</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4204,13 +4204,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.303</v>
+        <v>0.3689</v>
       </c>
       <c r="C220">
-        <v>0.0221</v>
+        <v>0.0234</v>
       </c>
       <c r="D220">
-        <v>0.2809</v>
+        <v>0.3455</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4218,13 +4218,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.3025</v>
+        <v>0.3667</v>
       </c>
       <c r="C221">
-        <v>0.0216</v>
+        <v>0.0229</v>
       </c>
       <c r="D221">
-        <v>0.2809</v>
+        <v>0.3438</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4232,13 +4232,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.2992</v>
+        <v>0.362</v>
       </c>
       <c r="C222">
-        <v>0.0204</v>
+        <v>0.0216</v>
       </c>
       <c r="D222">
-        <v>0.2788</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4246,13 +4246,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.2966</v>
+        <v>0.3579</v>
       </c>
       <c r="C223">
-        <v>0.0197</v>
+        <v>0.0209</v>
       </c>
       <c r="D223">
-        <v>0.2768</v>
+        <v>0.3371</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4260,13 +4260,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.2938</v>
+        <v>0.3536</v>
       </c>
       <c r="C224">
-        <v>0.0188</v>
+        <v>0.0199</v>
       </c>
       <c r="D224">
-        <v>0.275</v>
+        <v>0.3337</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4274,13 +4274,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.291</v>
+        <v>0.3491</v>
       </c>
       <c r="C225">
-        <v>0.0176</v>
+        <v>0.0186</v>
       </c>
       <c r="D225">
-        <v>0.2734</v>
+        <v>0.3305</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4288,13 +4288,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.2889</v>
+        <v>0.3452</v>
       </c>
       <c r="C226">
-        <v>0.0168</v>
+        <v>0.0177</v>
       </c>
       <c r="D226">
-        <v>0.2721</v>
+        <v>0.3275</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4302,13 +4302,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.2875</v>
+        <v>0.3421</v>
       </c>
       <c r="C227">
-        <v>0.0166</v>
+        <v>0.0176</v>
       </c>
       <c r="D227">
-        <v>0.2708</v>
+        <v>0.3246</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4316,13 +4316,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.286</v>
+        <v>0.3393</v>
       </c>
       <c r="C228">
-        <v>0.0167</v>
+        <v>0.0177</v>
       </c>
       <c r="D228">
-        <v>0.2693</v>
+        <v>0.3216</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4330,13 +4330,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.2842</v>
+        <v>0.3364</v>
       </c>
       <c r="C229">
-        <v>0.017</v>
+        <v>0.0179</v>
       </c>
       <c r="D229">
-        <v>0.2672</v>
+        <v>0.3185</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4344,13 +4344,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.2822</v>
+        <v>0.3338</v>
       </c>
       <c r="C230">
-        <v>0.0173</v>
+        <v>0.0182</v>
       </c>
       <c r="D230">
-        <v>0.2649</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4358,13 +4358,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.2797</v>
+        <v>0.3308</v>
       </c>
       <c r="C231">
-        <v>0.017</v>
+        <v>0.0179</v>
       </c>
       <c r="D231">
-        <v>0.2627</v>
+        <v>0.3129</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4372,13 +4372,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.2775</v>
+        <v>0.3285</v>
       </c>
       <c r="C232">
-        <v>0.0172</v>
+        <v>0.0181</v>
       </c>
       <c r="D232">
-        <v>0.2604</v>
+        <v>0.3104</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4386,13 +4386,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2756</v>
+        <v>0.3266</v>
       </c>
       <c r="C233">
-        <v>0.0177</v>
+        <v>0.0187</v>
       </c>
       <c r="D233">
-        <v>0.2579</v>
+        <v>0.3079</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4400,13 +4400,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2729</v>
+        <v>0.3243</v>
       </c>
       <c r="C234">
-        <v>0.0181</v>
+        <v>0.0192</v>
       </c>
       <c r="D234">
-        <v>0.2548</v>
+        <v>0.3051</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4414,13 +4414,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.27</v>
+        <v>0.3218</v>
       </c>
       <c r="C235">
-        <v>0.0181</v>
+        <v>0.0192</v>
       </c>
       <c r="D235">
-        <v>0.2519</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4428,13 +4428,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.2682</v>
+        <v>0.3204</v>
       </c>
       <c r="C236">
-        <v>0.0191</v>
+        <v>0.0202</v>
       </c>
       <c r="D236">
-        <v>0.2491</v>
+        <v>0.3003</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4442,13 +4442,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.2666</v>
+        <v>0.3195</v>
       </c>
       <c r="C237">
-        <v>0.0201</v>
+        <v>0.0213</v>
       </c>
       <c r="D237">
-        <v>0.2465</v>
+        <v>0.2982</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4456,13 +4456,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.265</v>
+        <v>0.3186</v>
       </c>
       <c r="C238">
-        <v>0.021</v>
+        <v>0.0223</v>
       </c>
       <c r="D238">
-        <v>0.2439</v>
+        <v>0.2963</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4470,13 +4470,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.2631</v>
+        <v>0.3178</v>
       </c>
       <c r="C239">
-        <v>0.0218</v>
+        <v>0.0231</v>
       </c>
       <c r="D239">
-        <v>0.2414</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4484,13 +4484,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.262</v>
+        <v>0.3178</v>
       </c>
       <c r="C240">
-        <v>0.0229</v>
+        <v>0.0243</v>
       </c>
       <c r="D240">
-        <v>0.2391</v>
+        <v>0.2935</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4498,13 +4498,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.2603</v>
+        <v>0.3175</v>
       </c>
       <c r="C241">
-        <v>0.0237</v>
+        <v>0.0251</v>
       </c>
       <c r="D241">
-        <v>0.2366</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4512,13 +4512,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.2587</v>
+        <v>0.3172</v>
       </c>
       <c r="C242">
-        <v>0.0241</v>
+        <v>0.0256</v>
       </c>
       <c r="D242">
-        <v>0.2346</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4526,13 +4526,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.2567</v>
+        <v>0.3166</v>
       </c>
       <c r="C243">
-        <v>0.0242</v>
+        <v>0.0257</v>
       </c>
       <c r="D243">
-        <v>0.2325</v>
+        <v>0.2909</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4540,13 +4540,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.2551</v>
+        <v>0.3162</v>
       </c>
       <c r="C244">
-        <v>0.0244</v>
+        <v>0.0259</v>
       </c>
       <c r="D244">
-        <v>0.2307</v>
+        <v>0.2903</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4554,13 +4554,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.2532</v>
+        <v>0.3157</v>
       </c>
       <c r="C245">
-        <v>0.0245</v>
+        <v>0.026</v>
       </c>
       <c r="D245">
-        <v>0.2287</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4568,13 +4568,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.2506</v>
+        <v>0.3146</v>
       </c>
       <c r="C246">
-        <v>0.0242</v>
+        <v>0.0257</v>
       </c>
       <c r="D246">
-        <v>0.2265</v>
+        <v>0.2889</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4582,13 +4582,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.2491</v>
+        <v>0.3143</v>
       </c>
       <c r="C247">
-        <v>0.024</v>
+        <v>0.0255</v>
       </c>
       <c r="D247">
-        <v>0.2251</v>
+        <v>0.2888</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4596,13 +4596,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.2473</v>
+        <v>0.3134</v>
       </c>
       <c r="C248">
-        <v>0.0227</v>
+        <v>0.0242</v>
       </c>
       <c r="D248">
-        <v>0.2246</v>
+        <v>0.2892</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4610,13 +4610,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.247</v>
+        <v>0.3137</v>
       </c>
       <c r="C249">
-        <v>0.0221</v>
+        <v>0.0236</v>
       </c>
       <c r="D249">
-        <v>0.2248</v>
+        <v>0.2901</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2013 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2013 - Diaria.xlsx
@@ -1152,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.39</v>
+        <v>0.3882</v>
       </c>
       <c r="C2">
         <v>0.1035</v>
       </c>
       <c r="D2">
-        <v>0.2865</v>
+        <v>0.2847</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3781</v>
+        <v>0.3763</v>
       </c>
       <c r="C3">
         <v>0.0936</v>
       </c>
       <c r="D3">
-        <v>0.2846</v>
+        <v>0.2828</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3759</v>
+        <v>0.3741</v>
       </c>
       <c r="C4">
         <v>0.0925</v>
       </c>
       <c r="D4">
-        <v>0.2834</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3743</v>
+        <v>0.3725</v>
       </c>
       <c r="C5">
         <v>0.0919</v>
       </c>
       <c r="D5">
-        <v>0.2824</v>
+        <v>0.2806</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3746</v>
+        <v>0.3728</v>
       </c>
       <c r="C6">
         <v>0.09279999999999999</v>
       </c>
       <c r="D6">
-        <v>0.2817</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3743</v>
+        <v>0.3725</v>
       </c>
       <c r="C7">
         <v>0.0936</v>
       </c>
       <c r="D7">
-        <v>0.2806</v>
+        <v>0.2789</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3735</v>
+        <v>0.3718</v>
       </c>
       <c r="C8">
         <v>0.09370000000000001</v>
       </c>
       <c r="D8">
-        <v>0.2798</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3738</v>
+        <v>0.372</v>
       </c>
       <c r="C9">
         <v>0.0944</v>
       </c>
       <c r="D9">
-        <v>0.2793</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.374</v>
+        <v>0.3723</v>
       </c>
       <c r="C10">
         <v>0.09470000000000001</v>
       </c>
       <c r="D10">
-        <v>0.2793</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3746</v>
+        <v>0.3729</v>
       </c>
       <c r="C11">
         <v>0.09470000000000001</v>
       </c>
       <c r="D11">
-        <v>0.2798</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3755</v>
+        <v>0.3738</v>
       </c>
       <c r="C12">
-        <v>0.0949</v>
+        <v>0.0948</v>
       </c>
       <c r="D12">
-        <v>0.2806</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3757</v>
+        <v>0.3741</v>
       </c>
       <c r="C13">
         <v>0.0945</v>
       </c>
       <c r="D13">
-        <v>0.2812</v>
+        <v>0.2796</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.376</v>
+        <v>0.3744</v>
       </c>
       <c r="C14">
         <v>0.09429999999999999</v>
       </c>
       <c r="D14">
-        <v>0.2816</v>
+        <v>0.2801</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.376</v>
+        <v>0.3745</v>
       </c>
       <c r="C15">
         <v>0.09429999999999999</v>
       </c>
       <c r="D15">
-        <v>0.2817</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.376</v>
+        <v>0.3745</v>
       </c>
       <c r="C16">
         <v>0.0945</v>
       </c>
       <c r="D16">
-        <v>0.2815</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3749</v>
+        <v>0.3734</v>
       </c>
       <c r="C17">
         <v>0.0941</v>
       </c>
       <c r="D17">
-        <v>0.2808</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3728</v>
+        <v>0.3715</v>
       </c>
       <c r="C18">
         <v>0.09320000000000001</v>
       </c>
       <c r="D18">
-        <v>0.2797</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3713</v>
+        <v>0.3699</v>
       </c>
       <c r="C19">
         <v>0.0929</v>
       </c>
       <c r="D19">
-        <v>0.2783</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3682</v>
+        <v>0.3669</v>
       </c>
       <c r="C20">
         <v>0.09130000000000001</v>
       </c>
       <c r="D20">
-        <v>0.2769</v>
+        <v>0.2756</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3665</v>
+        <v>0.3653</v>
       </c>
       <c r="C21">
         <v>0.0911</v>
       </c>
       <c r="D21">
-        <v>0.2755</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3641</v>
+        <v>0.3628</v>
       </c>
       <c r="C22">
         <v>0.0906</v>
       </c>
       <c r="D22">
-        <v>0.2735</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3619</v>
+        <v>0.3607</v>
       </c>
       <c r="C23">
         <v>0.09039999999999999</v>
       </c>
       <c r="D23">
-        <v>0.2714</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.359</v>
+        <v>0.3579</v>
       </c>
       <c r="C24">
         <v>0.0901</v>
       </c>
       <c r="D24">
-        <v>0.269</v>
+        <v>0.2678</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3565</v>
+        <v>0.3554</v>
       </c>
       <c r="C25">
         <v>0.0901</v>
       </c>
       <c r="D25">
-        <v>0.2664</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3531</v>
+        <v>0.352</v>
       </c>
       <c r="C26">
         <v>0.08939999999999999</v>
       </c>
       <c r="D26">
-        <v>0.2637</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3497</v>
+        <v>0.3486</v>
       </c>
       <c r="C27">
         <v>0.0888</v>
       </c>
       <c r="D27">
-        <v>0.2609</v>
+        <v>0.2599</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.346</v>
+        <v>0.3449</v>
       </c>
       <c r="C28">
         <v>0.08799999999999999</v>
       </c>
       <c r="D28">
-        <v>0.258</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3411</v>
+        <v>0.3401</v>
       </c>
       <c r="C29">
-        <v>0.08649999999999999</v>
+        <v>0.0866</v>
       </c>
       <c r="D29">
-        <v>0.2546</v>
+        <v>0.2536</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3364</v>
+        <v>0.3354</v>
       </c>
       <c r="C30">
         <v>0.0857</v>
       </c>
       <c r="D30">
-        <v>0.2507</v>
+        <v>0.2497</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3315</v>
+        <v>0.3306</v>
       </c>
       <c r="C31">
         <v>0.0852</v>
       </c>
       <c r="D31">
-        <v>0.2463</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3261</v>
+        <v>0.3252</v>
       </c>
       <c r="C32">
         <v>0.08450000000000001</v>
       </c>
       <c r="D32">
-        <v>0.2416</v>
+        <v>0.2407</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.321</v>
+        <v>0.3201</v>
       </c>
       <c r="C33">
         <v>0.08400000000000001</v>
       </c>
       <c r="D33">
-        <v>0.237</v>
+        <v>0.2361</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3153</v>
+        <v>0.3144</v>
       </c>
       <c r="C34">
         <v>0.083</v>
       </c>
       <c r="D34">
-        <v>0.2323</v>
+        <v>0.2314</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.31</v>
+        <v>0.3091</v>
       </c>
       <c r="C35">
         <v>0.0823</v>
       </c>
       <c r="D35">
-        <v>0.2277</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3042</v>
+        <v>0.3033</v>
       </c>
       <c r="C36">
         <v>0.0809</v>
       </c>
       <c r="D36">
-        <v>0.2233</v>
+        <v>0.2224</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.298</v>
+        <v>0.2971</v>
       </c>
       <c r="C37">
         <v>0.0794</v>
       </c>
       <c r="D37">
-        <v>0.2186</v>
+        <v>0.2177</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.293</v>
+        <v>0.2921</v>
       </c>
       <c r="C38">
         <v>0.079</v>
       </c>
       <c r="D38">
-        <v>0.214</v>
+        <v>0.2131</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2872</v>
+        <v>0.2863</v>
       </c>
       <c r="C39">
         <v>0.0779</v>
       </c>
       <c r="D39">
-        <v>0.2093</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2818</v>
+        <v>0.2809</v>
       </c>
       <c r="C40">
         <v>0.07679999999999999</v>
       </c>
       <c r="D40">
-        <v>0.205</v>
+        <v>0.2041</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2769</v>
+        <v>0.276</v>
       </c>
       <c r="C41">
         <v>0.0757</v>
       </c>
       <c r="D41">
-        <v>0.2013</v>
+        <v>0.2003</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2727</v>
+        <v>0.2718</v>
       </c>
       <c r="C42">
         <v>0.0747</v>
       </c>
       <c r="D42">
-        <v>0.198</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2688</v>
+        <v>0.2679</v>
       </c>
       <c r="C43">
         <v>0.0743</v>
       </c>
       <c r="D43">
-        <v>0.1946</v>
+        <v>0.1936</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2645</v>
+        <v>0.2635</v>
       </c>
       <c r="C44">
         <v>0.0731</v>
       </c>
       <c r="D44">
-        <v>0.1914</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2601</v>
+        <v>0.2591</v>
       </c>
       <c r="C45">
         <v>0.0717</v>
       </c>
       <c r="D45">
-        <v>0.1884</v>
+        <v>0.1873</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2543</v>
+        <v>0.2532</v>
       </c>
       <c r="C46">
         <v>0.0692</v>
       </c>
       <c r="D46">
-        <v>0.1851</v>
+        <v>0.1841</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2492</v>
+        <v>0.2481</v>
       </c>
       <c r="C47">
         <v>0.0672</v>
       </c>
       <c r="D47">
-        <v>0.182</v>
+        <v>0.1809</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2438</v>
+        <v>0.2427</v>
       </c>
       <c r="C48">
         <v>0.06519999999999999</v>
       </c>
       <c r="D48">
-        <v>0.1785</v>
+        <v>0.1774</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.2391</v>
+        <v>0.238</v>
       </c>
       <c r="C49">
         <v>0.06370000000000001</v>
       </c>
       <c r="D49">
-        <v>0.1754</v>
+        <v>0.1743</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2351</v>
+        <v>0.2339</v>
       </c>
       <c r="C50">
         <v>0.0623</v>
       </c>
       <c r="D50">
-        <v>0.1728</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.2309</v>
+        <v>0.2297</v>
       </c>
       <c r="C51">
         <v>0.0607</v>
       </c>
       <c r="D51">
-        <v>0.1702</v>
+        <v>0.1691</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.228</v>
+        <v>0.2268</v>
       </c>
       <c r="C52">
         <v>0.0599</v>
       </c>
       <c r="D52">
-        <v>0.1681</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2255</v>
+        <v>0.2243</v>
       </c>
       <c r="C53">
         <v>0.0591</v>
       </c>
       <c r="D53">
-        <v>0.1664</v>
+        <v>0.1652</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.2239</v>
+        <v>0.2227</v>
       </c>
       <c r="C54">
         <v>0.0588</v>
       </c>
       <c r="D54">
-        <v>0.165</v>
+        <v>0.1639</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2223</v>
+        <v>0.2211</v>
       </c>
       <c r="C55">
         <v>0.0581</v>
       </c>
       <c r="D55">
-        <v>0.1642</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.2216</v>
+        <v>0.2203</v>
       </c>
       <c r="C56">
         <v>0.0577</v>
       </c>
       <c r="D56">
-        <v>0.1639</v>
+        <v>0.1627</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.221</v>
+        <v>0.2197</v>
       </c>
       <c r="C57">
         <v>0.0569</v>
       </c>
       <c r="D57">
-        <v>0.164</v>
+        <v>0.1627</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2201</v>
+        <v>0.2188</v>
       </c>
       <c r="C58">
         <v>0.0558</v>
       </c>
       <c r="D58">
-        <v>0.1643</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2196</v>
+        <v>0.2183</v>
       </c>
       <c r="C59">
         <v>0.0549</v>
       </c>
       <c r="D59">
-        <v>0.1647</v>
+        <v>0.1634</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.2188</v>
+        <v>0.2175</v>
       </c>
       <c r="C60">
         <v>0.054</v>
       </c>
       <c r="D60">
-        <v>0.1648</v>
+        <v>0.1635</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.2174</v>
+        <v>0.2161</v>
       </c>
       <c r="C61">
         <v>0.0529</v>
       </c>
       <c r="D61">
-        <v>0.1645</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.2167</v>
+        <v>0.2154</v>
       </c>
       <c r="C62">
         <v>0.0524</v>
       </c>
       <c r="D62">
-        <v>0.1643</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.2157</v>
+        <v>0.2144</v>
       </c>
       <c r="C63">
         <v>0.0513</v>
       </c>
       <c r="D63">
-        <v>0.1643</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.2156</v>
+        <v>0.2143</v>
       </c>
       <c r="C64">
         <v>0.0508</v>
       </c>
       <c r="D64">
-        <v>0.1647</v>
+        <v>0.1635</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.2154</v>
+        <v>0.2142</v>
       </c>
       <c r="C65">
         <v>0.0501</v>
       </c>
       <c r="D65">
-        <v>0.1653</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.2161</v>
+        <v>0.2148</v>
       </c>
       <c r="C66">
         <v>0.0498</v>
       </c>
       <c r="D66">
-        <v>0.1662</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.2158</v>
+        <v>0.2146</v>
       </c>
       <c r="C67">
         <v>0.0489</v>
       </c>
       <c r="D67">
-        <v>0.1669</v>
+        <v>0.1657</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.2173</v>
+        <v>0.2161</v>
       </c>
       <c r="C68">
         <v>0.0491</v>
       </c>
       <c r="D68">
-        <v>0.1682</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.2191</v>
+        <v>0.2179</v>
       </c>
       <c r="C69">
         <v>0.049</v>
       </c>
       <c r="D69">
-        <v>0.1701</v>
+        <v>0.1689</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.222</v>
+        <v>0.2208</v>
       </c>
       <c r="C70">
         <v>0.0494</v>
       </c>
       <c r="D70">
-        <v>0.1726</v>
+        <v>0.1714</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.225</v>
+        <v>0.2238</v>
       </c>
       <c r="C71">
         <v>0.0502</v>
       </c>
       <c r="D71">
-        <v>0.1748</v>
+        <v>0.1736</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.2275</v>
+        <v>0.2263</v>
       </c>
       <c r="C72">
         <v>0.0506</v>
       </c>
       <c r="D72">
-        <v>0.1769</v>
+        <v>0.1757</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2294</v>
+        <v>0.2281</v>
       </c>
       <c r="C73">
         <v>0.0506</v>
       </c>
       <c r="D73">
-        <v>0.1788</v>
+        <v>0.1775</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.232</v>
+        <v>0.2308</v>
       </c>
       <c r="C74">
         <v>0.0506</v>
       </c>
       <c r="D74">
-        <v>0.1815</v>
+        <v>0.1803</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.234</v>
+        <v>0.2328</v>
       </c>
       <c r="C75">
         <v>0.0499</v>
       </c>
       <c r="D75">
-        <v>0.184</v>
+        <v>0.1828</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2355</v>
+        <v>0.2342</v>
       </c>
       <c r="C76">
         <v>0.0491</v>
       </c>
       <c r="D76">
-        <v>0.1863</v>
+        <v>0.1851</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2357</v>
+        <v>0.2345</v>
       </c>
       <c r="C77">
         <v>0.0477</v>
       </c>
       <c r="D77">
-        <v>0.188</v>
+        <v>0.1868</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.2356</v>
+        <v>0.2344</v>
       </c>
       <c r="C78">
         <v>0.0463</v>
       </c>
       <c r="D78">
-        <v>0.1893</v>
+        <v>0.1881</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2356</v>
+        <v>0.2344</v>
       </c>
       <c r="C79">
         <v>0.0451</v>
       </c>
       <c r="D79">
-        <v>0.1905</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2349</v>
+        <v>0.2337</v>
       </c>
       <c r="C80">
         <v>0.0435</v>
       </c>
       <c r="D80">
-        <v>0.1914</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2343</v>
+        <v>0.2332</v>
       </c>
       <c r="C81">
         <v>0.0422</v>
       </c>
       <c r="D81">
-        <v>0.1921</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.233</v>
+        <v>0.2319</v>
       </c>
       <c r="C82">
         <v>0.0403</v>
       </c>
       <c r="D82">
-        <v>0.1927</v>
+        <v>0.1916</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2311</v>
+        <v>0.2299</v>
       </c>
       <c r="C83">
         <v>0.0382</v>
       </c>
       <c r="D83">
-        <v>0.1929</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.229</v>
+        <v>0.2279</v>
       </c>
       <c r="C84">
-        <v>0.0362</v>
+        <v>0.0363</v>
       </c>
       <c r="D84">
-        <v>0.1927</v>
+        <v>0.1916</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2268</v>
+        <v>0.2257</v>
       </c>
       <c r="C85">
         <v>0.0346</v>
       </c>
       <c r="D85">
-        <v>0.1922</v>
+        <v>0.1911</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2246</v>
+        <v>0.2235</v>
       </c>
       <c r="C86">
         <v>0.0331</v>
       </c>
       <c r="D86">
-        <v>0.1915</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.222</v>
+        <v>0.221</v>
       </c>
       <c r="C87">
         <v>0.0314</v>
       </c>
       <c r="D87">
-        <v>0.1906</v>
+        <v>0.1896</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2193</v>
+        <v>0.2183</v>
       </c>
       <c r="C88">
         <v>0.0299</v>
       </c>
       <c r="D88">
-        <v>0.1894</v>
+        <v>0.1884</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2163</v>
+        <v>0.2153</v>
       </c>
       <c r="C89">
         <v>0.0288</v>
       </c>
       <c r="D89">
-        <v>0.1875</v>
+        <v>0.1865</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2114</v>
+        <v>0.2105</v>
       </c>
       <c r="C90">
         <v>0.0266</v>
       </c>
       <c r="D90">
-        <v>0.1847</v>
+        <v>0.1838</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2076</v>
+        <v>0.2067</v>
       </c>
       <c r="C91">
         <v>0.0243</v>
       </c>
       <c r="D91">
-        <v>0.1833</v>
+        <v>0.1824</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2031</v>
+        <v>0.2021</v>
       </c>
       <c r="C92">
         <v>0.0215</v>
       </c>
       <c r="D92">
-        <v>0.1816</v>
+        <v>0.1806</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.199</v>
+        <v>0.198</v>
       </c>
       <c r="C93">
         <v>0.0189</v>
       </c>
       <c r="D93">
-        <v>0.1801</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.1939</v>
+        <v>0.1929</v>
       </c>
       <c r="C94">
         <v>0.0163</v>
       </c>
       <c r="D94">
-        <v>0.1776</v>
+        <v>0.1766</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.1889</v>
+        <v>0.188</v>
       </c>
       <c r="C95">
-        <v>0.0142</v>
+        <v>0.0143</v>
       </c>
       <c r="D95">
-        <v>0.1747</v>
+        <v>0.1737</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.1839</v>
+        <v>0.183</v>
       </c>
       <c r="C96">
         <v>0.0123</v>
       </c>
       <c r="D96">
-        <v>0.1716</v>
+        <v>0.1707</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.1802</v>
+        <v>0.1793</v>
       </c>
       <c r="C97">
-        <v>0.0113</v>
+        <v>0.0114</v>
       </c>
       <c r="D97">
-        <v>0.1689</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.1765</v>
+        <v>0.1756</v>
       </c>
       <c r="C98">
         <v>0.0103</v>
       </c>
       <c r="D98">
-        <v>0.1663</v>
+        <v>0.1654</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.1732</v>
+        <v>0.1723</v>
       </c>
       <c r="C99">
         <v>0.0095</v>
       </c>
       <c r="D99">
-        <v>0.1637</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.1707</v>
+        <v>0.1698</v>
       </c>
       <c r="C100">
         <v>0.0092</v>
       </c>
       <c r="D100">
-        <v>0.1615</v>
+        <v>0.1606</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.169</v>
+        <v>0.1681</v>
       </c>
       <c r="C101">
         <v>0.0091</v>
       </c>
       <c r="D101">
-        <v>0.1599</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.1682</v>
+        <v>0.1673</v>
       </c>
       <c r="C102">
         <v>0.009900000000000001</v>
       </c>
       <c r="D102">
-        <v>0.1584</v>
+        <v>0.1574</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.1676</v>
+        <v>0.1666</v>
       </c>
       <c r="C103">
         <v>0.0109</v>
       </c>
       <c r="D103">
-        <v>0.1568</v>
+        <v>0.1557</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.1671</v>
+        <v>0.166</v>
       </c>
       <c r="C104">
         <v>0.0117</v>
       </c>
       <c r="D104">
-        <v>0.1553</v>
+        <v>0.1543</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.1664</v>
+        <v>0.1653</v>
       </c>
       <c r="C105">
         <v>0.0125</v>
       </c>
       <c r="D105">
-        <v>0.1538</v>
+        <v>0.1528</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.1656</v>
+        <v>0.1645</v>
       </c>
       <c r="C106">
         <v>0.0133</v>
       </c>
       <c r="D106">
-        <v>0.1524</v>
+        <v>0.1513</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.1674</v>
+        <v>0.1663</v>
       </c>
       <c r="C107">
         <v>0.0158</v>
       </c>
       <c r="D107">
-        <v>0.1516</v>
+        <v>0.1505</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.1696</v>
+        <v>0.1684</v>
       </c>
       <c r="C108">
         <v>0.0179</v>
       </c>
       <c r="D108">
-        <v>0.1516</v>
+        <v>0.1505</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.1709</v>
+        <v>0.1697</v>
       </c>
       <c r="C109">
         <v>0.0193</v>
       </c>
       <c r="D109">
-        <v>0.1516</v>
+        <v>0.1504</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1725</v>
+        <v>0.1712</v>
       </c>
       <c r="C110">
         <v>0.021</v>
       </c>
       <c r="D110">
-        <v>0.1515</v>
+        <v>0.1502</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.1728</v>
+        <v>0.1715</v>
       </c>
       <c r="C111">
         <v>0.0226</v>
       </c>
       <c r="D111">
-        <v>0.1502</v>
+        <v>0.1489</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.1732</v>
+        <v>0.1719</v>
       </c>
       <c r="C112">
-        <v>0.0244</v>
+        <v>0.0243</v>
       </c>
       <c r="D112">
-        <v>0.1488</v>
+        <v>0.1476</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.1739</v>
+        <v>0.1726</v>
       </c>
       <c r="C113">
-        <v>0.0263</v>
+        <v>0.0262</v>
       </c>
       <c r="D113">
-        <v>0.1476</v>
+        <v>0.1464</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.1745</v>
+        <v>0.1732</v>
       </c>
       <c r="C114">
         <v>0.028</v>
       </c>
       <c r="D114">
-        <v>0.1464</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.1789</v>
+        <v>0.1775</v>
       </c>
       <c r="C115">
-        <v>0.0328</v>
+        <v>0.0327</v>
       </c>
       <c r="D115">
-        <v>0.1461</v>
+        <v>0.1448</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1801</v>
+        <v>0.1787</v>
       </c>
       <c r="C116">
         <v>0.0348</v>
       </c>
       <c r="D116">
-        <v>0.1453</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1809</v>
+        <v>0.1796</v>
       </c>
       <c r="C117">
         <v>0.0366</v>
       </c>
       <c r="D117">
-        <v>0.1443</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1821</v>
+        <v>0.1807</v>
       </c>
       <c r="C118">
         <v>0.0387</v>
       </c>
       <c r="D118">
-        <v>0.1434</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1836</v>
+        <v>0.1822</v>
       </c>
       <c r="C119">
-        <v>0.041</v>
+        <v>0.0409</v>
       </c>
       <c r="D119">
-        <v>0.1426</v>
+        <v>0.1413</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1848</v>
+        <v>0.1834</v>
       </c>
       <c r="C120">
         <v>0.0432</v>
       </c>
       <c r="D120">
-        <v>0.1416</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1885</v>
+        <v>0.1871</v>
       </c>
       <c r="C121">
-        <v>0.0475</v>
+        <v>0.0474</v>
       </c>
       <c r="D121">
-        <v>0.141</v>
+        <v>0.1397</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1922</v>
+        <v>0.1907</v>
       </c>
       <c r="C122">
-        <v>0.0517</v>
+        <v>0.0516</v>
       </c>
       <c r="D122">
-        <v>0.1405</v>
+        <v>0.1391</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1956</v>
+        <v>0.1941</v>
       </c>
       <c r="C123">
-        <v>0.0555</v>
+        <v>0.0554</v>
       </c>
       <c r="D123">
-        <v>0.1401</v>
+        <v>0.1387</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.199</v>
+        <v>0.1976</v>
       </c>
       <c r="C124">
         <v>0.0594</v>
       </c>
       <c r="D124">
-        <v>0.1396</v>
+        <v>0.1382</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2018</v>
+        <v>0.2003</v>
       </c>
       <c r="C125">
-        <v>0.06279999999999999</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="D125">
-        <v>0.139</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2033</v>
+        <v>0.2018</v>
       </c>
       <c r="C126">
-        <v>0.0654</v>
+        <v>0.0653</v>
       </c>
       <c r="D126">
-        <v>0.1379</v>
+        <v>0.1365</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2025</v>
+        <v>0.201</v>
       </c>
       <c r="C127">
-        <v>0.0664</v>
+        <v>0.0663</v>
       </c>
       <c r="D127">
-        <v>0.1361</v>
+        <v>0.1347</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.2001</v>
+        <v>0.1986</v>
       </c>
       <c r="C128">
-        <v>0.0668</v>
+        <v>0.0667</v>
       </c>
       <c r="D128">
-        <v>0.1333</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1975</v>
+        <v>0.1961</v>
       </c>
       <c r="C129">
-        <v>0.06710000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="D129">
-        <v>0.1304</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.1951</v>
+        <v>0.1937</v>
       </c>
       <c r="C130">
-        <v>0.06759999999999999</v>
+        <v>0.0675</v>
       </c>
       <c r="D130">
-        <v>0.1275</v>
+        <v>0.1262</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1918</v>
+        <v>0.1904</v>
       </c>
       <c r="C131">
-        <v>0.0673</v>
+        <v>0.0672</v>
       </c>
       <c r="D131">
-        <v>0.1246</v>
+        <v>0.1233</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.1892</v>
+        <v>0.1878</v>
       </c>
       <c r="C132">
-        <v>0.0673</v>
+        <v>0.0672</v>
       </c>
       <c r="D132">
-        <v>0.1219</v>
+        <v>0.1206</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.1864</v>
+        <v>0.185</v>
       </c>
       <c r="C133">
-        <v>0.0674</v>
+        <v>0.0673</v>
       </c>
       <c r="D133">
-        <v>0.119</v>
+        <v>0.1177</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.1831</v>
+        <v>0.1817</v>
       </c>
       <c r="C134">
-        <v>0.0669</v>
+        <v>0.0668</v>
       </c>
       <c r="D134">
-        <v>0.1162</v>
+        <v>0.1149</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1765</v>
+        <v>0.1751</v>
       </c>
       <c r="C135">
-        <v>0.0634</v>
+        <v>0.0633</v>
       </c>
       <c r="D135">
-        <v>0.1131</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.1731</v>
+        <v>0.1717</v>
       </c>
       <c r="C136">
-        <v>0.0625</v>
+        <v>0.0624</v>
       </c>
       <c r="D136">
-        <v>0.1106</v>
+        <v>0.1093</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.17</v>
+        <v>0.1686</v>
       </c>
       <c r="C137">
-        <v>0.0616</v>
+        <v>0.0615</v>
       </c>
       <c r="D137">
-        <v>0.1084</v>
+        <v>0.1071</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1673</v>
+        <v>0.1659</v>
       </c>
       <c r="C138">
-        <v>0.0608</v>
+        <v>0.0607</v>
       </c>
       <c r="D138">
-        <v>0.1065</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1644</v>
+        <v>0.1629</v>
       </c>
       <c r="C139">
-        <v>0.0596</v>
+        <v>0.0595</v>
       </c>
       <c r="D139">
-        <v>0.1048</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1625</v>
+        <v>0.161</v>
       </c>
       <c r="C140">
-        <v>0.0581</v>
+        <v>0.058</v>
       </c>
       <c r="D140">
-        <v>0.1044</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.157</v>
+        <v>0.1555</v>
       </c>
       <c r="C141">
-        <v>0.0538</v>
+        <v>0.0537</v>
       </c>
       <c r="D141">
-        <v>0.1032</v>
+        <v>0.1018</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1512</v>
+        <v>0.1497</v>
       </c>
       <c r="C142">
-        <v>0.0491</v>
+        <v>0.049</v>
       </c>
       <c r="D142">
-        <v>0.1021</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1464</v>
+        <v>0.1449</v>
       </c>
       <c r="C143">
-        <v>0.0451</v>
+        <v>0.0449</v>
       </c>
       <c r="D143">
-        <v>0.1013</v>
+        <v>0.0999</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.1412</v>
+        <v>0.1397</v>
       </c>
       <c r="C144">
-        <v>0.0408</v>
+        <v>0.0407</v>
       </c>
       <c r="D144">
-        <v>0.1004</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1378</v>
+        <v>0.1363</v>
       </c>
       <c r="C145">
-        <v>0.0372</v>
+        <v>0.0371</v>
       </c>
       <c r="D145">
-        <v>0.1006</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.1353</v>
+        <v>0.1338</v>
       </c>
       <c r="C146">
-        <v>0.0341</v>
+        <v>0.034</v>
       </c>
       <c r="D146">
-        <v>0.1012</v>
+        <v>0.0998</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1333</v>
+        <v>0.1317</v>
       </c>
       <c r="C147">
-        <v>0.0309</v>
+        <v>0.0308</v>
       </c>
       <c r="D147">
-        <v>0.1024</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1336</v>
+        <v>0.132</v>
       </c>
       <c r="C148">
-        <v>0.0292</v>
+        <v>0.0291</v>
       </c>
       <c r="D148">
-        <v>0.1044</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1347</v>
+        <v>0.1331</v>
       </c>
       <c r="C149">
-        <v>0.0277</v>
+        <v>0.0276</v>
       </c>
       <c r="D149">
-        <v>0.107</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3224,13 +3224,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.136</v>
+        <v>0.1344</v>
       </c>
       <c r="C150">
-        <v>0.026</v>
+        <v>0.0259</v>
       </c>
       <c r="D150">
-        <v>0.11</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3238,13 +3238,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1389</v>
+        <v>0.1373</v>
       </c>
       <c r="C151">
-        <v>0.0251</v>
+        <v>0.025</v>
       </c>
       <c r="D151">
-        <v>0.1138</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1417</v>
+        <v>0.1401</v>
       </c>
       <c r="C152">
-        <v>0.0238</v>
+        <v>0.0237</v>
       </c>
       <c r="D152">
-        <v>0.1179</v>
+        <v>0.1164</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1455</v>
+        <v>0.1438</v>
       </c>
       <c r="C153">
-        <v>0.0231</v>
+        <v>0.023</v>
       </c>
       <c r="D153">
-        <v>0.1224</v>
+        <v>0.1209</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3280,13 +3280,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.1499</v>
+        <v>0.1483</v>
       </c>
       <c r="C154">
-        <v>0.0227</v>
+        <v>0.0226</v>
       </c>
       <c r="D154">
-        <v>0.1272</v>
+        <v>0.1257</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3294,13 +3294,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1552</v>
+        <v>0.1536</v>
       </c>
       <c r="C155">
-        <v>0.0231</v>
+        <v>0.023</v>
       </c>
       <c r="D155">
-        <v>0.1321</v>
+        <v>0.1306</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3308,13 +3308,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1607</v>
+        <v>0.1591</v>
       </c>
       <c r="C156">
-        <v>0.0235</v>
+        <v>0.0234</v>
       </c>
       <c r="D156">
-        <v>0.1372</v>
+        <v>0.1357</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3322,13 +3322,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1664</v>
+        <v>0.1648</v>
       </c>
       <c r="C157">
-        <v>0.0241</v>
+        <v>0.024</v>
       </c>
       <c r="D157">
-        <v>0.1423</v>
+        <v>0.1408</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3336,13 +3336,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1722</v>
+        <v>0.1707</v>
       </c>
       <c r="C158">
-        <v>0.0246</v>
+        <v>0.0245</v>
       </c>
       <c r="D158">
-        <v>0.1476</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3350,13 +3350,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1784</v>
+        <v>0.1768</v>
       </c>
       <c r="C159">
         <v>0.0252</v>
       </c>
       <c r="D159">
-        <v>0.1532</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3364,13 +3364,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.184</v>
+        <v>0.1825</v>
       </c>
       <c r="C160">
-        <v>0.0262</v>
+        <v>0.0261</v>
       </c>
       <c r="D160">
-        <v>0.1578</v>
+        <v>0.1564</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3378,13 +3378,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1908</v>
+        <v>0.1893</v>
       </c>
       <c r="C161">
-        <v>0.0277</v>
+        <v>0.0276</v>
       </c>
       <c r="D161">
-        <v>0.1632</v>
+        <v>0.1617</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3392,13 +3392,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.1988</v>
+        <v>0.1973</v>
       </c>
       <c r="C162">
-        <v>0.0299</v>
+        <v>0.0298</v>
       </c>
       <c r="D162">
-        <v>0.1689</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3406,13 +3406,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2069</v>
+        <v>0.2054</v>
       </c>
       <c r="C163">
-        <v>0.0321</v>
+        <v>0.032</v>
       </c>
       <c r="D163">
-        <v>0.1748</v>
+        <v>0.1734</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3420,13 +3420,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2152</v>
+        <v>0.2137</v>
       </c>
       <c r="C164">
-        <v>0.0341</v>
+        <v>0.034</v>
       </c>
       <c r="D164">
-        <v>0.1812</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2234</v>
+        <v>0.2219</v>
       </c>
       <c r="C165">
         <v>0.0362</v>
       </c>
       <c r="D165">
-        <v>0.1872</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3448,13 +3448,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2317</v>
+        <v>0.2302</v>
       </c>
       <c r="C166">
-        <v>0.0384</v>
+        <v>0.0383</v>
       </c>
       <c r="D166">
-        <v>0.1933</v>
+        <v>0.1919</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3462,13 +3462,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2396</v>
+        <v>0.2382</v>
       </c>
       <c r="C167">
-        <v>0.0402</v>
+        <v>0.0401</v>
       </c>
       <c r="D167">
-        <v>0.1994</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3476,13 +3476,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2461</v>
+        <v>0.2447</v>
       </c>
       <c r="C168">
         <v>0.0408</v>
       </c>
       <c r="D168">
-        <v>0.2053</v>
+        <v>0.2039</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3490,13 +3490,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2527</v>
+        <v>0.2512</v>
       </c>
       <c r="C169">
         <v>0.0413</v>
       </c>
       <c r="D169">
-        <v>0.2114</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3504,13 +3504,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2594</v>
+        <v>0.2579</v>
       </c>
       <c r="C170">
-        <v>0.0421</v>
+        <v>0.042</v>
       </c>
       <c r="D170">
-        <v>0.2174</v>
+        <v>0.2159</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3518,13 +3518,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2655</v>
+        <v>0.264</v>
       </c>
       <c r="C171">
         <v>0.0424</v>
       </c>
       <c r="D171">
-        <v>0.2231</v>
+        <v>0.2216</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3532,13 +3532,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2714</v>
+        <v>0.2698</v>
       </c>
       <c r="C172">
         <v>0.0427</v>
       </c>
       <c r="D172">
-        <v>0.2286</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3546,13 +3546,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2762</v>
+        <v>0.2746</v>
       </c>
       <c r="C173">
-        <v>0.0422</v>
+        <v>0.0421</v>
       </c>
       <c r="D173">
-        <v>0.234</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3560,13 +3560,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.281</v>
+        <v>0.2794</v>
       </c>
       <c r="C174">
-        <v>0.0418</v>
+        <v>0.0417</v>
       </c>
       <c r="D174">
-        <v>0.2393</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3574,13 +3574,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2859</v>
+        <v>0.2843</v>
       </c>
       <c r="C175">
         <v>0.0411</v>
       </c>
       <c r="D175">
-        <v>0.2448</v>
+        <v>0.2432</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3588,13 +3588,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2912</v>
+        <v>0.2895</v>
       </c>
       <c r="C176">
-        <v>0.0406</v>
+        <v>0.0405</v>
       </c>
       <c r="D176">
-        <v>0.2506</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3602,13 +3602,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2958</v>
+        <v>0.2941</v>
       </c>
       <c r="C177">
-        <v>0.0396</v>
+        <v>0.0395</v>
       </c>
       <c r="D177">
-        <v>0.2563</v>
+        <v>0.2546</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3616,13 +3616,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3002</v>
+        <v>0.2985</v>
       </c>
       <c r="C178">
         <v>0.0385</v>
       </c>
       <c r="D178">
-        <v>0.2617</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3630,13 +3630,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3039</v>
+        <v>0.3021</v>
       </c>
       <c r="C179">
         <v>0.037</v>
       </c>
       <c r="D179">
-        <v>0.2669</v>
+        <v>0.2652</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3644,13 +3644,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3078</v>
+        <v>0.306</v>
       </c>
       <c r="C180">
-        <v>0.0355</v>
+        <v>0.0354</v>
       </c>
       <c r="D180">
-        <v>0.2723</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3658,13 +3658,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3109</v>
+        <v>0.3091</v>
       </c>
       <c r="C181">
-        <v>0.0334</v>
+        <v>0.0333</v>
       </c>
       <c r="D181">
-        <v>0.2775</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3672,13 +3672,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3137</v>
+        <v>0.3119</v>
       </c>
       <c r="C182">
         <v>0.0309</v>
       </c>
       <c r="D182">
-        <v>0.2828</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3686,13 +3686,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3172</v>
+        <v>0.3153</v>
       </c>
       <c r="C183">
         <v>0.0293</v>
       </c>
       <c r="D183">
-        <v>0.2879</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3700,13 +3700,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3211</v>
+        <v>0.3192</v>
       </c>
       <c r="C184">
         <v>0.0285</v>
       </c>
       <c r="D184">
-        <v>0.2925</v>
+        <v>0.2907</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3714,13 +3714,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3242</v>
+        <v>0.3223</v>
       </c>
       <c r="C185">
-        <v>0.0274</v>
+        <v>0.0273</v>
       </c>
       <c r="D185">
-        <v>0.2968</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3728,13 +3728,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3267</v>
+        <v>0.3248</v>
       </c>
       <c r="C186">
-        <v>0.0261</v>
+        <v>0.026</v>
       </c>
       <c r="D186">
-        <v>0.3006</v>
+        <v>0.2988</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3742,13 +3742,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3292</v>
+        <v>0.3273</v>
       </c>
       <c r="C187">
         <v>0.025</v>
       </c>
       <c r="D187">
-        <v>0.3041</v>
+        <v>0.3023</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3756,13 +3756,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3328</v>
+        <v>0.331</v>
       </c>
       <c r="C188">
         <v>0.0252</v>
       </c>
       <c r="D188">
-        <v>0.3076</v>
+        <v>0.3058</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3770,13 +3770,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3363</v>
+        <v>0.3345</v>
       </c>
       <c r="C189">
-        <v>0.0256</v>
+        <v>0.0255</v>
       </c>
       <c r="D189">
-        <v>0.3107</v>
+        <v>0.3089</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3784,13 +3784,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3396</v>
+        <v>0.3378</v>
       </c>
       <c r="C190">
-        <v>0.0259</v>
+        <v>0.0258</v>
       </c>
       <c r="D190">
-        <v>0.3137</v>
+        <v>0.3119</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3798,13 +3798,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3429</v>
+        <v>0.3412</v>
       </c>
       <c r="C191">
         <v>0.0262</v>
       </c>
       <c r="D191">
-        <v>0.3167</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3812,13 +3812,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3466</v>
+        <v>0.3448</v>
       </c>
       <c r="C192">
         <v>0.027</v>
       </c>
       <c r="D192">
-        <v>0.3196</v>
+        <v>0.3178</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3826,13 +3826,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3498</v>
+        <v>0.348</v>
       </c>
       <c r="C193">
-        <v>0.0274</v>
+        <v>0.0273</v>
       </c>
       <c r="D193">
-        <v>0.3224</v>
+        <v>0.3207</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3840,13 +3840,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3529</v>
+        <v>0.3511</v>
       </c>
       <c r="C194">
-        <v>0.0279</v>
+        <v>0.0278</v>
       </c>
       <c r="D194">
-        <v>0.325</v>
+        <v>0.3233</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3854,13 +3854,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3549</v>
+        <v>0.3532</v>
       </c>
       <c r="C195">
         <v>0.0277</v>
       </c>
       <c r="D195">
-        <v>0.3271</v>
+        <v>0.3254</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3868,13 +3868,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3569</v>
+        <v>0.3552</v>
       </c>
       <c r="C196">
-        <v>0.028</v>
+        <v>0.0279</v>
       </c>
       <c r="D196">
-        <v>0.3289</v>
+        <v>0.3273</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3882,13 +3882,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3595</v>
+        <v>0.3578</v>
       </c>
       <c r="C197">
         <v>0.0287</v>
       </c>
       <c r="D197">
-        <v>0.3308</v>
+        <v>0.3291</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3896,13 +3896,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3619</v>
+        <v>0.3602</v>
       </c>
       <c r="C198">
         <v>0.0293</v>
       </c>
       <c r="D198">
-        <v>0.3325</v>
+        <v>0.3309</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3910,13 +3910,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3648</v>
+        <v>0.3631</v>
       </c>
       <c r="C199">
         <v>0.0304</v>
       </c>
       <c r="D199">
-        <v>0.3344</v>
+        <v>0.3327</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3924,13 +3924,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3668</v>
+        <v>0.3652</v>
       </c>
       <c r="C200">
-        <v>0.0311</v>
+        <v>0.031</v>
       </c>
       <c r="D200">
-        <v>0.3357</v>
+        <v>0.3341</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3938,13 +3938,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.3676</v>
+        <v>0.366</v>
       </c>
       <c r="C201">
         <v>0.0312</v>
       </c>
       <c r="D201">
-        <v>0.3364</v>
+        <v>0.3348</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3952,13 +3952,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3698</v>
+        <v>0.3681</v>
       </c>
       <c r="C202">
         <v>0.0318</v>
       </c>
       <c r="D202">
-        <v>0.338</v>
+        <v>0.3364</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3966,13 +3966,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.3707</v>
+        <v>0.3691</v>
       </c>
       <c r="C203">
         <v>0.0314</v>
       </c>
       <c r="D203">
-        <v>0.3393</v>
+        <v>0.3377</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3980,13 +3980,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.3722</v>
+        <v>0.3705</v>
       </c>
       <c r="C204">
         <v>0.0313</v>
       </c>
       <c r="D204">
-        <v>0.3409</v>
+        <v>0.3392</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3994,13 +3994,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3739</v>
+        <v>0.3722</v>
       </c>
       <c r="C205">
         <v>0.0314</v>
       </c>
       <c r="D205">
-        <v>0.3425</v>
+        <v>0.3409</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4008,13 +4008,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.376</v>
+        <v>0.3743</v>
       </c>
       <c r="C206">
         <v>0.0318</v>
       </c>
       <c r="D206">
-        <v>0.3442</v>
+        <v>0.3426</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4022,13 +4022,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.3769</v>
+        <v>0.3752</v>
       </c>
       <c r="C207">
         <v>0.031</v>
       </c>
       <c r="D207">
-        <v>0.3458</v>
+        <v>0.3442</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.378</v>
+        <v>0.3763</v>
       </c>
       <c r="C208">
         <v>0.0307</v>
       </c>
       <c r="D208">
-        <v>0.3473</v>
+        <v>0.3457</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4050,13 +4050,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.3791</v>
+        <v>0.3774</v>
       </c>
       <c r="C209">
         <v>0.0303</v>
       </c>
       <c r="D209">
-        <v>0.3488</v>
+        <v>0.3471</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4064,13 +4064,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.38</v>
+        <v>0.3783</v>
       </c>
       <c r="C210">
         <v>0.0301</v>
       </c>
       <c r="D210">
-        <v>0.3499</v>
+        <v>0.3482</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4078,13 +4078,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.3811</v>
+        <v>0.3794</v>
       </c>
       <c r="C211">
-        <v>0.0305</v>
+        <v>0.0304</v>
       </c>
       <c r="D211">
-        <v>0.3506</v>
+        <v>0.3489</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4092,13 +4092,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.3812</v>
+        <v>0.3795</v>
       </c>
       <c r="C212">
         <v>0.0302</v>
       </c>
       <c r="D212">
-        <v>0.351</v>
+        <v>0.3493</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4106,13 +4106,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.3807</v>
+        <v>0.3789</v>
       </c>
       <c r="C213">
         <v>0.0297</v>
       </c>
       <c r="D213">
-        <v>0.351</v>
+        <v>0.3493</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4120,13 +4120,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.3805</v>
+        <v>0.3788</v>
       </c>
       <c r="C214">
         <v>0.0293</v>
       </c>
       <c r="D214">
-        <v>0.3512</v>
+        <v>0.3495</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4134,13 +4134,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.3805</v>
+        <v>0.3788</v>
       </c>
       <c r="C215">
         <v>0.0294</v>
       </c>
       <c r="D215">
-        <v>0.3511</v>
+        <v>0.3494</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4148,13 +4148,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.3793</v>
+        <v>0.3776</v>
       </c>
       <c r="C216">
-        <v>0.0287</v>
+        <v>0.0286</v>
       </c>
       <c r="D216">
-        <v>0.3507</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4162,13 +4162,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.3774</v>
+        <v>0.3757</v>
       </c>
       <c r="C217">
         <v>0.0275</v>
       </c>
       <c r="D217">
-        <v>0.3499</v>
+        <v>0.3482</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4176,13 +4176,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.3749</v>
+        <v>0.3732</v>
       </c>
       <c r="C218">
         <v>0.0261</v>
       </c>
       <c r="D218">
-        <v>0.3488</v>
+        <v>0.3471</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4190,13 +4190,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.372</v>
+        <v>0.3702</v>
       </c>
       <c r="C219">
-        <v>0.0247</v>
+        <v>0.0246</v>
       </c>
       <c r="D219">
-        <v>0.3473</v>
+        <v>0.3456</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4204,13 +4204,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3689</v>
+        <v>0.3672</v>
       </c>
       <c r="C220">
         <v>0.0234</v>
       </c>
       <c r="D220">
-        <v>0.3455</v>
+        <v>0.3438</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4218,13 +4218,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.3667</v>
+        <v>0.365</v>
       </c>
       <c r="C221">
         <v>0.0229</v>
       </c>
       <c r="D221">
-        <v>0.3438</v>
+        <v>0.3421</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4232,13 +4232,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.362</v>
+        <v>0.3603</v>
       </c>
       <c r="C222">
         <v>0.0216</v>
       </c>
       <c r="D222">
-        <v>0.3404</v>
+        <v>0.3387</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4246,13 +4246,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3579</v>
+        <v>0.3563</v>
       </c>
       <c r="C223">
         <v>0.0209</v>
       </c>
       <c r="D223">
-        <v>0.3371</v>
+        <v>0.3354</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4260,13 +4260,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3536</v>
+        <v>0.3519</v>
       </c>
       <c r="C224">
         <v>0.0199</v>
       </c>
       <c r="D224">
-        <v>0.3337</v>
+        <v>0.3321</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4274,13 +4274,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3491</v>
+        <v>0.3474</v>
       </c>
       <c r="C225">
         <v>0.0186</v>
       </c>
       <c r="D225">
-        <v>0.3305</v>
+        <v>0.3288</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4288,13 +4288,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3452</v>
+        <v>0.3435</v>
       </c>
       <c r="C226">
         <v>0.0177</v>
       </c>
       <c r="D226">
-        <v>0.3275</v>
+        <v>0.3258</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4302,13 +4302,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.3421</v>
+        <v>0.3404</v>
       </c>
       <c r="C227">
         <v>0.0176</v>
       </c>
       <c r="D227">
-        <v>0.3246</v>
+        <v>0.3229</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4316,13 +4316,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.3393</v>
+        <v>0.3376</v>
       </c>
       <c r="C228">
         <v>0.0177</v>
       </c>
       <c r="D228">
-        <v>0.3216</v>
+        <v>0.3199</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4330,13 +4330,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.3364</v>
+        <v>0.3347</v>
       </c>
       <c r="C229">
         <v>0.0179</v>
       </c>
       <c r="D229">
-        <v>0.3185</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4344,13 +4344,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.3338</v>
+        <v>0.3321</v>
       </c>
       <c r="C230">
         <v>0.0182</v>
       </c>
       <c r="D230">
-        <v>0.3155</v>
+        <v>0.3139</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4358,13 +4358,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.3308</v>
+        <v>0.3291</v>
       </c>
       <c r="C231">
         <v>0.0179</v>
       </c>
       <c r="D231">
-        <v>0.3129</v>
+        <v>0.3112</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4372,13 +4372,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.3285</v>
+        <v>0.3268</v>
       </c>
       <c r="C232">
         <v>0.0181</v>
       </c>
       <c r="D232">
-        <v>0.3104</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4386,13 +4386,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.3266</v>
+        <v>0.3249</v>
       </c>
       <c r="C233">
         <v>0.0187</v>
       </c>
       <c r="D233">
-        <v>0.3079</v>
+        <v>0.3063</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4400,13 +4400,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.3243</v>
+        <v>0.3226</v>
       </c>
       <c r="C234">
-        <v>0.0192</v>
+        <v>0.0191</v>
       </c>
       <c r="D234">
-        <v>0.3051</v>
+        <v>0.3035</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4414,13 +4414,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.3218</v>
+        <v>0.3201</v>
       </c>
       <c r="C235">
-        <v>0.0192</v>
+        <v>0.0191</v>
       </c>
       <c r="D235">
-        <v>0.3026</v>
+        <v>0.3009</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4428,13 +4428,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.3204</v>
+        <v>0.3188</v>
       </c>
       <c r="C236">
         <v>0.0202</v>
       </c>
       <c r="D236">
-        <v>0.3003</v>
+        <v>0.2986</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4442,13 +4442,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.3195</v>
+        <v>0.3178</v>
       </c>
       <c r="C237">
         <v>0.0213</v>
       </c>
       <c r="D237">
-        <v>0.2982</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4456,13 +4456,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.3186</v>
+        <v>0.3169</v>
       </c>
       <c r="C238">
         <v>0.0223</v>
       </c>
       <c r="D238">
-        <v>0.2963</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4470,13 +4470,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3178</v>
+        <v>0.3161</v>
       </c>
       <c r="C239">
         <v>0.0231</v>
       </c>
       <c r="D239">
-        <v>0.2947</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4484,13 +4484,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.3178</v>
+        <v>0.3162</v>
       </c>
       <c r="C240">
         <v>0.0243</v>
       </c>
       <c r="D240">
-        <v>0.2935</v>
+        <v>0.2919</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4498,13 +4498,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3175</v>
+        <v>0.3159</v>
       </c>
       <c r="C241">
         <v>0.0251</v>
       </c>
       <c r="D241">
-        <v>0.2924</v>
+        <v>0.2907</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4512,13 +4512,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3172</v>
+        <v>0.3156</v>
       </c>
       <c r="C242">
         <v>0.0256</v>
       </c>
       <c r="D242">
-        <v>0.2916</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4526,13 +4526,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3166</v>
+        <v>0.3149</v>
       </c>
       <c r="C243">
-        <v>0.0257</v>
+        <v>0.0256</v>
       </c>
       <c r="D243">
-        <v>0.2909</v>
+        <v>0.2893</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4540,13 +4540,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3162</v>
+        <v>0.3146</v>
       </c>
       <c r="C244">
         <v>0.0259</v>
       </c>
       <c r="D244">
-        <v>0.2903</v>
+        <v>0.2887</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4554,13 +4554,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.3157</v>
+        <v>0.3141</v>
       </c>
       <c r="C245">
         <v>0.026</v>
       </c>
       <c r="D245">
-        <v>0.2897</v>
+        <v>0.2881</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4568,13 +4568,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.3146</v>
+        <v>0.313</v>
       </c>
       <c r="C246">
         <v>0.0257</v>
       </c>
       <c r="D246">
-        <v>0.2889</v>
+        <v>0.2873</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4582,13 +4582,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3143</v>
+        <v>0.3127</v>
       </c>
       <c r="C247">
         <v>0.0255</v>
       </c>
       <c r="D247">
-        <v>0.2888</v>
+        <v>0.2872</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4596,13 +4596,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3134</v>
+        <v>0.3118</v>
       </c>
       <c r="C248">
         <v>0.0242</v>
       </c>
       <c r="D248">
-        <v>0.2892</v>
+        <v>0.2876</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4610,13 +4610,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3137</v>
+        <v>0.3121</v>
       </c>
       <c r="C249">
         <v>0.0236</v>
       </c>
       <c r="D249">
-        <v>0.2901</v>
+        <v>0.2885</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2013 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2013 - Diaria.xlsx
@@ -1152,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3882</v>
+        <v>0.3883</v>
       </c>
       <c r="C2">
-        <v>0.1035</v>
+        <v>0.1033</v>
       </c>
       <c r="D2">
-        <v>0.2847</v>
+        <v>0.2851</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3763</v>
+        <v>0.3765</v>
       </c>
       <c r="C3">
-        <v>0.0936</v>
+        <v>0.0934</v>
       </c>
       <c r="D3">
-        <v>0.2828</v>
+        <v>0.2831</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3741</v>
+        <v>0.3742</v>
       </c>
       <c r="C4">
-        <v>0.0925</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="D4">
-        <v>0.2816</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3725</v>
+        <v>0.3727</v>
       </c>
       <c r="C5">
-        <v>0.0919</v>
+        <v>0.0917</v>
       </c>
       <c r="D5">
-        <v>0.2806</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3728</v>
+        <v>0.373</v>
       </c>
       <c r="C6">
-        <v>0.09279999999999999</v>
+        <v>0.0926</v>
       </c>
       <c r="D6">
-        <v>0.28</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3725</v>
+        <v>0.3727</v>
       </c>
       <c r="C7">
-        <v>0.0936</v>
+        <v>0.0934</v>
       </c>
       <c r="D7">
-        <v>0.2789</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3718</v>
+        <v>0.372</v>
       </c>
       <c r="C8">
-        <v>0.09370000000000001</v>
+        <v>0.0935</v>
       </c>
       <c r="D8">
-        <v>0.2781</v>
+        <v>0.2785</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.372</v>
+        <v>0.3723</v>
       </c>
       <c r="C9">
-        <v>0.0944</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D9">
-        <v>0.2776</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3723</v>
+        <v>0.3726</v>
       </c>
       <c r="C10">
-        <v>0.09470000000000001</v>
+        <v>0.0945</v>
       </c>
       <c r="D10">
-        <v>0.2776</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3729</v>
+        <v>0.3732</v>
       </c>
       <c r="C11">
-        <v>0.09470000000000001</v>
+        <v>0.0945</v>
       </c>
       <c r="D11">
-        <v>0.2782</v>
+        <v>0.2787</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3738</v>
+        <v>0.3741</v>
       </c>
       <c r="C12">
-        <v>0.0948</v>
+        <v>0.0946</v>
       </c>
       <c r="D12">
-        <v>0.279</v>
+        <v>0.2795</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3741</v>
+        <v>0.3744</v>
       </c>
       <c r="C13">
-        <v>0.0945</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="D13">
-        <v>0.2796</v>
+        <v>0.2801</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3744</v>
+        <v>0.3747</v>
       </c>
       <c r="C14">
-        <v>0.09429999999999999</v>
+        <v>0.0941</v>
       </c>
       <c r="D14">
-        <v>0.2801</v>
+        <v>0.2806</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3745</v>
+        <v>0.3748</v>
       </c>
       <c r="C15">
-        <v>0.09429999999999999</v>
+        <v>0.0941</v>
       </c>
       <c r="D15">
-        <v>0.2802</v>
+        <v>0.2807</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3745</v>
+        <v>0.3748</v>
       </c>
       <c r="C16">
-        <v>0.0945</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="D16">
-        <v>0.28</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3734</v>
+        <v>0.3738</v>
       </c>
       <c r="C17">
-        <v>0.0941</v>
+        <v>0.0939</v>
       </c>
       <c r="D17">
-        <v>0.2793</v>
+        <v>0.2799</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3715</v>
+        <v>0.3718</v>
       </c>
       <c r="C18">
-        <v>0.09320000000000001</v>
+        <v>0.093</v>
       </c>
       <c r="D18">
-        <v>0.2783</v>
+        <v>0.2788</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3699</v>
+        <v>0.3703</v>
       </c>
       <c r="C19">
-        <v>0.0929</v>
+        <v>0.0927</v>
       </c>
       <c r="D19">
-        <v>0.277</v>
+        <v>0.2775</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3669</v>
+        <v>0.3672</v>
       </c>
       <c r="C20">
-        <v>0.09130000000000001</v>
+        <v>0.0911</v>
       </c>
       <c r="D20">
-        <v>0.2756</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3653</v>
+        <v>0.3656</v>
       </c>
       <c r="C21">
-        <v>0.0911</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="D21">
-        <v>0.2742</v>
+        <v>0.2747</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3628</v>
+        <v>0.3632</v>
       </c>
       <c r="C22">
-        <v>0.0906</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="D22">
-        <v>0.2723</v>
+        <v>0.2728</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3607</v>
+        <v>0.361</v>
       </c>
       <c r="C23">
-        <v>0.09039999999999999</v>
+        <v>0.0902</v>
       </c>
       <c r="D23">
-        <v>0.2703</v>
+        <v>0.2708</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3579</v>
+        <v>0.3582</v>
       </c>
       <c r="C24">
-        <v>0.0901</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="D24">
-        <v>0.2678</v>
+        <v>0.2683</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3554</v>
+        <v>0.3557</v>
       </c>
       <c r="C25">
-        <v>0.0901</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="D25">
-        <v>0.2653</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.352</v>
+        <v>0.3523</v>
       </c>
       <c r="C26">
-        <v>0.08939999999999999</v>
+        <v>0.0892</v>
       </c>
       <c r="D26">
-        <v>0.2627</v>
+        <v>0.2631</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3486</v>
+        <v>0.3489</v>
       </c>
       <c r="C27">
-        <v>0.0888</v>
+        <v>0.0886</v>
       </c>
       <c r="D27">
-        <v>0.2599</v>
+        <v>0.2603</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3449</v>
+        <v>0.3452</v>
       </c>
       <c r="C28">
-        <v>0.08799999999999999</v>
+        <v>0.0878</v>
       </c>
       <c r="D28">
-        <v>0.257</v>
+        <v>0.2574</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3401</v>
+        <v>0.3404</v>
       </c>
       <c r="C29">
-        <v>0.0866</v>
+        <v>0.0864</v>
       </c>
       <c r="D29">
-        <v>0.2536</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3354</v>
+        <v>0.3357</v>
       </c>
       <c r="C30">
-        <v>0.0857</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="D30">
-        <v>0.2497</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3306</v>
+        <v>0.3308</v>
       </c>
       <c r="C31">
-        <v>0.0852</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D31">
-        <v>0.2453</v>
+        <v>0.2458</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3252</v>
+        <v>0.3254</v>
       </c>
       <c r="C32">
-        <v>0.08450000000000001</v>
+        <v>0.0843</v>
       </c>
       <c r="D32">
-        <v>0.2407</v>
+        <v>0.2411</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3201</v>
+        <v>0.3203</v>
       </c>
       <c r="C33">
-        <v>0.08400000000000001</v>
+        <v>0.0838</v>
       </c>
       <c r="D33">
-        <v>0.2361</v>
+        <v>0.2365</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3144</v>
+        <v>0.3146</v>
       </c>
       <c r="C34">
-        <v>0.083</v>
+        <v>0.0828</v>
       </c>
       <c r="D34">
-        <v>0.2314</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3091</v>
+        <v>0.3094</v>
       </c>
       <c r="C35">
-        <v>0.0823</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="D35">
-        <v>0.2268</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3033</v>
+        <v>0.3035</v>
       </c>
       <c r="C36">
-        <v>0.0809</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="D36">
-        <v>0.2224</v>
+        <v>0.2228</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2971</v>
+        <v>0.2973</v>
       </c>
       <c r="C37">
-        <v>0.0794</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="D37">
-        <v>0.2177</v>
+        <v>0.2181</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.2921</v>
+        <v>0.2923</v>
       </c>
       <c r="C38">
-        <v>0.079</v>
+        <v>0.0788</v>
       </c>
       <c r="D38">
-        <v>0.2131</v>
+        <v>0.2135</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2863</v>
+        <v>0.2865</v>
       </c>
       <c r="C39">
-        <v>0.0779</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="D39">
-        <v>0.2084</v>
+        <v>0.2088</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2809</v>
+        <v>0.2811</v>
       </c>
       <c r="C40">
-        <v>0.07679999999999999</v>
+        <v>0.0766</v>
       </c>
       <c r="D40">
-        <v>0.2041</v>
+        <v>0.2045</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.276</v>
+        <v>0.2762</v>
       </c>
       <c r="C41">
-        <v>0.0757</v>
+        <v>0.0755</v>
       </c>
       <c r="D41">
-        <v>0.2003</v>
+        <v>0.2007</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2718</v>
+        <v>0.272</v>
       </c>
       <c r="C42">
-        <v>0.0747</v>
+        <v>0.0746</v>
       </c>
       <c r="D42">
-        <v>0.197</v>
+        <v>0.1974</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2679</v>
+        <v>0.2681</v>
       </c>
       <c r="C43">
-        <v>0.0743</v>
+        <v>0.0741</v>
       </c>
       <c r="D43">
-        <v>0.1936</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2635</v>
+        <v>0.2637</v>
       </c>
       <c r="C44">
-        <v>0.0731</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="D44">
-        <v>0.1904</v>
+        <v>0.1908</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2591</v>
+        <v>0.2593</v>
       </c>
       <c r="C45">
-        <v>0.0717</v>
+        <v>0.0716</v>
       </c>
       <c r="D45">
-        <v>0.1873</v>
+        <v>0.1877</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2532</v>
+        <v>0.2534</v>
       </c>
       <c r="C46">
-        <v>0.0692</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D46">
-        <v>0.1841</v>
+        <v>0.1844</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2481</v>
+        <v>0.2483</v>
       </c>
       <c r="C47">
-        <v>0.0672</v>
+        <v>0.067</v>
       </c>
       <c r="D47">
-        <v>0.1809</v>
+        <v>0.1813</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2427</v>
+        <v>0.2429</v>
       </c>
       <c r="C48">
-        <v>0.06519999999999999</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="D48">
-        <v>0.1774</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.238</v>
+        <v>0.2382</v>
       </c>
       <c r="C49">
-        <v>0.06370000000000001</v>
+        <v>0.0635</v>
       </c>
       <c r="D49">
-        <v>0.1743</v>
+        <v>0.1747</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2339</v>
+        <v>0.2342</v>
       </c>
       <c r="C50">
-        <v>0.0623</v>
+        <v>0.0621</v>
       </c>
       <c r="D50">
-        <v>0.1716</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.2297</v>
+        <v>0.23</v>
       </c>
       <c r="C51">
-        <v>0.0607</v>
+        <v>0.0605</v>
       </c>
       <c r="D51">
-        <v>0.1691</v>
+        <v>0.1695</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.2268</v>
+        <v>0.227</v>
       </c>
       <c r="C52">
-        <v>0.0599</v>
+        <v>0.0597</v>
       </c>
       <c r="D52">
-        <v>0.1669</v>
+        <v>0.1673</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2243</v>
+        <v>0.2246</v>
       </c>
       <c r="C53">
-        <v>0.0591</v>
+        <v>0.059</v>
       </c>
       <c r="D53">
-        <v>0.1652</v>
+        <v>0.1656</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.2227</v>
+        <v>0.2229</v>
       </c>
       <c r="C54">
-        <v>0.0588</v>
+        <v>0.0586</v>
       </c>
       <c r="D54">
-        <v>0.1639</v>
+        <v>0.1643</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2211</v>
+        <v>0.2214</v>
       </c>
       <c r="C55">
-        <v>0.0581</v>
+        <v>0.0579</v>
       </c>
       <c r="D55">
-        <v>0.163</v>
+        <v>0.1634</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.2203</v>
+        <v>0.2206</v>
       </c>
       <c r="C56">
-        <v>0.0577</v>
+        <v>0.0575</v>
       </c>
       <c r="D56">
-        <v>0.1627</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.2197</v>
+        <v>0.22</v>
       </c>
       <c r="C57">
-        <v>0.0569</v>
+        <v>0.0568</v>
       </c>
       <c r="D57">
-        <v>0.1627</v>
+        <v>0.1632</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2188</v>
+        <v>0.2191</v>
       </c>
       <c r="C58">
-        <v>0.0558</v>
+        <v>0.0556</v>
       </c>
       <c r="D58">
-        <v>0.163</v>
+        <v>0.1635</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2183</v>
+        <v>0.2186</v>
       </c>
       <c r="C59">
-        <v>0.0549</v>
+        <v>0.0547</v>
       </c>
       <c r="D59">
-        <v>0.1634</v>
+        <v>0.1639</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.2175</v>
+        <v>0.2178</v>
       </c>
       <c r="C60">
-        <v>0.054</v>
+        <v>0.0538</v>
       </c>
       <c r="D60">
-        <v>0.1635</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.2161</v>
+        <v>0.2164</v>
       </c>
       <c r="C61">
-        <v>0.0529</v>
+        <v>0.0527</v>
       </c>
       <c r="D61">
-        <v>0.1633</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.2154</v>
+        <v>0.2157</v>
       </c>
       <c r="C62">
-        <v>0.0524</v>
+        <v>0.0522</v>
       </c>
       <c r="D62">
-        <v>0.163</v>
+        <v>0.1635</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.2144</v>
+        <v>0.2147</v>
       </c>
       <c r="C63">
-        <v>0.0513</v>
+        <v>0.0511</v>
       </c>
       <c r="D63">
-        <v>0.1631</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.2143</v>
+        <v>0.2146</v>
       </c>
       <c r="C64">
-        <v>0.0508</v>
+        <v>0.0506</v>
       </c>
       <c r="D64">
-        <v>0.1635</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.2142</v>
+        <v>0.2145</v>
       </c>
       <c r="C65">
-        <v>0.0501</v>
+        <v>0.0499</v>
       </c>
       <c r="D65">
-        <v>0.1641</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.2148</v>
+        <v>0.2151</v>
       </c>
       <c r="C66">
-        <v>0.0498</v>
+        <v>0.0497</v>
       </c>
       <c r="D66">
-        <v>0.165</v>
+        <v>0.1655</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.2146</v>
+        <v>0.2149</v>
       </c>
       <c r="C67">
-        <v>0.0489</v>
+        <v>0.0487</v>
       </c>
       <c r="D67">
-        <v>0.1657</v>
+        <v>0.1662</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.2161</v>
+        <v>0.2164</v>
       </c>
       <c r="C68">
-        <v>0.0491</v>
+        <v>0.0489</v>
       </c>
       <c r="D68">
-        <v>0.167</v>
+        <v>0.1675</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.2179</v>
+        <v>0.2182</v>
       </c>
       <c r="C69">
-        <v>0.049</v>
+        <v>0.0488</v>
       </c>
       <c r="D69">
-        <v>0.1689</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.2208</v>
+        <v>0.221</v>
       </c>
       <c r="C70">
-        <v>0.0494</v>
+        <v>0.0492</v>
       </c>
       <c r="D70">
-        <v>0.1714</v>
+        <v>0.1718</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.2238</v>
+        <v>0.224</v>
       </c>
       <c r="C71">
-        <v>0.0502</v>
+        <v>0.05</v>
       </c>
       <c r="D71">
-        <v>0.1736</v>
+        <v>0.1741</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.2263</v>
+        <v>0.2265</v>
       </c>
       <c r="C72">
-        <v>0.0506</v>
+        <v>0.0504</v>
       </c>
       <c r="D72">
-        <v>0.1757</v>
+        <v>0.1761</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2281</v>
+        <v>0.2284</v>
       </c>
       <c r="C73">
-        <v>0.0506</v>
+        <v>0.0504</v>
       </c>
       <c r="D73">
-        <v>0.1775</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.2308</v>
+        <v>0.2311</v>
       </c>
       <c r="C74">
-        <v>0.0506</v>
+        <v>0.0504</v>
       </c>
       <c r="D74">
-        <v>0.1803</v>
+        <v>0.1807</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.2328</v>
+        <v>0.233</v>
       </c>
       <c r="C75">
-        <v>0.0499</v>
+        <v>0.0498</v>
       </c>
       <c r="D75">
-        <v>0.1828</v>
+        <v>0.1832</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2342</v>
+        <v>0.2344</v>
       </c>
       <c r="C76">
-        <v>0.0491</v>
+        <v>0.049</v>
       </c>
       <c r="D76">
-        <v>0.1851</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2345</v>
+        <v>0.2347</v>
       </c>
       <c r="C77">
-        <v>0.0477</v>
+        <v>0.0475</v>
       </c>
       <c r="D77">
-        <v>0.1868</v>
+        <v>0.1872</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.2344</v>
+        <v>0.2346</v>
       </c>
       <c r="C78">
-        <v>0.0463</v>
+        <v>0.0461</v>
       </c>
       <c r="D78">
-        <v>0.1881</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2344</v>
+        <v>0.2346</v>
       </c>
       <c r="C79">
-        <v>0.0451</v>
+        <v>0.0449</v>
       </c>
       <c r="D79">
-        <v>0.1893</v>
+        <v>0.1896</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2337</v>
+        <v>0.2339</v>
       </c>
       <c r="C80">
-        <v>0.0435</v>
+        <v>0.0433</v>
       </c>
       <c r="D80">
-        <v>0.1902</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2332</v>
+        <v>0.2333</v>
       </c>
       <c r="C81">
-        <v>0.0422</v>
+        <v>0.042</v>
       </c>
       <c r="D81">
-        <v>0.191</v>
+        <v>0.1913</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.2319</v>
+        <v>0.232</v>
       </c>
       <c r="C82">
-        <v>0.0403</v>
+        <v>0.0401</v>
       </c>
       <c r="D82">
-        <v>0.1916</v>
+        <v>0.1919</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2299</v>
+        <v>0.2301</v>
       </c>
       <c r="C83">
-        <v>0.0382</v>
+        <v>0.038</v>
       </c>
       <c r="D83">
-        <v>0.1918</v>
+        <v>0.1921</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.2279</v>
+        <v>0.228</v>
       </c>
       <c r="C84">
-        <v>0.0363</v>
+        <v>0.0361</v>
       </c>
       <c r="D84">
-        <v>0.1916</v>
+        <v>0.1919</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2257</v>
+        <v>0.2258</v>
       </c>
       <c r="C85">
-        <v>0.0346</v>
+        <v>0.0344</v>
       </c>
       <c r="D85">
-        <v>0.1911</v>
+        <v>0.1914</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2235</v>
+        <v>0.2236</v>
       </c>
       <c r="C86">
-        <v>0.0331</v>
+        <v>0.0329</v>
       </c>
       <c r="D86">
-        <v>0.1905</v>
+        <v>0.1908</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.221</v>
+        <v>0.2211</v>
       </c>
       <c r="C87">
-        <v>0.0314</v>
+        <v>0.0312</v>
       </c>
       <c r="D87">
-        <v>0.1896</v>
+        <v>0.1899</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2183</v>
+        <v>0.2184</v>
       </c>
       <c r="C88">
-        <v>0.0299</v>
+        <v>0.0297</v>
       </c>
       <c r="D88">
-        <v>0.1884</v>
+        <v>0.1887</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2153</v>
+        <v>0.2154</v>
       </c>
       <c r="C89">
-        <v>0.0288</v>
+        <v>0.0286</v>
       </c>
       <c r="D89">
-        <v>0.1865</v>
+        <v>0.1868</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2387,10 +2387,10 @@
         <v>0.2105</v>
       </c>
       <c r="C90">
-        <v>0.0266</v>
+        <v>0.0264</v>
       </c>
       <c r="D90">
-        <v>0.1838</v>
+        <v>0.1841</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2067</v>
+        <v>0.2068</v>
       </c>
       <c r="C91">
-        <v>0.0243</v>
+        <v>0.0241</v>
       </c>
       <c r="D91">
-        <v>0.1824</v>
+        <v>0.1826</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2021</v>
+        <v>0.2022</v>
       </c>
       <c r="C92">
-        <v>0.0215</v>
+        <v>0.0213</v>
       </c>
       <c r="D92">
-        <v>0.1806</v>
+        <v>0.1809</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.198</v>
+        <v>0.1981</v>
       </c>
       <c r="C93">
-        <v>0.0189</v>
+        <v>0.0187</v>
       </c>
       <c r="D93">
-        <v>0.1791</v>
+        <v>0.1793</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.1929</v>
+        <v>0.193</v>
       </c>
       <c r="C94">
-        <v>0.0163</v>
+        <v>0.0161</v>
       </c>
       <c r="D94">
-        <v>0.1766</v>
+        <v>0.1769</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.188</v>
+        <v>0.1881</v>
       </c>
       <c r="C95">
-        <v>0.0143</v>
+        <v>0.0141</v>
       </c>
       <c r="D95">
-        <v>0.1737</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.183</v>
+        <v>0.1831</v>
       </c>
       <c r="C96">
-        <v>0.0123</v>
+        <v>0.0122</v>
       </c>
       <c r="D96">
-        <v>0.1707</v>
+        <v>0.1709</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.1793</v>
+        <v>0.1794</v>
       </c>
       <c r="C97">
-        <v>0.0114</v>
+        <v>0.0112</v>
       </c>
       <c r="D97">
-        <v>0.168</v>
+        <v>0.1682</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.1756</v>
+        <v>0.1758</v>
       </c>
       <c r="C98">
-        <v>0.0103</v>
+        <v>0.0101</v>
       </c>
       <c r="D98">
-        <v>0.1654</v>
+        <v>0.1656</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.1723</v>
+        <v>0.1724</v>
       </c>
       <c r="C99">
-        <v>0.0095</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="D99">
-        <v>0.1628</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.1698</v>
+        <v>0.1699</v>
       </c>
       <c r="C100">
-        <v>0.0092</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D100">
-        <v>0.1606</v>
+        <v>0.1609</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.1681</v>
+        <v>0.1682</v>
       </c>
       <c r="C101">
-        <v>0.0091</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D101">
-        <v>0.1589</v>
+        <v>0.1592</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.1673</v>
+        <v>0.1674</v>
       </c>
       <c r="C102">
-        <v>0.009900000000000001</v>
+        <v>0.0098</v>
       </c>
       <c r="D102">
-        <v>0.1574</v>
+        <v>0.1576</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.1666</v>
+        <v>0.1668</v>
       </c>
       <c r="C103">
-        <v>0.0109</v>
+        <v>0.0108</v>
       </c>
       <c r="D103">
-        <v>0.1557</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.166</v>
+        <v>0.1662</v>
       </c>
       <c r="C104">
         <v>0.0117</v>
       </c>
       <c r="D104">
-        <v>0.1543</v>
+        <v>0.1546</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.1653</v>
+        <v>0.1655</v>
       </c>
       <c r="C105">
-        <v>0.0125</v>
+        <v>0.0124</v>
       </c>
       <c r="D105">
-        <v>0.1528</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.1645</v>
+        <v>0.1648</v>
       </c>
       <c r="C106">
-        <v>0.0133</v>
+        <v>0.0132</v>
       </c>
       <c r="D106">
-        <v>0.1513</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.1663</v>
+        <v>0.1665</v>
       </c>
       <c r="C107">
-        <v>0.0158</v>
+        <v>0.0157</v>
       </c>
       <c r="D107">
-        <v>0.1505</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.1684</v>
+        <v>0.1686</v>
       </c>
       <c r="C108">
         <v>0.0179</v>
       </c>
       <c r="D108">
-        <v>0.1505</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.1697</v>
+        <v>0.1699</v>
       </c>
       <c r="C109">
         <v>0.0193</v>
       </c>
       <c r="D109">
-        <v>0.1504</v>
+        <v>0.1507</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1712</v>
+        <v>0.1715</v>
       </c>
       <c r="C110">
         <v>0.021</v>
       </c>
       <c r="D110">
-        <v>0.1502</v>
+        <v>0.1506</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.1715</v>
+        <v>0.1718</v>
       </c>
       <c r="C111">
         <v>0.0226</v>
       </c>
       <c r="D111">
-        <v>0.1489</v>
+        <v>0.1492</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.1719</v>
+        <v>0.1722</v>
       </c>
       <c r="C112">
         <v>0.0243</v>
       </c>
       <c r="D112">
-        <v>0.1476</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.1726</v>
+        <v>0.173</v>
       </c>
       <c r="C113">
-        <v>0.0262</v>
+        <v>0.0263</v>
       </c>
       <c r="D113">
-        <v>0.1464</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.1732</v>
+        <v>0.1735</v>
       </c>
       <c r="C114">
         <v>0.028</v>
       </c>
       <c r="D114">
-        <v>0.1452</v>
+        <v>0.1455</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.1775</v>
+        <v>0.1779</v>
       </c>
       <c r="C115">
-        <v>0.0327</v>
+        <v>0.0328</v>
       </c>
       <c r="D115">
-        <v>0.1448</v>
+        <v>0.1451</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1787</v>
+        <v>0.1791</v>
       </c>
       <c r="C116">
         <v>0.0348</v>
       </c>
       <c r="D116">
-        <v>0.144</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1796</v>
+        <v>0.1799</v>
       </c>
       <c r="C117">
         <v>0.0366</v>
       </c>
       <c r="D117">
-        <v>0.143</v>
+        <v>0.1433</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1807</v>
+        <v>0.1811</v>
       </c>
       <c r="C118">
         <v>0.0387</v>
       </c>
       <c r="D118">
-        <v>0.142</v>
+        <v>0.1424</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1822</v>
+        <v>0.1826</v>
       </c>
       <c r="C119">
-        <v>0.0409</v>
+        <v>0.041</v>
       </c>
       <c r="D119">
-        <v>0.1413</v>
+        <v>0.1416</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1834</v>
+        <v>0.1838</v>
       </c>
       <c r="C120">
         <v>0.0432</v>
       </c>
       <c r="D120">
-        <v>0.1402</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1871</v>
+        <v>0.1875</v>
       </c>
       <c r="C121">
-        <v>0.0474</v>
+        <v>0.0475</v>
       </c>
       <c r="D121">
-        <v>0.1397</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1907</v>
+        <v>0.1911</v>
       </c>
       <c r="C122">
-        <v>0.0516</v>
+        <v>0.0517</v>
       </c>
       <c r="D122">
-        <v>0.1391</v>
+        <v>0.1394</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1941</v>
+        <v>0.1944</v>
       </c>
       <c r="C123">
         <v>0.0554</v>
       </c>
       <c r="D123">
-        <v>0.1387</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.1976</v>
+        <v>0.1979</v>
       </c>
       <c r="C124">
         <v>0.0594</v>
       </c>
       <c r="D124">
-        <v>0.1382</v>
+        <v>0.1385</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2003</v>
+        <v>0.2006</v>
       </c>
       <c r="C125">
         <v>0.06270000000000001</v>
       </c>
       <c r="D125">
-        <v>0.1376</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2018</v>
+        <v>0.2021</v>
       </c>
       <c r="C126">
         <v>0.0653</v>
       </c>
       <c r="D126">
-        <v>0.1365</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.201</v>
+        <v>0.2014</v>
       </c>
       <c r="C127">
-        <v>0.0663</v>
+        <v>0.0664</v>
       </c>
       <c r="D127">
-        <v>0.1347</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.1986</v>
+        <v>0.199</v>
       </c>
       <c r="C128">
-        <v>0.0667</v>
+        <v>0.0668</v>
       </c>
       <c r="D128">
-        <v>0.1319</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1961</v>
+        <v>0.1965</v>
       </c>
       <c r="C129">
-        <v>0.067</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="D129">
-        <v>0.129</v>
+        <v>0.1294</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.1937</v>
+        <v>0.1941</v>
       </c>
       <c r="C130">
-        <v>0.0675</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="D130">
-        <v>0.1262</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1904</v>
+        <v>0.1908</v>
       </c>
       <c r="C131">
-        <v>0.0672</v>
+        <v>0.0673</v>
       </c>
       <c r="D131">
-        <v>0.1233</v>
+        <v>0.1236</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.1878</v>
+        <v>0.1882</v>
       </c>
       <c r="C132">
-        <v>0.0672</v>
+        <v>0.0673</v>
       </c>
       <c r="D132">
-        <v>0.1206</v>
+        <v>0.1209</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.185</v>
+        <v>0.1854</v>
       </c>
       <c r="C133">
-        <v>0.0673</v>
+        <v>0.0674</v>
       </c>
       <c r="D133">
-        <v>0.1177</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.1817</v>
+        <v>0.1821</v>
       </c>
       <c r="C134">
-        <v>0.0668</v>
+        <v>0.0669</v>
       </c>
       <c r="D134">
-        <v>0.1149</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1751</v>
+        <v>0.1755</v>
       </c>
       <c r="C135">
-        <v>0.0633</v>
+        <v>0.0634</v>
       </c>
       <c r="D135">
-        <v>0.1118</v>
+        <v>0.1121</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.1717</v>
+        <v>0.1721</v>
       </c>
       <c r="C136">
-        <v>0.0624</v>
+        <v>0.0625</v>
       </c>
       <c r="D136">
-        <v>0.1093</v>
+        <v>0.1096</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.1686</v>
+        <v>0.169</v>
       </c>
       <c r="C137">
-        <v>0.0615</v>
+        <v>0.0616</v>
       </c>
       <c r="D137">
-        <v>0.1071</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1659</v>
+        <v>0.1664</v>
       </c>
       <c r="C138">
-        <v>0.0607</v>
+        <v>0.0608</v>
       </c>
       <c r="D138">
-        <v>0.1052</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1629</v>
+        <v>0.1634</v>
       </c>
       <c r="C139">
-        <v>0.0595</v>
+        <v>0.0596</v>
       </c>
       <c r="D139">
-        <v>0.1034</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.161</v>
+        <v>0.1615</v>
       </c>
       <c r="C140">
-        <v>0.058</v>
+        <v>0.0581</v>
       </c>
       <c r="D140">
-        <v>0.1031</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.1555</v>
+        <v>0.156</v>
       </c>
       <c r="C141">
-        <v>0.0537</v>
+        <v>0.0539</v>
       </c>
       <c r="D141">
-        <v>0.1018</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1497</v>
+        <v>0.1502</v>
       </c>
       <c r="C142">
-        <v>0.049</v>
+        <v>0.0491</v>
       </c>
       <c r="D142">
-        <v>0.1007</v>
+        <v>0.1011</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1449</v>
+        <v>0.1454</v>
       </c>
       <c r="C143">
-        <v>0.0449</v>
+        <v>0.0451</v>
       </c>
       <c r="D143">
-        <v>0.0999</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.1397</v>
+        <v>0.1403</v>
       </c>
       <c r="C144">
-        <v>0.0407</v>
+        <v>0.0409</v>
       </c>
       <c r="D144">
-        <v>0.099</v>
+        <v>0.0994</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1363</v>
+        <v>0.1369</v>
       </c>
       <c r="C145">
-        <v>0.0371</v>
+        <v>0.0373</v>
       </c>
       <c r="D145">
-        <v>0.0992</v>
+        <v>0.09959999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.1338</v>
+        <v>0.1343</v>
       </c>
       <c r="C146">
-        <v>0.034</v>
+        <v>0.0342</v>
       </c>
       <c r="D146">
-        <v>0.0998</v>
+        <v>0.1002</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1317</v>
+        <v>0.1323</v>
       </c>
       <c r="C147">
-        <v>0.0308</v>
+        <v>0.031</v>
       </c>
       <c r="D147">
-        <v>0.1009</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.132</v>
+        <v>0.1326</v>
       </c>
       <c r="C148">
-        <v>0.0291</v>
+        <v>0.0293</v>
       </c>
       <c r="D148">
-        <v>0.1029</v>
+        <v>0.1033</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1331</v>
+        <v>0.1337</v>
       </c>
       <c r="C149">
-        <v>0.0276</v>
+        <v>0.0278</v>
       </c>
       <c r="D149">
-        <v>0.1055</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3224,13 +3224,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.1344</v>
+        <v>0.135</v>
       </c>
       <c r="C150">
-        <v>0.0259</v>
+        <v>0.026</v>
       </c>
       <c r="D150">
-        <v>0.1085</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3238,13 +3238,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1373</v>
+        <v>0.1379</v>
       </c>
       <c r="C151">
-        <v>0.025</v>
+        <v>0.0252</v>
       </c>
       <c r="D151">
-        <v>0.1123</v>
+        <v>0.1127</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1401</v>
+        <v>0.1407</v>
       </c>
       <c r="C152">
-        <v>0.0237</v>
+        <v>0.0239</v>
       </c>
       <c r="D152">
-        <v>0.1164</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1438</v>
+        <v>0.1444</v>
       </c>
       <c r="C153">
-        <v>0.023</v>
+        <v>0.0232</v>
       </c>
       <c r="D153">
-        <v>0.1209</v>
+        <v>0.1213</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3280,13 +3280,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.1483</v>
+        <v>0.1489</v>
       </c>
       <c r="C154">
-        <v>0.0226</v>
+        <v>0.0228</v>
       </c>
       <c r="D154">
-        <v>0.1257</v>
+        <v>0.1261</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3294,13 +3294,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1536</v>
+        <v>0.1541</v>
       </c>
       <c r="C155">
-        <v>0.023</v>
+        <v>0.0232</v>
       </c>
       <c r="D155">
-        <v>0.1306</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3308,13 +3308,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1591</v>
+        <v>0.1596</v>
       </c>
       <c r="C156">
-        <v>0.0234</v>
+        <v>0.0236</v>
       </c>
       <c r="D156">
-        <v>0.1357</v>
+        <v>0.1361</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3322,13 +3322,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1648</v>
+        <v>0.1654</v>
       </c>
       <c r="C157">
-        <v>0.024</v>
+        <v>0.0242</v>
       </c>
       <c r="D157">
-        <v>0.1408</v>
+        <v>0.1412</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3336,13 +3336,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1707</v>
+        <v>0.1712</v>
       </c>
       <c r="C158">
-        <v>0.0245</v>
+        <v>0.0247</v>
       </c>
       <c r="D158">
-        <v>0.1461</v>
+        <v>0.1465</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3350,13 +3350,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1768</v>
+        <v>0.1774</v>
       </c>
       <c r="C159">
-        <v>0.0252</v>
+        <v>0.0253</v>
       </c>
       <c r="D159">
-        <v>0.1517</v>
+        <v>0.1521</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3364,13 +3364,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1825</v>
+        <v>0.183</v>
       </c>
       <c r="C160">
-        <v>0.0261</v>
+        <v>0.0262</v>
       </c>
       <c r="D160">
-        <v>0.1564</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3378,13 +3378,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1893</v>
+        <v>0.1898</v>
       </c>
       <c r="C161">
-        <v>0.0276</v>
+        <v>0.0278</v>
       </c>
       <c r="D161">
-        <v>0.1617</v>
+        <v>0.1621</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3392,13 +3392,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.1973</v>
+        <v>0.1978</v>
       </c>
       <c r="C162">
-        <v>0.0298</v>
+        <v>0.03</v>
       </c>
       <c r="D162">
-        <v>0.1674</v>
+        <v>0.1678</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3406,13 +3406,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2054</v>
+        <v>0.2059</v>
       </c>
       <c r="C163">
-        <v>0.032</v>
+        <v>0.0322</v>
       </c>
       <c r="D163">
-        <v>0.1734</v>
+        <v>0.1737</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3420,13 +3420,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2137</v>
+        <v>0.2142</v>
       </c>
       <c r="C164">
-        <v>0.034</v>
+        <v>0.0341</v>
       </c>
       <c r="D164">
-        <v>0.1797</v>
+        <v>0.1801</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2219</v>
+        <v>0.2224</v>
       </c>
       <c r="C165">
-        <v>0.0362</v>
+        <v>0.0363</v>
       </c>
       <c r="D165">
-        <v>0.1857</v>
+        <v>0.1861</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3448,13 +3448,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2302</v>
+        <v>0.2307</v>
       </c>
       <c r="C166">
-        <v>0.0383</v>
+        <v>0.0384</v>
       </c>
       <c r="D166">
-        <v>0.1919</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3462,13 +3462,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2382</v>
+        <v>0.2386</v>
       </c>
       <c r="C167">
-        <v>0.0401</v>
+        <v>0.0402</v>
       </c>
       <c r="D167">
-        <v>0.198</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3476,13 +3476,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2447</v>
+        <v>0.2451</v>
       </c>
       <c r="C168">
-        <v>0.0408</v>
+        <v>0.0409</v>
       </c>
       <c r="D168">
-        <v>0.2039</v>
+        <v>0.2042</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3490,13 +3490,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2512</v>
+        <v>0.2517</v>
       </c>
       <c r="C169">
-        <v>0.0413</v>
+        <v>0.0414</v>
       </c>
       <c r="D169">
-        <v>0.2099</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3504,13 +3504,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2579</v>
+        <v>0.2584</v>
       </c>
       <c r="C170">
-        <v>0.042</v>
+        <v>0.0421</v>
       </c>
       <c r="D170">
-        <v>0.2159</v>
+        <v>0.2162</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3518,13 +3518,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.264</v>
+        <v>0.2644</v>
       </c>
       <c r="C171">
-        <v>0.0424</v>
+        <v>0.0425</v>
       </c>
       <c r="D171">
-        <v>0.2216</v>
+        <v>0.2219</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3532,13 +3532,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2698</v>
+        <v>0.2703</v>
       </c>
       <c r="C172">
-        <v>0.0427</v>
+        <v>0.0428</v>
       </c>
       <c r="D172">
-        <v>0.2271</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3546,13 +3546,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2746</v>
+        <v>0.275</v>
       </c>
       <c r="C173">
-        <v>0.0421</v>
+        <v>0.0423</v>
       </c>
       <c r="D173">
-        <v>0.2324</v>
+        <v>0.2328</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3560,13 +3560,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2794</v>
+        <v>0.2799</v>
       </c>
       <c r="C174">
-        <v>0.0417</v>
+        <v>0.0418</v>
       </c>
       <c r="D174">
-        <v>0.2377</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3574,13 +3574,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2843</v>
+        <v>0.2848</v>
       </c>
       <c r="C175">
-        <v>0.0411</v>
+        <v>0.0412</v>
       </c>
       <c r="D175">
-        <v>0.2432</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3588,13 +3588,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2895</v>
+        <v>0.29</v>
       </c>
       <c r="C176">
-        <v>0.0405</v>
+        <v>0.0406</v>
       </c>
       <c r="D176">
-        <v>0.249</v>
+        <v>0.2494</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3602,13 +3602,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2941</v>
+        <v>0.2946</v>
       </c>
       <c r="C177">
-        <v>0.0395</v>
+        <v>0.0396</v>
       </c>
       <c r="D177">
-        <v>0.2546</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3616,13 +3616,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2985</v>
+        <v>0.299</v>
       </c>
       <c r="C178">
-        <v>0.0385</v>
+        <v>0.0386</v>
       </c>
       <c r="D178">
-        <v>0.26</v>
+        <v>0.2604</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3630,13 +3630,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3021</v>
+        <v>0.3026</v>
       </c>
       <c r="C179">
-        <v>0.037</v>
+        <v>0.0371</v>
       </c>
       <c r="D179">
-        <v>0.2652</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3644,13 +3644,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.306</v>
+        <v>0.3065</v>
       </c>
       <c r="C180">
-        <v>0.0354</v>
+        <v>0.0356</v>
       </c>
       <c r="D180">
-        <v>0.2706</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3658,13 +3658,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3091</v>
+        <v>0.3096</v>
       </c>
       <c r="C181">
-        <v>0.0333</v>
+        <v>0.0335</v>
       </c>
       <c r="D181">
-        <v>0.2758</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3672,13 +3672,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3119</v>
+        <v>0.3124</v>
       </c>
       <c r="C182">
-        <v>0.0309</v>
+        <v>0.031</v>
       </c>
       <c r="D182">
-        <v>0.281</v>
+        <v>0.2814</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3686,13 +3686,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3153</v>
+        <v>0.3159</v>
       </c>
       <c r="C183">
-        <v>0.0293</v>
+        <v>0.0294</v>
       </c>
       <c r="D183">
-        <v>0.2861</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3700,13 +3700,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3192</v>
+        <v>0.3198</v>
       </c>
       <c r="C184">
-        <v>0.0285</v>
+        <v>0.0286</v>
       </c>
       <c r="D184">
-        <v>0.2907</v>
+        <v>0.2912</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3714,13 +3714,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3223</v>
+        <v>0.3229</v>
       </c>
       <c r="C185">
-        <v>0.0273</v>
+        <v>0.0275</v>
       </c>
       <c r="D185">
-        <v>0.295</v>
+        <v>0.2954</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3728,13 +3728,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3248</v>
+        <v>0.3254</v>
       </c>
       <c r="C186">
-        <v>0.026</v>
+        <v>0.0262</v>
       </c>
       <c r="D186">
-        <v>0.2988</v>
+        <v>0.2992</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3742,13 +3742,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3273</v>
+        <v>0.3279</v>
       </c>
       <c r="C187">
-        <v>0.025</v>
+        <v>0.0251</v>
       </c>
       <c r="D187">
-        <v>0.3023</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3756,13 +3756,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.331</v>
+        <v>0.3315</v>
       </c>
       <c r="C188">
-        <v>0.0252</v>
+        <v>0.0253</v>
       </c>
       <c r="D188">
-        <v>0.3058</v>
+        <v>0.3063</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3770,13 +3770,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3345</v>
+        <v>0.335</v>
       </c>
       <c r="C189">
-        <v>0.0255</v>
+        <v>0.0256</v>
       </c>
       <c r="D189">
-        <v>0.3089</v>
+        <v>0.3094</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3784,13 +3784,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3378</v>
+        <v>0.3383</v>
       </c>
       <c r="C190">
-        <v>0.0258</v>
+        <v>0.0259</v>
       </c>
       <c r="D190">
-        <v>0.3119</v>
+        <v>0.3124</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3798,13 +3798,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3412</v>
+        <v>0.3417</v>
       </c>
       <c r="C191">
-        <v>0.0262</v>
+        <v>0.0263</v>
       </c>
       <c r="D191">
-        <v>0.315</v>
+        <v>0.3154</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3812,13 +3812,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3448</v>
+        <v>0.3454</v>
       </c>
       <c r="C192">
-        <v>0.027</v>
+        <v>0.0271</v>
       </c>
       <c r="D192">
-        <v>0.3178</v>
+        <v>0.3183</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3826,13 +3826,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.348</v>
+        <v>0.3486</v>
       </c>
       <c r="C193">
-        <v>0.0273</v>
+        <v>0.0274</v>
       </c>
       <c r="D193">
-        <v>0.3207</v>
+        <v>0.3212</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3840,13 +3840,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3511</v>
+        <v>0.3517</v>
       </c>
       <c r="C194">
-        <v>0.0278</v>
+        <v>0.0279</v>
       </c>
       <c r="D194">
-        <v>0.3233</v>
+        <v>0.3238</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3854,13 +3854,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3532</v>
+        <v>0.3537</v>
       </c>
       <c r="C195">
-        <v>0.0277</v>
+        <v>0.0278</v>
       </c>
       <c r="D195">
-        <v>0.3254</v>
+        <v>0.3259</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3868,13 +3868,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3552</v>
+        <v>0.3558</v>
       </c>
       <c r="C196">
-        <v>0.0279</v>
+        <v>0.028</v>
       </c>
       <c r="D196">
-        <v>0.3273</v>
+        <v>0.3277</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3882,13 +3882,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3578</v>
+        <v>0.3583</v>
       </c>
       <c r="C197">
-        <v>0.0287</v>
+        <v>0.0288</v>
       </c>
       <c r="D197">
-        <v>0.3291</v>
+        <v>0.3296</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3896,13 +3896,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3602</v>
+        <v>0.3608</v>
       </c>
       <c r="C198">
-        <v>0.0293</v>
+        <v>0.0294</v>
       </c>
       <c r="D198">
-        <v>0.3309</v>
+        <v>0.3314</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3910,13 +3910,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3631</v>
+        <v>0.3637</v>
       </c>
       <c r="C199">
-        <v>0.0304</v>
+        <v>0.0305</v>
       </c>
       <c r="D199">
-        <v>0.3327</v>
+        <v>0.3332</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3924,13 +3924,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3652</v>
+        <v>0.3657</v>
       </c>
       <c r="C200">
-        <v>0.031</v>
+        <v>0.0311</v>
       </c>
       <c r="D200">
-        <v>0.3341</v>
+        <v>0.3346</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3938,13 +3938,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.366</v>
+        <v>0.3665</v>
       </c>
       <c r="C201">
         <v>0.0312</v>
       </c>
       <c r="D201">
-        <v>0.3348</v>
+        <v>0.3353</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3952,13 +3952,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3681</v>
+        <v>0.3687</v>
       </c>
       <c r="C202">
-        <v>0.0318</v>
+        <v>0.0319</v>
       </c>
       <c r="D202">
-        <v>0.3364</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3966,13 +3966,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.3691</v>
+        <v>0.3696</v>
       </c>
       <c r="C203">
-        <v>0.0314</v>
+        <v>0.0315</v>
       </c>
       <c r="D203">
-        <v>0.3377</v>
+        <v>0.3381</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3980,13 +3980,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.3705</v>
+        <v>0.371</v>
       </c>
       <c r="C204">
-        <v>0.0313</v>
+        <v>0.0314</v>
       </c>
       <c r="D204">
-        <v>0.3392</v>
+        <v>0.3396</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3994,13 +3994,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3722</v>
+        <v>0.3727</v>
       </c>
       <c r="C205">
         <v>0.0314</v>
       </c>
       <c r="D205">
-        <v>0.3409</v>
+        <v>0.3413</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4008,13 +4008,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.3743</v>
+        <v>0.3748</v>
       </c>
       <c r="C206">
         <v>0.0318</v>
       </c>
       <c r="D206">
-        <v>0.3426</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4022,13 +4022,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.3752</v>
+        <v>0.3757</v>
       </c>
       <c r="C207">
-        <v>0.031</v>
+        <v>0.0311</v>
       </c>
       <c r="D207">
-        <v>0.3442</v>
+        <v>0.3446</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.3763</v>
+        <v>0.3768</v>
       </c>
       <c r="C208">
-        <v>0.0307</v>
+        <v>0.0308</v>
       </c>
       <c r="D208">
-        <v>0.3457</v>
+        <v>0.3461</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4050,13 +4050,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.3774</v>
+        <v>0.3778</v>
       </c>
       <c r="C209">
         <v>0.0303</v>
       </c>
       <c r="D209">
-        <v>0.3471</v>
+        <v>0.3475</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4064,13 +4064,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.3783</v>
+        <v>0.3788</v>
       </c>
       <c r="C210">
-        <v>0.0301</v>
+        <v>0.0302</v>
       </c>
       <c r="D210">
-        <v>0.3482</v>
+        <v>0.3486</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4078,13 +4078,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.3794</v>
+        <v>0.3799</v>
       </c>
       <c r="C211">
-        <v>0.0304</v>
+        <v>0.0305</v>
       </c>
       <c r="D211">
-        <v>0.3489</v>
+        <v>0.3493</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4092,13 +4092,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.3795</v>
+        <v>0.38</v>
       </c>
       <c r="C212">
-        <v>0.0302</v>
+        <v>0.0303</v>
       </c>
       <c r="D212">
-        <v>0.3493</v>
+        <v>0.3497</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4106,13 +4106,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.3789</v>
+        <v>0.3794</v>
       </c>
       <c r="C213">
         <v>0.0297</v>
       </c>
       <c r="D213">
-        <v>0.3493</v>
+        <v>0.3497</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4120,13 +4120,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.3788</v>
+        <v>0.3792</v>
       </c>
       <c r="C214">
-        <v>0.0293</v>
+        <v>0.0294</v>
       </c>
       <c r="D214">
-        <v>0.3495</v>
+        <v>0.3499</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4134,13 +4134,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.3788</v>
+        <v>0.3792</v>
       </c>
       <c r="C215">
-        <v>0.0294</v>
+        <v>0.0295</v>
       </c>
       <c r="D215">
-        <v>0.3494</v>
+        <v>0.3498</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4148,13 +4148,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.3776</v>
+        <v>0.378</v>
       </c>
       <c r="C216">
-        <v>0.0286</v>
+        <v>0.0287</v>
       </c>
       <c r="D216">
-        <v>0.349</v>
+        <v>0.3493</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4162,13 +4162,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.3757</v>
+        <v>0.3762</v>
       </c>
       <c r="C217">
-        <v>0.0275</v>
+        <v>0.0276</v>
       </c>
       <c r="D217">
-        <v>0.3482</v>
+        <v>0.3486</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4176,13 +4176,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.3732</v>
+        <v>0.3736</v>
       </c>
       <c r="C218">
-        <v>0.0261</v>
+        <v>0.0262</v>
       </c>
       <c r="D218">
-        <v>0.3471</v>
+        <v>0.3474</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4190,13 +4190,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.3702</v>
+        <v>0.3707</v>
       </c>
       <c r="C219">
-        <v>0.0246</v>
+        <v>0.0247</v>
       </c>
       <c r="D219">
-        <v>0.3456</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4204,13 +4204,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3672</v>
+        <v>0.3676</v>
       </c>
       <c r="C220">
-        <v>0.0234</v>
+        <v>0.0235</v>
       </c>
       <c r="D220">
-        <v>0.3438</v>
+        <v>0.3441</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4218,13 +4218,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.365</v>
+        <v>0.3654</v>
       </c>
       <c r="C221">
         <v>0.0229</v>
       </c>
       <c r="D221">
-        <v>0.3421</v>
+        <v>0.3425</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4232,13 +4232,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3603</v>
+        <v>0.3607</v>
       </c>
       <c r="C222">
         <v>0.0216</v>
       </c>
       <c r="D222">
-        <v>0.3387</v>
+        <v>0.3391</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4246,13 +4246,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3563</v>
+        <v>0.3567</v>
       </c>
       <c r="C223">
         <v>0.0209</v>
       </c>
       <c r="D223">
-        <v>0.3354</v>
+        <v>0.3358</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4260,13 +4260,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3519</v>
+        <v>0.3523</v>
       </c>
       <c r="C224">
         <v>0.0199</v>
       </c>
       <c r="D224">
-        <v>0.3321</v>
+        <v>0.3324</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4274,13 +4274,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3474</v>
+        <v>0.3478</v>
       </c>
       <c r="C225">
         <v>0.0186</v>
       </c>
       <c r="D225">
-        <v>0.3288</v>
+        <v>0.3292</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4288,13 +4288,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3435</v>
+        <v>0.3439</v>
       </c>
       <c r="C226">
         <v>0.0177</v>
       </c>
       <c r="D226">
-        <v>0.3258</v>
+        <v>0.3262</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4302,13 +4302,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.3404</v>
+        <v>0.3408</v>
       </c>
       <c r="C227">
         <v>0.0176</v>
       </c>
       <c r="D227">
-        <v>0.3229</v>
+        <v>0.3232</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4316,13 +4316,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.3376</v>
+        <v>0.338</v>
       </c>
       <c r="C228">
         <v>0.0177</v>
       </c>
       <c r="D228">
-        <v>0.3199</v>
+        <v>0.3203</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4330,13 +4330,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.3347</v>
+        <v>0.3351</v>
       </c>
       <c r="C229">
-        <v>0.0179</v>
+        <v>0.018</v>
       </c>
       <c r="D229">
-        <v>0.3168</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4344,13 +4344,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.3321</v>
+        <v>0.3324</v>
       </c>
       <c r="C230">
         <v>0.0182</v>
       </c>
       <c r="D230">
-        <v>0.3139</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4358,13 +4358,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.3291</v>
+        <v>0.3295</v>
       </c>
       <c r="C231">
         <v>0.0179</v>
       </c>
       <c r="D231">
-        <v>0.3112</v>
+        <v>0.3116</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4372,13 +4372,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.3268</v>
+        <v>0.3272</v>
       </c>
       <c r="C232">
         <v>0.0181</v>
       </c>
       <c r="D232">
-        <v>0.3087</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4386,13 +4386,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.3249</v>
+        <v>0.3253</v>
       </c>
       <c r="C233">
         <v>0.0187</v>
       </c>
       <c r="D233">
-        <v>0.3063</v>
+        <v>0.3066</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4400,13 +4400,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.3226</v>
+        <v>0.323</v>
       </c>
       <c r="C234">
         <v>0.0191</v>
       </c>
       <c r="D234">
-        <v>0.3035</v>
+        <v>0.3038</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4414,13 +4414,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.3201</v>
+        <v>0.3204</v>
       </c>
       <c r="C235">
         <v>0.0191</v>
       </c>
       <c r="D235">
-        <v>0.3009</v>
+        <v>0.3013</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4428,13 +4428,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.3188</v>
+        <v>0.3191</v>
       </c>
       <c r="C236">
         <v>0.0202</v>
       </c>
       <c r="D236">
-        <v>0.2986</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4442,13 +4442,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.3178</v>
+        <v>0.3181</v>
       </c>
       <c r="C237">
-        <v>0.0213</v>
+        <v>0.0212</v>
       </c>
       <c r="D237">
-        <v>0.2965</v>
+        <v>0.2969</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4456,13 +4456,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.3169</v>
+        <v>0.3173</v>
       </c>
       <c r="C238">
-        <v>0.0223</v>
+        <v>0.0222</v>
       </c>
       <c r="D238">
-        <v>0.2947</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4470,13 +4470,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3161</v>
+        <v>0.3165</v>
       </c>
       <c r="C239">
-        <v>0.0231</v>
+        <v>0.023</v>
       </c>
       <c r="D239">
-        <v>0.2931</v>
+        <v>0.2934</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4484,13 +4484,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.3162</v>
+        <v>0.3165</v>
       </c>
       <c r="C240">
-        <v>0.0243</v>
+        <v>0.0242</v>
       </c>
       <c r="D240">
-        <v>0.2919</v>
+        <v>0.2923</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4498,13 +4498,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3159</v>
+        <v>0.3162</v>
       </c>
       <c r="C241">
         <v>0.0251</v>
       </c>
       <c r="D241">
-        <v>0.2907</v>
+        <v>0.2911</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4512,13 +4512,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3156</v>
+        <v>0.3159</v>
       </c>
       <c r="C242">
         <v>0.0256</v>
       </c>
       <c r="D242">
-        <v>0.29</v>
+        <v>0.2903</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4526,13 +4526,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3149</v>
+        <v>0.3153</v>
       </c>
       <c r="C243">
         <v>0.0256</v>
       </c>
       <c r="D243">
-        <v>0.2893</v>
+        <v>0.2896</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4540,13 +4540,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3146</v>
+        <v>0.3149</v>
       </c>
       <c r="C244">
         <v>0.0259</v>
       </c>
       <c r="D244">
-        <v>0.2887</v>
+        <v>0.2891</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4554,13 +4554,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.3141</v>
+        <v>0.3144</v>
       </c>
       <c r="C245">
         <v>0.026</v>
       </c>
       <c r="D245">
-        <v>0.2881</v>
+        <v>0.2885</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4568,13 +4568,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.313</v>
+        <v>0.3133</v>
       </c>
       <c r="C246">
         <v>0.0257</v>
       </c>
       <c r="D246">
-        <v>0.2873</v>
+        <v>0.2877</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4582,13 +4582,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3127</v>
+        <v>0.313</v>
       </c>
       <c r="C247">
-        <v>0.0255</v>
+        <v>0.0254</v>
       </c>
       <c r="D247">
-        <v>0.2872</v>
+        <v>0.2876</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4596,13 +4596,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3118</v>
+        <v>0.3121</v>
       </c>
       <c r="C248">
         <v>0.0242</v>
       </c>
       <c r="D248">
-        <v>0.2876</v>
+        <v>0.2879</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4610,13 +4610,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3121</v>
+        <v>0.3124</v>
       </c>
       <c r="C249">
         <v>0.0236</v>
       </c>
       <c r="D249">
-        <v>0.2885</v>
+        <v>0.2889</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2013 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2013 - Diaria.xlsx
@@ -1152,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3883</v>
+        <v>0.3865</v>
       </c>
       <c r="C2">
-        <v>0.1033</v>
+        <v>0.1029</v>
       </c>
       <c r="D2">
-        <v>0.2851</v>
+        <v>0.2837</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3765</v>
+        <v>0.3747</v>
       </c>
       <c r="C3">
-        <v>0.0934</v>
+        <v>0.0929</v>
       </c>
       <c r="D3">
-        <v>0.2831</v>
+        <v>0.2818</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3742</v>
+        <v>0.3725</v>
       </c>
       <c r="C4">
-        <v>0.09229999999999999</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="D4">
-        <v>0.282</v>
+        <v>0.2807</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3727</v>
+        <v>0.371</v>
       </c>
       <c r="C5">
-        <v>0.0917</v>
+        <v>0.0912</v>
       </c>
       <c r="D5">
-        <v>0.281</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.373</v>
+        <v>0.3713</v>
       </c>
       <c r="C6">
-        <v>0.0926</v>
+        <v>0.0922</v>
       </c>
       <c r="D6">
-        <v>0.2804</v>
+        <v>0.2792</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3727</v>
+        <v>0.3711</v>
       </c>
       <c r="C7">
-        <v>0.0934</v>
+        <v>0.093</v>
       </c>
       <c r="D7">
-        <v>0.2793</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.372</v>
+        <v>0.3704</v>
       </c>
       <c r="C8">
-        <v>0.0935</v>
+        <v>0.0931</v>
       </c>
       <c r="D8">
-        <v>0.2785</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3723</v>
+        <v>0.3708</v>
       </c>
       <c r="C9">
-        <v>0.09420000000000001</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="D9">
-        <v>0.2781</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3726</v>
+        <v>0.3711</v>
       </c>
       <c r="C10">
-        <v>0.0945</v>
+        <v>0.0941</v>
       </c>
       <c r="D10">
-        <v>0.2781</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3732</v>
+        <v>0.3717</v>
       </c>
       <c r="C11">
-        <v>0.0945</v>
+        <v>0.0941</v>
       </c>
       <c r="D11">
-        <v>0.2787</v>
+        <v>0.2776</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3741</v>
+        <v>0.3727</v>
       </c>
       <c r="C12">
-        <v>0.0946</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D12">
-        <v>0.2795</v>
+        <v>0.2785</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3744</v>
+        <v>0.373</v>
       </c>
       <c r="C13">
-        <v>0.09429999999999999</v>
+        <v>0.0939</v>
       </c>
       <c r="D13">
-        <v>0.2801</v>
+        <v>0.2792</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3747</v>
+        <v>0.3734</v>
       </c>
       <c r="C14">
-        <v>0.0941</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D14">
-        <v>0.2806</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3748</v>
+        <v>0.3736</v>
       </c>
       <c r="C15">
-        <v>0.0941</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D15">
-        <v>0.2807</v>
+        <v>0.2799</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3748</v>
+        <v>0.3736</v>
       </c>
       <c r="C16">
-        <v>0.09429999999999999</v>
+        <v>0.0939</v>
       </c>
       <c r="D16">
-        <v>0.2805</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3738</v>
+        <v>0.3726</v>
       </c>
       <c r="C17">
-        <v>0.0939</v>
+        <v>0.0935</v>
       </c>
       <c r="D17">
-        <v>0.2799</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3718</v>
+        <v>0.3707</v>
       </c>
       <c r="C18">
-        <v>0.093</v>
+        <v>0.0926</v>
       </c>
       <c r="D18">
-        <v>0.2788</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3703</v>
+        <v>0.3692</v>
       </c>
       <c r="C19">
-        <v>0.0927</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="D19">
-        <v>0.2775</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3672</v>
+        <v>0.3662</v>
       </c>
       <c r="C20">
-        <v>0.0911</v>
+        <v>0.0907</v>
       </c>
       <c r="D20">
-        <v>0.2761</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3656</v>
+        <v>0.3646</v>
       </c>
       <c r="C21">
-        <v>0.09089999999999999</v>
+        <v>0.0905</v>
       </c>
       <c r="D21">
-        <v>0.2747</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3632</v>
+        <v>0.3623</v>
       </c>
       <c r="C22">
-        <v>0.09039999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="D22">
-        <v>0.2728</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.361</v>
+        <v>0.3601</v>
       </c>
       <c r="C23">
-        <v>0.0902</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="D23">
-        <v>0.2708</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3582</v>
+        <v>0.3573</v>
       </c>
       <c r="C24">
-        <v>0.08989999999999999</v>
+        <v>0.0895</v>
       </c>
       <c r="D24">
-        <v>0.2683</v>
+        <v>0.2678</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3557</v>
+        <v>0.3549</v>
       </c>
       <c r="C25">
-        <v>0.08989999999999999</v>
+        <v>0.0895</v>
       </c>
       <c r="D25">
-        <v>0.2658</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3523</v>
+        <v>0.3515</v>
       </c>
       <c r="C26">
-        <v>0.0892</v>
+        <v>0.0888</v>
       </c>
       <c r="D26">
-        <v>0.2631</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3489</v>
+        <v>0.3481</v>
       </c>
       <c r="C27">
-        <v>0.0886</v>
+        <v>0.0882</v>
       </c>
       <c r="D27">
-        <v>0.2603</v>
+        <v>0.2599</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3452</v>
+        <v>0.3445</v>
       </c>
       <c r="C28">
-        <v>0.0878</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="D28">
-        <v>0.2574</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3404</v>
+        <v>0.3397</v>
       </c>
       <c r="C29">
-        <v>0.0864</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D29">
-        <v>0.254</v>
+        <v>0.2536</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3357</v>
+        <v>0.335</v>
       </c>
       <c r="C30">
-        <v>0.08550000000000001</v>
+        <v>0.0852</v>
       </c>
       <c r="D30">
-        <v>0.2502</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3308</v>
+        <v>0.3301</v>
       </c>
       <c r="C31">
-        <v>0.08500000000000001</v>
+        <v>0.0847</v>
       </c>
       <c r="D31">
-        <v>0.2458</v>
+        <v>0.2454</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3254</v>
+        <v>0.3247</v>
       </c>
       <c r="C32">
-        <v>0.0843</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D32">
-        <v>0.2411</v>
+        <v>0.2408</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3203</v>
+        <v>0.3196</v>
       </c>
       <c r="C33">
-        <v>0.0838</v>
+        <v>0.0835</v>
       </c>
       <c r="D33">
-        <v>0.2365</v>
+        <v>0.2361</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3146</v>
+        <v>0.3139</v>
       </c>
       <c r="C34">
-        <v>0.0828</v>
+        <v>0.0825</v>
       </c>
       <c r="D34">
-        <v>0.2318</v>
+        <v>0.2314</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3094</v>
+        <v>0.3086</v>
       </c>
       <c r="C35">
-        <v>0.08210000000000001</v>
+        <v>0.0818</v>
       </c>
       <c r="D35">
-        <v>0.2272</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3035</v>
+        <v>0.3028</v>
       </c>
       <c r="C36">
-        <v>0.08069999999999999</v>
+        <v>0.0804</v>
       </c>
       <c r="D36">
-        <v>0.2228</v>
+        <v>0.2224</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2973</v>
+        <v>0.2966</v>
       </c>
       <c r="C37">
-        <v>0.07920000000000001</v>
+        <v>0.0789</v>
       </c>
       <c r="D37">
-        <v>0.2181</v>
+        <v>0.2177</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.2923</v>
+        <v>0.2916</v>
       </c>
       <c r="C38">
-        <v>0.0788</v>
+        <v>0.0785</v>
       </c>
       <c r="D38">
-        <v>0.2135</v>
+        <v>0.2131</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2865</v>
+        <v>0.2857</v>
       </c>
       <c r="C39">
-        <v>0.07770000000000001</v>
+        <v>0.0774</v>
       </c>
       <c r="D39">
-        <v>0.2088</v>
+        <v>0.2083</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2811</v>
+        <v>0.2803</v>
       </c>
       <c r="C40">
-        <v>0.0766</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="D40">
-        <v>0.2045</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2762</v>
+        <v>0.2754</v>
       </c>
       <c r="C41">
-        <v>0.0755</v>
+        <v>0.0751</v>
       </c>
       <c r="D41">
-        <v>0.2007</v>
+        <v>0.2002</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.272</v>
+        <v>0.2711</v>
       </c>
       <c r="C42">
-        <v>0.0746</v>
+        <v>0.0742</v>
       </c>
       <c r="D42">
-        <v>0.1974</v>
+        <v>0.1969</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2681</v>
+        <v>0.2672</v>
       </c>
       <c r="C43">
-        <v>0.0741</v>
+        <v>0.0737</v>
       </c>
       <c r="D43">
-        <v>0.194</v>
+        <v>0.1935</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2637</v>
+        <v>0.2628</v>
       </c>
       <c r="C44">
-        <v>0.07290000000000001</v>
+        <v>0.0725</v>
       </c>
       <c r="D44">
-        <v>0.1908</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2593</v>
+        <v>0.2584</v>
       </c>
       <c r="C45">
-        <v>0.0716</v>
+        <v>0.0712</v>
       </c>
       <c r="D45">
-        <v>0.1877</v>
+        <v>0.1872</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2534</v>
+        <v>0.2525</v>
       </c>
       <c r="C46">
-        <v>0.06900000000000001</v>
+        <v>0.0687</v>
       </c>
       <c r="D46">
-        <v>0.1844</v>
+        <v>0.1839</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2483</v>
+        <v>0.2474</v>
       </c>
       <c r="C47">
-        <v>0.067</v>
+        <v>0.0667</v>
       </c>
       <c r="D47">
-        <v>0.1813</v>
+        <v>0.1807</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2429</v>
+        <v>0.242</v>
       </c>
       <c r="C48">
-        <v>0.06510000000000001</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D48">
-        <v>0.1778</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.2382</v>
+        <v>0.2373</v>
       </c>
       <c r="C49">
-        <v>0.0635</v>
+        <v>0.0631</v>
       </c>
       <c r="D49">
-        <v>0.1747</v>
+        <v>0.1741</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2342</v>
+        <v>0.2332</v>
       </c>
       <c r="C50">
-        <v>0.0621</v>
+        <v>0.0618</v>
       </c>
       <c r="D50">
-        <v>0.172</v>
+        <v>0.1714</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.23</v>
+        <v>0.229</v>
       </c>
       <c r="C51">
-        <v>0.0605</v>
+        <v>0.0602</v>
       </c>
       <c r="D51">
-        <v>0.1695</v>
+        <v>0.1688</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
       <c r="C52">
-        <v>0.0597</v>
+        <v>0.0594</v>
       </c>
       <c r="D52">
-        <v>0.1673</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2246</v>
+        <v>0.2236</v>
       </c>
       <c r="C53">
-        <v>0.059</v>
+        <v>0.0586</v>
       </c>
       <c r="D53">
-        <v>0.1656</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.2229</v>
+        <v>0.2219</v>
       </c>
       <c r="C54">
-        <v>0.0586</v>
+        <v>0.0583</v>
       </c>
       <c r="D54">
-        <v>0.1643</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2214</v>
+        <v>0.2203</v>
       </c>
       <c r="C55">
-        <v>0.0579</v>
+        <v>0.0576</v>
       </c>
       <c r="D55">
-        <v>0.1634</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.2206</v>
+        <v>0.2196</v>
       </c>
       <c r="C56">
-        <v>0.0575</v>
+        <v>0.0571</v>
       </c>
       <c r="D56">
-        <v>0.1631</v>
+        <v>0.1624</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.22</v>
+        <v>0.2189</v>
       </c>
       <c r="C57">
-        <v>0.0568</v>
+        <v>0.0564</v>
       </c>
       <c r="D57">
-        <v>0.1632</v>
+        <v>0.1625</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2191</v>
+        <v>0.2181</v>
       </c>
       <c r="C58">
-        <v>0.0556</v>
+        <v>0.0553</v>
       </c>
       <c r="D58">
-        <v>0.1635</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2186</v>
+        <v>0.2176</v>
       </c>
       <c r="C59">
-        <v>0.0547</v>
+        <v>0.0544</v>
       </c>
       <c r="D59">
-        <v>0.1639</v>
+        <v>0.1632</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.2178</v>
+        <v>0.2168</v>
       </c>
       <c r="C60">
-        <v>0.0538</v>
+        <v>0.0535</v>
       </c>
       <c r="D60">
-        <v>0.164</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.2164</v>
+        <v>0.2154</v>
       </c>
       <c r="C61">
-        <v>0.0527</v>
+        <v>0.0523</v>
       </c>
       <c r="D61">
-        <v>0.1637</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.2157</v>
+        <v>0.2147</v>
       </c>
       <c r="C62">
-        <v>0.0522</v>
+        <v>0.0519</v>
       </c>
       <c r="D62">
-        <v>0.1635</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.2147</v>
+        <v>0.2137</v>
       </c>
       <c r="C63">
-        <v>0.0511</v>
+        <v>0.0508</v>
       </c>
       <c r="D63">
-        <v>0.1636</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.2146</v>
+        <v>0.2136</v>
       </c>
       <c r="C64">
-        <v>0.0506</v>
+        <v>0.0503</v>
       </c>
       <c r="D64">
-        <v>0.164</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.2145</v>
+        <v>0.2135</v>
       </c>
       <c r="C65">
-        <v>0.0499</v>
+        <v>0.0496</v>
       </c>
       <c r="D65">
-        <v>0.1646</v>
+        <v>0.1639</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.2151</v>
+        <v>0.2142</v>
       </c>
       <c r="C66">
-        <v>0.0497</v>
+        <v>0.0493</v>
       </c>
       <c r="D66">
-        <v>0.1655</v>
+        <v>0.1649</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.2149</v>
+        <v>0.214</v>
       </c>
       <c r="C67">
-        <v>0.0487</v>
+        <v>0.0484</v>
       </c>
       <c r="D67">
-        <v>0.1662</v>
+        <v>0.1656</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.2164</v>
+        <v>0.2154</v>
       </c>
       <c r="C68">
-        <v>0.0489</v>
+        <v>0.0485</v>
       </c>
       <c r="D68">
-        <v>0.1675</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.2182</v>
+        <v>0.2172</v>
       </c>
       <c r="C69">
-        <v>0.0488</v>
+        <v>0.0485</v>
       </c>
       <c r="D69">
-        <v>0.1694</v>
+        <v>0.1688</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.221</v>
+        <v>0.2201</v>
       </c>
       <c r="C70">
-        <v>0.0492</v>
+        <v>0.0489</v>
       </c>
       <c r="D70">
-        <v>0.1718</v>
+        <v>0.1712</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.224</v>
+        <v>0.2231</v>
       </c>
       <c r="C71">
-        <v>0.05</v>
+        <v>0.0496</v>
       </c>
       <c r="D71">
-        <v>0.1741</v>
+        <v>0.1734</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.2265</v>
+        <v>0.2255</v>
       </c>
       <c r="C72">
-        <v>0.0504</v>
+        <v>0.0501</v>
       </c>
       <c r="D72">
-        <v>0.1761</v>
+        <v>0.1755</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2284</v>
+        <v>0.2274</v>
       </c>
       <c r="C73">
-        <v>0.0504</v>
+        <v>0.0501</v>
       </c>
       <c r="D73">
-        <v>0.178</v>
+        <v>0.1773</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.2311</v>
+        <v>0.23</v>
       </c>
       <c r="C74">
-        <v>0.0504</v>
+        <v>0.05</v>
       </c>
       <c r="D74">
-        <v>0.1807</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.233</v>
+        <v>0.232</v>
       </c>
       <c r="C75">
-        <v>0.0498</v>
+        <v>0.0494</v>
       </c>
       <c r="D75">
-        <v>0.1832</v>
+        <v>0.1825</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2344</v>
+        <v>0.2334</v>
       </c>
       <c r="C76">
-        <v>0.049</v>
+        <v>0.0486</v>
       </c>
       <c r="D76">
-        <v>0.1855</v>
+        <v>0.1848</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2347</v>
+        <v>0.2337</v>
       </c>
       <c r="C77">
-        <v>0.0475</v>
+        <v>0.0472</v>
       </c>
       <c r="D77">
-        <v>0.1872</v>
+        <v>0.1865</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.2346</v>
+        <v>0.2336</v>
       </c>
       <c r="C78">
-        <v>0.0461</v>
+        <v>0.0458</v>
       </c>
       <c r="D78">
-        <v>0.1885</v>
+        <v>0.1878</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2346</v>
+        <v>0.2335</v>
       </c>
       <c r="C79">
-        <v>0.0449</v>
+        <v>0.0446</v>
       </c>
       <c r="D79">
-        <v>0.1896</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2339</v>
+        <v>0.2328</v>
       </c>
       <c r="C80">
-        <v>0.0433</v>
+        <v>0.043</v>
       </c>
       <c r="D80">
-        <v>0.1905</v>
+        <v>0.1899</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2333</v>
+        <v>0.2323</v>
       </c>
       <c r="C81">
-        <v>0.042</v>
+        <v>0.0416</v>
       </c>
       <c r="D81">
-        <v>0.1913</v>
+        <v>0.1907</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.232</v>
+        <v>0.231</v>
       </c>
       <c r="C82">
-        <v>0.0401</v>
+        <v>0.0398</v>
       </c>
       <c r="D82">
-        <v>0.1919</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2301</v>
+        <v>0.2291</v>
       </c>
       <c r="C83">
-        <v>0.038</v>
+        <v>0.0376</v>
       </c>
       <c r="D83">
-        <v>0.1921</v>
+        <v>0.1915</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.228</v>
+        <v>0.227</v>
       </c>
       <c r="C84">
-        <v>0.0361</v>
+        <v>0.0357</v>
       </c>
       <c r="D84">
-        <v>0.1919</v>
+        <v>0.1913</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2258</v>
+        <v>0.2248</v>
       </c>
       <c r="C85">
-        <v>0.0344</v>
+        <v>0.0341</v>
       </c>
       <c r="D85">
-        <v>0.1914</v>
+        <v>0.1908</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2236</v>
+        <v>0.2227</v>
       </c>
       <c r="C86">
-        <v>0.0329</v>
+        <v>0.0325</v>
       </c>
       <c r="D86">
-        <v>0.1908</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2211</v>
+        <v>0.2201</v>
       </c>
       <c r="C87">
-        <v>0.0312</v>
+        <v>0.0309</v>
       </c>
       <c r="D87">
-        <v>0.1899</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2184</v>
+        <v>0.2174</v>
       </c>
       <c r="C88">
-        <v>0.0297</v>
+        <v>0.0294</v>
       </c>
       <c r="D88">
-        <v>0.1887</v>
+        <v>0.1881</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2154</v>
+        <v>0.2144</v>
       </c>
       <c r="C89">
-        <v>0.0286</v>
+        <v>0.0283</v>
       </c>
       <c r="D89">
-        <v>0.1868</v>
+        <v>0.1862</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2105</v>
+        <v>0.2096</v>
       </c>
       <c r="C90">
-        <v>0.0264</v>
+        <v>0.0261</v>
       </c>
       <c r="D90">
-        <v>0.1841</v>
+        <v>0.1835</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2068</v>
+        <v>0.2058</v>
       </c>
       <c r="C91">
-        <v>0.0241</v>
+        <v>0.0238</v>
       </c>
       <c r="D91">
-        <v>0.1826</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2022</v>
+        <v>0.2013</v>
       </c>
       <c r="C92">
-        <v>0.0213</v>
+        <v>0.021</v>
       </c>
       <c r="D92">
-        <v>0.1809</v>
+        <v>0.1803</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.1981</v>
+        <v>0.1971</v>
       </c>
       <c r="C93">
-        <v>0.0187</v>
+        <v>0.0184</v>
       </c>
       <c r="D93">
-        <v>0.1793</v>
+        <v>0.1788</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.193</v>
+        <v>0.1921</v>
       </c>
       <c r="C94">
-        <v>0.0161</v>
+        <v>0.0158</v>
       </c>
       <c r="D94">
-        <v>0.1769</v>
+        <v>0.1763</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.1881</v>
+        <v>0.1872</v>
       </c>
       <c r="C95">
-        <v>0.0141</v>
+        <v>0.0138</v>
       </c>
       <c r="D95">
-        <v>0.174</v>
+        <v>0.1734</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.1831</v>
+        <v>0.1823</v>
       </c>
       <c r="C96">
-        <v>0.0122</v>
+        <v>0.0119</v>
       </c>
       <c r="D96">
-        <v>0.1709</v>
+        <v>0.1704</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.1794</v>
+        <v>0.1786</v>
       </c>
       <c r="C97">
-        <v>0.0112</v>
+        <v>0.0109</v>
       </c>
       <c r="D97">
-        <v>0.1682</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.1758</v>
+        <v>0.175</v>
       </c>
       <c r="C98">
-        <v>0.0101</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="D98">
-        <v>0.1656</v>
+        <v>0.1651</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.1724</v>
+        <v>0.1717</v>
       </c>
       <c r="C99">
-        <v>0.009299999999999999</v>
+        <v>0.0091</v>
       </c>
       <c r="D99">
-        <v>0.1631</v>
+        <v>0.1626</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.1699</v>
+        <v>0.1692</v>
       </c>
       <c r="C100">
-        <v>0.008999999999999999</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="D100">
-        <v>0.1609</v>
+        <v>0.1604</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.1682</v>
+        <v>0.1675</v>
       </c>
       <c r="C101">
-        <v>0.008999999999999999</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="D101">
-        <v>0.1592</v>
+        <v>0.1587</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.1674</v>
+        <v>0.1667</v>
       </c>
       <c r="C102">
-        <v>0.0098</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="D102">
-        <v>0.1576</v>
+        <v>0.1571</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.1668</v>
+        <v>0.1661</v>
       </c>
       <c r="C103">
-        <v>0.0108</v>
+        <v>0.0106</v>
       </c>
       <c r="D103">
-        <v>0.156</v>
+        <v>0.1555</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.1662</v>
+        <v>0.1655</v>
       </c>
       <c r="C104">
-        <v>0.0117</v>
+        <v>0.0115</v>
       </c>
       <c r="D104">
-        <v>0.1546</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.1655</v>
+        <v>0.1647</v>
       </c>
       <c r="C105">
-        <v>0.0124</v>
+        <v>0.0123</v>
       </c>
       <c r="D105">
-        <v>0.153</v>
+        <v>0.1524</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.1648</v>
+        <v>0.164</v>
       </c>
       <c r="C106">
-        <v>0.0132</v>
+        <v>0.0131</v>
       </c>
       <c r="D106">
-        <v>0.1516</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.1665</v>
+        <v>0.1657</v>
       </c>
       <c r="C107">
-        <v>0.0157</v>
+        <v>0.0156</v>
       </c>
       <c r="D107">
-        <v>0.1508</v>
+        <v>0.1502</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.1686</v>
+        <v>0.1678</v>
       </c>
       <c r="C108">
-        <v>0.0179</v>
+        <v>0.0178</v>
       </c>
       <c r="D108">
-        <v>0.1508</v>
+        <v>0.1501</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.1699</v>
+        <v>0.1691</v>
       </c>
       <c r="C109">
-        <v>0.0193</v>
+        <v>0.0192</v>
       </c>
       <c r="D109">
-        <v>0.1507</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1715</v>
+        <v>0.1707</v>
       </c>
       <c r="C110">
-        <v>0.021</v>
+        <v>0.0209</v>
       </c>
       <c r="D110">
-        <v>0.1506</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.1718</v>
+        <v>0.171</v>
       </c>
       <c r="C111">
-        <v>0.0226</v>
+        <v>0.0225</v>
       </c>
       <c r="D111">
-        <v>0.1492</v>
+        <v>0.1485</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.1722</v>
+        <v>0.1714</v>
       </c>
       <c r="C112">
         <v>0.0243</v>
       </c>
       <c r="D112">
-        <v>0.1479</v>
+        <v>0.1472</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.173</v>
+        <v>0.1722</v>
       </c>
       <c r="C113">
-        <v>0.0263</v>
+        <v>0.0262</v>
       </c>
       <c r="D113">
-        <v>0.1467</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.1735</v>
+        <v>0.1727</v>
       </c>
       <c r="C114">
         <v>0.028</v>
       </c>
       <c r="D114">
-        <v>0.1455</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.1779</v>
+        <v>0.1771</v>
       </c>
       <c r="C115">
-        <v>0.0328</v>
+        <v>0.0327</v>
       </c>
       <c r="D115">
-        <v>0.1451</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1791</v>
+        <v>0.1783</v>
       </c>
       <c r="C116">
         <v>0.0348</v>
       </c>
       <c r="D116">
-        <v>0.1443</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1799</v>
+        <v>0.1791</v>
       </c>
       <c r="C117">
         <v>0.0366</v>
       </c>
       <c r="D117">
-        <v>0.1433</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1811</v>
+        <v>0.1802</v>
       </c>
       <c r="C118">
         <v>0.0387</v>
       </c>
       <c r="D118">
-        <v>0.1424</v>
+        <v>0.1415</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1826</v>
+        <v>0.1817</v>
       </c>
       <c r="C119">
-        <v>0.041</v>
+        <v>0.0409</v>
       </c>
       <c r="D119">
-        <v>0.1416</v>
+        <v>0.1407</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1838</v>
+        <v>0.1829</v>
       </c>
       <c r="C120">
         <v>0.0432</v>
       </c>
       <c r="D120">
-        <v>0.1406</v>
+        <v>0.1397</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1875</v>
+        <v>0.1865</v>
       </c>
       <c r="C121">
-        <v>0.0475</v>
+        <v>0.0474</v>
       </c>
       <c r="D121">
-        <v>0.14</v>
+        <v>0.1391</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1911</v>
+        <v>0.1901</v>
       </c>
       <c r="C122">
-        <v>0.0517</v>
+        <v>0.0516</v>
       </c>
       <c r="D122">
-        <v>0.1394</v>
+        <v>0.1385</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1944</v>
+        <v>0.1935</v>
       </c>
       <c r="C123">
         <v>0.0554</v>
       </c>
       <c r="D123">
-        <v>0.139</v>
+        <v>0.1381</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.1979</v>
+        <v>0.1969</v>
       </c>
       <c r="C124">
         <v>0.0594</v>
       </c>
       <c r="D124">
-        <v>0.1385</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2006</v>
+        <v>0.1997</v>
       </c>
       <c r="C125">
         <v>0.06270000000000001</v>
       </c>
       <c r="D125">
-        <v>0.1379</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2021</v>
+        <v>0.2012</v>
       </c>
       <c r="C126">
         <v>0.0653</v>
       </c>
       <c r="D126">
-        <v>0.1368</v>
+        <v>0.1359</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2014</v>
+        <v>0.2004</v>
       </c>
       <c r="C127">
         <v>0.0664</v>
       </c>
       <c r="D127">
-        <v>0.135</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.199</v>
+        <v>0.1981</v>
       </c>
       <c r="C128">
-        <v>0.0668</v>
+        <v>0.0667</v>
       </c>
       <c r="D128">
-        <v>0.1323</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1965</v>
+        <v>0.1955</v>
       </c>
       <c r="C129">
         <v>0.06710000000000001</v>
       </c>
       <c r="D129">
-        <v>0.1294</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.1941</v>
+        <v>0.1932</v>
       </c>
       <c r="C130">
         <v>0.06759999999999999</v>
       </c>
       <c r="D130">
-        <v>0.1265</v>
+        <v>0.1256</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1908</v>
+        <v>0.1899</v>
       </c>
       <c r="C131">
         <v>0.0673</v>
       </c>
       <c r="D131">
-        <v>0.1236</v>
+        <v>0.1227</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.1882</v>
+        <v>0.1873</v>
       </c>
       <c r="C132">
         <v>0.0673</v>
       </c>
       <c r="D132">
-        <v>0.1209</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.1854</v>
+        <v>0.1846</v>
       </c>
       <c r="C133">
         <v>0.0674</v>
       </c>
       <c r="D133">
-        <v>0.118</v>
+        <v>0.1171</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.1821</v>
+        <v>0.1812</v>
       </c>
       <c r="C134">
-        <v>0.0669</v>
+        <v>0.067</v>
       </c>
       <c r="D134">
-        <v>0.1152</v>
+        <v>0.1143</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1755</v>
+        <v>0.1747</v>
       </c>
       <c r="C135">
-        <v>0.0634</v>
+        <v>0.0635</v>
       </c>
       <c r="D135">
-        <v>0.1121</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.1721</v>
+        <v>0.1713</v>
       </c>
       <c r="C136">
-        <v>0.0625</v>
+        <v>0.0626</v>
       </c>
       <c r="D136">
-        <v>0.1096</v>
+        <v>0.1087</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.169</v>
+        <v>0.1682</v>
       </c>
       <c r="C137">
-        <v>0.0616</v>
+        <v>0.0617</v>
       </c>
       <c r="D137">
-        <v>0.1074</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1664</v>
+        <v>0.1655</v>
       </c>
       <c r="C138">
-        <v>0.0608</v>
+        <v>0.0609</v>
       </c>
       <c r="D138">
-        <v>0.1055</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1634</v>
+        <v>0.1626</v>
       </c>
       <c r="C139">
-        <v>0.0596</v>
+        <v>0.0597</v>
       </c>
       <c r="D139">
-        <v>0.1038</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1615</v>
+        <v>0.1607</v>
       </c>
       <c r="C140">
-        <v>0.0581</v>
+        <v>0.0582</v>
       </c>
       <c r="D140">
-        <v>0.1034</v>
+        <v>0.1025</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.156</v>
+        <v>0.1552</v>
       </c>
       <c r="C141">
-        <v>0.0539</v>
+        <v>0.054</v>
       </c>
       <c r="D141">
-        <v>0.1022</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1502</v>
+        <v>0.1494</v>
       </c>
       <c r="C142">
-        <v>0.0491</v>
+        <v>0.0493</v>
       </c>
       <c r="D142">
-        <v>0.1011</v>
+        <v>0.1002</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1454</v>
+        <v>0.1446</v>
       </c>
       <c r="C143">
-        <v>0.0451</v>
+        <v>0.0453</v>
       </c>
       <c r="D143">
-        <v>0.1003</v>
+        <v>0.0994</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.1403</v>
+        <v>0.1395</v>
       </c>
       <c r="C144">
-        <v>0.0409</v>
+        <v>0.041</v>
       </c>
       <c r="D144">
-        <v>0.0994</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1369</v>
+        <v>0.1361</v>
       </c>
       <c r="C145">
-        <v>0.0373</v>
+        <v>0.0375</v>
       </c>
       <c r="D145">
-        <v>0.09959999999999999</v>
+        <v>0.09859999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.1343</v>
+        <v>0.1336</v>
       </c>
       <c r="C146">
-        <v>0.0342</v>
+        <v>0.0343</v>
       </c>
       <c r="D146">
-        <v>0.1002</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1323</v>
+        <v>0.1315</v>
       </c>
       <c r="C147">
-        <v>0.031</v>
+        <v>0.0312</v>
       </c>
       <c r="D147">
-        <v>0.1013</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3196,13 +3196,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1326</v>
+        <v>0.1318</v>
       </c>
       <c r="C148">
-        <v>0.0293</v>
+        <v>0.0295</v>
       </c>
       <c r="D148">
-        <v>0.1033</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3210,13 +3210,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1337</v>
+        <v>0.1329</v>
       </c>
       <c r="C149">
-        <v>0.0278</v>
+        <v>0.0279</v>
       </c>
       <c r="D149">
-        <v>0.1059</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3224,13 +3224,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.135</v>
+        <v>0.1342</v>
       </c>
       <c r="C150">
-        <v>0.026</v>
+        <v>0.0262</v>
       </c>
       <c r="D150">
-        <v>0.1089</v>
+        <v>0.1079</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3238,13 +3238,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1379</v>
+        <v>0.1371</v>
       </c>
       <c r="C151">
-        <v>0.0252</v>
+        <v>0.0254</v>
       </c>
       <c r="D151">
-        <v>0.1127</v>
+        <v>0.1117</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3252,13 +3252,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1407</v>
+        <v>0.1399</v>
       </c>
       <c r="C152">
-        <v>0.0239</v>
+        <v>0.0241</v>
       </c>
       <c r="D152">
-        <v>0.1168</v>
+        <v>0.1158</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3266,13 +3266,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1444</v>
+        <v>0.1436</v>
       </c>
       <c r="C153">
-        <v>0.0232</v>
+        <v>0.0234</v>
       </c>
       <c r="D153">
-        <v>0.1213</v>
+        <v>0.1203</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3280,13 +3280,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.1489</v>
+        <v>0.1481</v>
       </c>
       <c r="C154">
-        <v>0.0228</v>
+        <v>0.023</v>
       </c>
       <c r="D154">
-        <v>0.1261</v>
+        <v>0.1251</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3294,13 +3294,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1541</v>
+        <v>0.1533</v>
       </c>
       <c r="C155">
-        <v>0.0232</v>
+        <v>0.0233</v>
       </c>
       <c r="D155">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3308,13 +3308,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1596</v>
+        <v>0.1588</v>
       </c>
       <c r="C156">
-        <v>0.0236</v>
+        <v>0.0237</v>
       </c>
       <c r="D156">
-        <v>0.1361</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3322,13 +3322,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1654</v>
+        <v>0.1646</v>
       </c>
       <c r="C157">
-        <v>0.0242</v>
+        <v>0.0243</v>
       </c>
       <c r="D157">
-        <v>0.1412</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3336,13 +3336,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1712</v>
+        <v>0.1704</v>
       </c>
       <c r="C158">
-        <v>0.0247</v>
+        <v>0.0248</v>
       </c>
       <c r="D158">
-        <v>0.1465</v>
+        <v>0.1455</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3350,13 +3350,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1774</v>
+        <v>0.1766</v>
       </c>
       <c r="C159">
-        <v>0.0253</v>
+        <v>0.0255</v>
       </c>
       <c r="D159">
-        <v>0.1521</v>
+        <v>0.1511</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3364,13 +3364,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.183</v>
+        <v>0.1822</v>
       </c>
       <c r="C160">
-        <v>0.0262</v>
+        <v>0.0264</v>
       </c>
       <c r="D160">
-        <v>0.1567</v>
+        <v>0.1558</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3378,13 +3378,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1898</v>
+        <v>0.189</v>
       </c>
       <c r="C161">
-        <v>0.0278</v>
+        <v>0.0279</v>
       </c>
       <c r="D161">
-        <v>0.1621</v>
+        <v>0.1611</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3392,13 +3392,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.1978</v>
+        <v>0.1969</v>
       </c>
       <c r="C162">
-        <v>0.03</v>
+        <v>0.0301</v>
       </c>
       <c r="D162">
-        <v>0.1678</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3406,13 +3406,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2059</v>
+        <v>0.2051</v>
       </c>
       <c r="C163">
-        <v>0.0322</v>
+        <v>0.0323</v>
       </c>
       <c r="D163">
-        <v>0.1737</v>
+        <v>0.1728</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3420,13 +3420,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2142</v>
+        <v>0.2134</v>
       </c>
       <c r="C164">
-        <v>0.0341</v>
+        <v>0.0342</v>
       </c>
       <c r="D164">
-        <v>0.1801</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3434,13 +3434,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2224</v>
+        <v>0.2215</v>
       </c>
       <c r="C165">
-        <v>0.0363</v>
+        <v>0.0364</v>
       </c>
       <c r="D165">
-        <v>0.1861</v>
+        <v>0.1851</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3448,13 +3448,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2307</v>
+        <v>0.2298</v>
       </c>
       <c r="C166">
-        <v>0.0384</v>
+        <v>0.0385</v>
       </c>
       <c r="D166">
-        <v>0.1923</v>
+        <v>0.1913</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3462,13 +3462,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2386</v>
+        <v>0.2377</v>
       </c>
       <c r="C167">
-        <v>0.0402</v>
+        <v>0.0404</v>
       </c>
       <c r="D167">
-        <v>0.1984</v>
+        <v>0.1974</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3476,13 +3476,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2451</v>
+        <v>0.2442</v>
       </c>
       <c r="C168">
-        <v>0.0409</v>
+        <v>0.041</v>
       </c>
       <c r="D168">
-        <v>0.2042</v>
+        <v>0.2032</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3490,13 +3490,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2517</v>
+        <v>0.2508</v>
       </c>
       <c r="C169">
-        <v>0.0414</v>
+        <v>0.0415</v>
       </c>
       <c r="D169">
-        <v>0.2103</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3504,13 +3504,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2584</v>
+        <v>0.2574</v>
       </c>
       <c r="C170">
-        <v>0.0421</v>
+        <v>0.0423</v>
       </c>
       <c r="D170">
-        <v>0.2162</v>
+        <v>0.2152</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3518,13 +3518,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2644</v>
+        <v>0.2635</v>
       </c>
       <c r="C171">
-        <v>0.0425</v>
+        <v>0.0426</v>
       </c>
       <c r="D171">
-        <v>0.2219</v>
+        <v>0.2209</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3532,13 +3532,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2703</v>
+        <v>0.2693</v>
       </c>
       <c r="C172">
-        <v>0.0428</v>
+        <v>0.0429</v>
       </c>
       <c r="D172">
-        <v>0.2275</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3546,13 +3546,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.275</v>
+        <v>0.274</v>
       </c>
       <c r="C173">
-        <v>0.0423</v>
+        <v>0.0424</v>
       </c>
       <c r="D173">
-        <v>0.2328</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3560,13 +3560,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2799</v>
+        <v>0.2789</v>
       </c>
       <c r="C174">
-        <v>0.0418</v>
+        <v>0.0419</v>
       </c>
       <c r="D174">
-        <v>0.2381</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3574,13 +3574,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2848</v>
+        <v>0.2837</v>
       </c>
       <c r="C175">
-        <v>0.0412</v>
+        <v>0.0413</v>
       </c>
       <c r="D175">
-        <v>0.2436</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3588,13 +3588,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.29</v>
+        <v>0.2889</v>
       </c>
       <c r="C176">
-        <v>0.0406</v>
+        <v>0.0408</v>
       </c>
       <c r="D176">
-        <v>0.2494</v>
+        <v>0.2481</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3602,13 +3602,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2946</v>
+        <v>0.2935</v>
       </c>
       <c r="C177">
-        <v>0.0396</v>
+        <v>0.0398</v>
       </c>
       <c r="D177">
-        <v>0.255</v>
+        <v>0.2537</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3616,13 +3616,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.299</v>
+        <v>0.2979</v>
       </c>
       <c r="C178">
-        <v>0.0386</v>
+        <v>0.0387</v>
       </c>
       <c r="D178">
-        <v>0.2604</v>
+        <v>0.2591</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3630,13 +3630,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3026</v>
+        <v>0.3015</v>
       </c>
       <c r="C179">
-        <v>0.0371</v>
+        <v>0.0372</v>
       </c>
       <c r="D179">
-        <v>0.2655</v>
+        <v>0.2643</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3644,13 +3644,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3065</v>
+        <v>0.3053</v>
       </c>
       <c r="C180">
-        <v>0.0356</v>
+        <v>0.0357</v>
       </c>
       <c r="D180">
-        <v>0.271</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3658,13 +3658,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3096</v>
+        <v>0.3085</v>
       </c>
       <c r="C181">
-        <v>0.0335</v>
+        <v>0.0336</v>
       </c>
       <c r="D181">
-        <v>0.2762</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3672,13 +3672,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3124</v>
+        <v>0.3112</v>
       </c>
       <c r="C182">
-        <v>0.031</v>
+        <v>0.0311</v>
       </c>
       <c r="D182">
-        <v>0.2814</v>
+        <v>0.2801</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3686,13 +3686,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3159</v>
+        <v>0.3147</v>
       </c>
       <c r="C183">
-        <v>0.0294</v>
+        <v>0.0295</v>
       </c>
       <c r="D183">
-        <v>0.2865</v>
+        <v>0.2852</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3700,13 +3700,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3198</v>
+        <v>0.3186</v>
       </c>
       <c r="C184">
-        <v>0.0286</v>
+        <v>0.0287</v>
       </c>
       <c r="D184">
-        <v>0.2912</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3714,13 +3714,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3229</v>
+        <v>0.3217</v>
       </c>
       <c r="C185">
-        <v>0.0275</v>
+        <v>0.0276</v>
       </c>
       <c r="D185">
-        <v>0.2954</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3728,13 +3728,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3254</v>
+        <v>0.3243</v>
       </c>
       <c r="C186">
-        <v>0.0262</v>
+        <v>0.0263</v>
       </c>
       <c r="D186">
-        <v>0.2992</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3742,13 +3742,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3279</v>
+        <v>0.3268</v>
       </c>
       <c r="C187">
-        <v>0.0251</v>
+        <v>0.0252</v>
       </c>
       <c r="D187">
-        <v>0.3028</v>
+        <v>0.3015</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3756,13 +3756,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3315</v>
+        <v>0.3304</v>
       </c>
       <c r="C188">
-        <v>0.0253</v>
+        <v>0.0254</v>
       </c>
       <c r="D188">
-        <v>0.3063</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3770,13 +3770,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="C189">
-        <v>0.0256</v>
+        <v>0.0258</v>
       </c>
       <c r="D189">
-        <v>0.3094</v>
+        <v>0.3082</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3784,13 +3784,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3383</v>
+        <v>0.3373</v>
       </c>
       <c r="C190">
-        <v>0.0259</v>
+        <v>0.0261</v>
       </c>
       <c r="D190">
-        <v>0.3124</v>
+        <v>0.3112</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3798,13 +3798,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3417</v>
+        <v>0.3407</v>
       </c>
       <c r="C191">
-        <v>0.0263</v>
+        <v>0.0264</v>
       </c>
       <c r="D191">
-        <v>0.3154</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3812,13 +3812,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3454</v>
+        <v>0.3443</v>
       </c>
       <c r="C192">
-        <v>0.0271</v>
+        <v>0.0272</v>
       </c>
       <c r="D192">
-        <v>0.3183</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3826,13 +3826,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3486</v>
+        <v>0.3476</v>
       </c>
       <c r="C193">
-        <v>0.0274</v>
+        <v>0.0276</v>
       </c>
       <c r="D193">
-        <v>0.3212</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3840,13 +3840,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3517</v>
+        <v>0.3507</v>
       </c>
       <c r="C194">
-        <v>0.0279</v>
+        <v>0.028</v>
       </c>
       <c r="D194">
-        <v>0.3238</v>
+        <v>0.3226</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3854,13 +3854,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3537</v>
+        <v>0.3527</v>
       </c>
       <c r="C195">
-        <v>0.0278</v>
+        <v>0.0279</v>
       </c>
       <c r="D195">
-        <v>0.3259</v>
+        <v>0.3248</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3868,13 +3868,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3558</v>
+        <v>0.3548</v>
       </c>
       <c r="C196">
-        <v>0.028</v>
+        <v>0.0281</v>
       </c>
       <c r="D196">
-        <v>0.3277</v>
+        <v>0.3266</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3882,13 +3882,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3583</v>
+        <v>0.3574</v>
       </c>
       <c r="C197">
-        <v>0.0288</v>
+        <v>0.0289</v>
       </c>
       <c r="D197">
-        <v>0.3296</v>
+        <v>0.3285</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3896,13 +3896,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3608</v>
+        <v>0.3598</v>
       </c>
       <c r="C198">
-        <v>0.0294</v>
+        <v>0.0295</v>
       </c>
       <c r="D198">
-        <v>0.3314</v>
+        <v>0.3303</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3910,13 +3910,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3637</v>
+        <v>0.3627</v>
       </c>
       <c r="C199">
-        <v>0.0305</v>
+        <v>0.0306</v>
       </c>
       <c r="D199">
-        <v>0.3332</v>
+        <v>0.3321</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3924,13 +3924,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3657</v>
+        <v>0.3647</v>
       </c>
       <c r="C200">
-        <v>0.0311</v>
+        <v>0.0312</v>
       </c>
       <c r="D200">
-        <v>0.3346</v>
+        <v>0.3335</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3938,13 +3938,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.3665</v>
+        <v>0.3655</v>
       </c>
       <c r="C201">
-        <v>0.0312</v>
+        <v>0.0314</v>
       </c>
       <c r="D201">
-        <v>0.3353</v>
+        <v>0.3342</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3952,13 +3952,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3687</v>
+        <v>0.3676</v>
       </c>
       <c r="C202">
-        <v>0.0319</v>
+        <v>0.032</v>
       </c>
       <c r="D202">
-        <v>0.3368</v>
+        <v>0.3357</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3966,13 +3966,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.3696</v>
+        <v>0.3686</v>
       </c>
       <c r="C203">
-        <v>0.0315</v>
+        <v>0.0316</v>
       </c>
       <c r="D203">
-        <v>0.3381</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3980,13 +3980,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="C204">
-        <v>0.0314</v>
+        <v>0.0315</v>
       </c>
       <c r="D204">
-        <v>0.3396</v>
+        <v>0.3385</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3994,13 +3994,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3727</v>
+        <v>0.3717</v>
       </c>
       <c r="C205">
-        <v>0.0314</v>
+        <v>0.0315</v>
       </c>
       <c r="D205">
-        <v>0.3413</v>
+        <v>0.3401</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4008,13 +4008,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.3748</v>
+        <v>0.3738</v>
       </c>
       <c r="C206">
-        <v>0.0318</v>
+        <v>0.0319</v>
       </c>
       <c r="D206">
-        <v>0.343</v>
+        <v>0.3418</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4022,13 +4022,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.3757</v>
+        <v>0.3746</v>
       </c>
       <c r="C207">
-        <v>0.0311</v>
+        <v>0.0312</v>
       </c>
       <c r="D207">
-        <v>0.3446</v>
+        <v>0.3434</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4036,13 +4036,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.3768</v>
+        <v>0.3757</v>
       </c>
       <c r="C208">
         <v>0.0308</v>
       </c>
       <c r="D208">
-        <v>0.3461</v>
+        <v>0.3449</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4050,13 +4050,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.3778</v>
+        <v>0.3767</v>
       </c>
       <c r="C209">
-        <v>0.0303</v>
+        <v>0.0304</v>
       </c>
       <c r="D209">
-        <v>0.3475</v>
+        <v>0.3463</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4064,13 +4064,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.3788</v>
+        <v>0.3777</v>
       </c>
       <c r="C210">
-        <v>0.0302</v>
+        <v>0.0303</v>
       </c>
       <c r="D210">
-        <v>0.3486</v>
+        <v>0.3474</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4078,13 +4078,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.3799</v>
+        <v>0.3787</v>
       </c>
       <c r="C211">
-        <v>0.0305</v>
+        <v>0.0306</v>
       </c>
       <c r="D211">
-        <v>0.3493</v>
+        <v>0.3481</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4092,13 +4092,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.38</v>
+        <v>0.3788</v>
       </c>
       <c r="C212">
         <v>0.0303</v>
       </c>
       <c r="D212">
-        <v>0.3497</v>
+        <v>0.3485</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4106,13 +4106,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.3794</v>
+        <v>0.3783</v>
       </c>
       <c r="C213">
-        <v>0.0297</v>
+        <v>0.0298</v>
       </c>
       <c r="D213">
-        <v>0.3497</v>
+        <v>0.3484</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4120,13 +4120,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.3792</v>
+        <v>0.3781</v>
       </c>
       <c r="C214">
         <v>0.0294</v>
       </c>
       <c r="D214">
-        <v>0.3499</v>
+        <v>0.3486</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4134,13 +4134,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.3792</v>
+        <v>0.3781</v>
       </c>
       <c r="C215">
         <v>0.0295</v>
       </c>
       <c r="D215">
-        <v>0.3498</v>
+        <v>0.3485</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4148,13 +4148,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.378</v>
+        <v>0.3769</v>
       </c>
       <c r="C216">
-        <v>0.0287</v>
+        <v>0.0288</v>
       </c>
       <c r="D216">
-        <v>0.3493</v>
+        <v>0.3481</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4162,13 +4162,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.3762</v>
+        <v>0.375</v>
       </c>
       <c r="C217">
-        <v>0.0276</v>
+        <v>0.0277</v>
       </c>
       <c r="D217">
-        <v>0.3486</v>
+        <v>0.3473</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4176,13 +4176,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.3736</v>
+        <v>0.3725</v>
       </c>
       <c r="C218">
         <v>0.0262</v>
       </c>
       <c r="D218">
-        <v>0.3474</v>
+        <v>0.3462</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4190,13 +4190,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.3707</v>
+        <v>0.3695</v>
       </c>
       <c r="C219">
-        <v>0.0247</v>
+        <v>0.0248</v>
       </c>
       <c r="D219">
-        <v>0.346</v>
+        <v>0.3448</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4204,13 +4204,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3676</v>
+        <v>0.3665</v>
       </c>
       <c r="C220">
         <v>0.0235</v>
       </c>
       <c r="D220">
-        <v>0.3441</v>
+        <v>0.3429</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4218,13 +4218,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.3654</v>
+        <v>0.3643</v>
       </c>
       <c r="C221">
-        <v>0.0229</v>
+        <v>0.023</v>
       </c>
       <c r="D221">
-        <v>0.3425</v>
+        <v>0.3413</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4232,13 +4232,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3607</v>
+        <v>0.3596</v>
       </c>
       <c r="C222">
         <v>0.0216</v>
       </c>
       <c r="D222">
-        <v>0.3391</v>
+        <v>0.3379</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4246,13 +4246,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3567</v>
+        <v>0.3555</v>
       </c>
       <c r="C223">
-        <v>0.0209</v>
+        <v>0.021</v>
       </c>
       <c r="D223">
-        <v>0.3358</v>
+        <v>0.3346</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4260,13 +4260,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3523</v>
+        <v>0.3512</v>
       </c>
       <c r="C224">
         <v>0.0199</v>
       </c>
       <c r="D224">
-        <v>0.3324</v>
+        <v>0.3313</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4274,13 +4274,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3478</v>
+        <v>0.3467</v>
       </c>
       <c r="C225">
-        <v>0.0186</v>
+        <v>0.0187</v>
       </c>
       <c r="D225">
-        <v>0.3292</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4288,13 +4288,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3439</v>
+        <v>0.3428</v>
       </c>
       <c r="C226">
-        <v>0.0177</v>
+        <v>0.0178</v>
       </c>
       <c r="D226">
-        <v>0.3262</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4302,13 +4302,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.3408</v>
+        <v>0.3397</v>
       </c>
       <c r="C227">
         <v>0.0176</v>
       </c>
       <c r="D227">
-        <v>0.3232</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4316,13 +4316,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.338</v>
+        <v>0.3368</v>
       </c>
       <c r="C228">
         <v>0.0177</v>
       </c>
       <c r="D228">
-        <v>0.3203</v>
+        <v>0.3191</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4330,13 +4330,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.3351</v>
+        <v>0.3339</v>
       </c>
       <c r="C229">
         <v>0.018</v>
       </c>
       <c r="D229">
-        <v>0.3172</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4344,13 +4344,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.3324</v>
+        <v>0.3312</v>
       </c>
       <c r="C230">
         <v>0.0182</v>
       </c>
       <c r="D230">
-        <v>0.3142</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4358,13 +4358,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.3295</v>
+        <v>0.3283</v>
       </c>
       <c r="C231">
         <v>0.0179</v>
       </c>
       <c r="D231">
-        <v>0.3116</v>
+        <v>0.3104</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4372,13 +4372,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.3272</v>
+        <v>0.3259</v>
       </c>
       <c r="C232">
         <v>0.0181</v>
       </c>
       <c r="D232">
-        <v>0.309</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4386,13 +4386,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.3253</v>
+        <v>0.3241</v>
       </c>
       <c r="C233">
         <v>0.0187</v>
       </c>
       <c r="D233">
-        <v>0.3066</v>
+        <v>0.3054</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4400,13 +4400,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.323</v>
+        <v>0.3217</v>
       </c>
       <c r="C234">
         <v>0.0191</v>
       </c>
       <c r="D234">
-        <v>0.3038</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4414,13 +4414,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.3204</v>
+        <v>0.3192</v>
       </c>
       <c r="C235">
         <v>0.0191</v>
       </c>
       <c r="D235">
-        <v>0.3013</v>
+        <v>0.3001</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4428,13 +4428,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.3191</v>
+        <v>0.3179</v>
       </c>
       <c r="C236">
-        <v>0.0202</v>
+        <v>0.0201</v>
       </c>
       <c r="D236">
-        <v>0.299</v>
+        <v>0.2978</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4442,13 +4442,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.3181</v>
+        <v>0.3169</v>
       </c>
       <c r="C237">
         <v>0.0212</v>
       </c>
       <c r="D237">
-        <v>0.2969</v>
+        <v>0.2957</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4456,13 +4456,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.3173</v>
+        <v>0.316</v>
       </c>
       <c r="C238">
         <v>0.0222</v>
       </c>
       <c r="D238">
-        <v>0.295</v>
+        <v>0.2938</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4470,13 +4470,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3165</v>
+        <v>0.3152</v>
       </c>
       <c r="C239">
         <v>0.023</v>
       </c>
       <c r="D239">
-        <v>0.2934</v>
+        <v>0.2922</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4484,13 +4484,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.3165</v>
+        <v>0.3153</v>
       </c>
       <c r="C240">
         <v>0.0242</v>
       </c>
       <c r="D240">
-        <v>0.2923</v>
+        <v>0.2911</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4498,13 +4498,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3162</v>
+        <v>0.3149</v>
       </c>
       <c r="C241">
-        <v>0.0251</v>
+        <v>0.025</v>
       </c>
       <c r="D241">
-        <v>0.2911</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4512,13 +4512,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3159</v>
+        <v>0.3147</v>
       </c>
       <c r="C242">
-        <v>0.0256</v>
+        <v>0.0255</v>
       </c>
       <c r="D242">
-        <v>0.2903</v>
+        <v>0.2892</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4526,13 +4526,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3153</v>
+        <v>0.314</v>
       </c>
       <c r="C243">
         <v>0.0256</v>
       </c>
       <c r="D243">
-        <v>0.2896</v>
+        <v>0.2885</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4540,13 +4540,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3149</v>
+        <v>0.3137</v>
       </c>
       <c r="C244">
-        <v>0.0259</v>
+        <v>0.0258</v>
       </c>
       <c r="D244">
-        <v>0.2891</v>
+        <v>0.2879</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4554,13 +4554,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.3144</v>
+        <v>0.3132</v>
       </c>
       <c r="C245">
-        <v>0.026</v>
+        <v>0.0259</v>
       </c>
       <c r="D245">
-        <v>0.2885</v>
+        <v>0.2873</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4568,13 +4568,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.3133</v>
+        <v>0.3121</v>
       </c>
       <c r="C246">
-        <v>0.0257</v>
+        <v>0.0256</v>
       </c>
       <c r="D246">
-        <v>0.2877</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4582,13 +4582,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.313</v>
+        <v>0.3118</v>
       </c>
       <c r="C247">
         <v>0.0254</v>
       </c>
       <c r="D247">
-        <v>0.2876</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4596,13 +4596,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3121</v>
+        <v>0.3109</v>
       </c>
       <c r="C248">
-        <v>0.0242</v>
+        <v>0.0241</v>
       </c>
       <c r="D248">
-        <v>0.2879</v>
+        <v>0.2868</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4610,13 +4610,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3124</v>
+        <v>0.3112</v>
       </c>
       <c r="C249">
-        <v>0.0236</v>
+        <v>0.0235</v>
       </c>
       <c r="D249">
-        <v>0.2889</v>
+        <v>0.2877</v>
       </c>
     </row>
   </sheetData>
